--- a/arquivo_convertido.xlsx
+++ b/arquivo_convertido.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,6 +457,26 @@
       <c r="E1" s="1" t="inlineStr">
         <is>
           <t>qtd_avaliacao</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>bullets</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>imagem</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>qtd_imagem</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>qualidade_imagem</t>
         </is>
       </c>
     </row>
@@ -514,19 +534,313 @@
       <c r="E2" t="n">
         <v>1</v>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>['Portatil e fácil de carregar', 'Alta velocidade de transmissão', 'Compatibilidade']</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/31g-tls+1xL._AC_.jpg</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Meias Kids Selene 3 Pares Sortidos</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>R$30,99</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Ofereça conforto e estilo para os pequenos com as Meias Kids Selene. Perfeitas para o dia a dia, essas meias são ideais para garantir que as crianças estejam sempre aquecidas e bem vestidas, sem abrir mão da praticidade e do charme.
+Características Principais:
+Pacote com 3 Pares Sortidos: Cada pacote contém três pares de meias em cores e padrões variados, proporcionando opções versáteis para combinar com diferentes roupas e ocasiões.
+Conforto Superior: Feitas com materiais macios e respiráveis, as meias garantem um ajuste confortável e agradável durante todo o dia, evitando irritações e desconforto.
+Composição de Qualidade: Fabricadas com uma mistura de algodão e elastano, oferecem elasticidade e durabilidade, mantendo a forma e o ajuste perfeito após várias lavagens.
+Design Atraente: Disponíveis em uma variedade de cores e padrões divertidos, as meias adicionam um toque de diversão e estilo ao visual das crianças.
+Ajuste Perfeito: O elástico suave na parte superior ajuda a manter as meias no lugar sem apertar, proporcionando um ajuste seguro e confortável.
+Fácil Cuidados: Podem ser lavadas na máquina e secas ao ar livre, mantendo a praticidade para os pais e a durabilidade para os pequenos.
+As Meias Kids Selene são a escolha ideal para pais que buscam qualidade e estilo para seus filhos. Com a combinação perfeita de conforto, durabilidade e design, essas meias são um complemento essencial para o guarda-roupa das crianças.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Sem avaliação</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>['Bullet points não encontrados']</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/61PCujaCXDL._AC_SL1200_.jpg</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1060x722</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Ring Light 6 Polegadas 14cm com Mini Tripe (Preto)</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>R$30,90</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Ring Light 6 Polegadas (14cm) com Mini Tripé! Ideal para criadores de conteúdo, maquiadores, youtubers e influenciadores, essa iluminação prática e eficiente é o segredo para resultados profissionais. Com seu design compacto e 3 opções de temperatura de cor (branca, neutra e quente), você terá o controle perfeito da luz, ajustando-a conforme o ambiente e o estilo de gravação. O mini tripé garante estabilidade e facilidade de uso em qualquer superfície, oferecendo ângulos ideais para selfies, gravações e videochamadas. Compacto, portátil e extremamente versátil, o Ring Light de 14cm é a escolha perfeita para destacar seus melhores momentos, melhorar a qualidade visual do seu conteúdo e proporcionar aquele brilho único que faz toda a diferença. Destaques: 3 modos de iluminação para ajuste perfeito; Mini tripé estável para qualquer superfície; Ideal para vídeos, fotos, lives e tutoriais; Compacto e leve, fácil de transportar.</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Sem avaliação</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>['Versatilidade de Iluminação: Com três opções de temperatura de cor (branca, neutra e quente), o Ring Light permite que você ajuste a iluminação conforme o ambiente e o estilo de gravação, garantindo resultados sempre profissionais.', 'Portabilidade e Design Compacto: Seu tamanho reduzido e leveza tornam este ring light extremamente fácil de transportar, ideal para criadores de conteúdo em movimento, maquiadores e influenciadores que precisam de uma solução prática.', 'Mini Tripé Estável: O mini tripé proporciona estabilidade em qualquer superfície, permitindo ângulos ideais para selfies, gravações e videochamadas, sem comprometer a qualidade da imagem.', 'Ideal para Múltiplas Aplicações: Perfeito para vídeos, fotos, transmissões ao vivo e tutoriais, o Ring Light é uma ferramenta essencial para quem deseja elevar a qualidade visual do seu conteúdo.', 'Facilidade de Uso: A combinação de um design intuitivo com a funcionalidade do tripé torna este ring light fácil de usar, proporcionando uma experiência sem complicações para todos os criadores de conteúdo, independentemente do nível de experiência.']</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/516F0uDJazL._AC_SL1200_.jpg</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1200x1133</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Biquíni Aviação Estampado Sem Bojo Conforto e Estilo</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>R$44,99</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Transforme seu Verão com o Biquíni Aviação com Estampa Pimenta
+Prepare-se para brilhar neste verão com o Biquíni Aviação com Estampa Pimenta. Com um design vibrante e ousado, este biquíni é perfeito para quem deseja se destacar à beira da piscina ou na praia. A estampa de pimenta traz um toque de personalidade e modernidade, tornando cada momento ainda mais especial.
+Estampa Exclusiva: A estampa de pimenta não só adiciona um charme único e vibrante ao seu visual, mas também reflete seu estilo arrojado e confiante.
+Conforto Sem Bojo: A ausência de bojo garante um ajuste leve e confortável, ideal para dias ensolarados de diversão e relaxamento. Você pode se mover livremente, sem abrir mão da elegância.
+Design Estiloso: Com um corte que valoriza as curvas, este biquíni é ideal para quem busca um look ousado e contemporâneo. Combine-o com seus acessórios favoritos e esteja pronta para arrasar!
+Transforme suas experiências de verão em momentos inesquecíveis com o Biquíni Aviação. Sinta-se confiante, estilosa e confortável em qualquer ocasião!</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Sem avaliação</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>['Bullet points não encontrados']</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/61jwBveWy3L._AC_SL1200_.jpg</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>797x1034</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Capa Protetora Defender Preta Para Galaxy Tab III 7 Otterbox (Preto)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>R$28,89</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Proteja seu Galaxy Tab III 7 com a Capa Protetora Defender da Otterbox, projetada para oferecer máxima segurança e funcionalidade. Esta capa é ideal para quem busca proteção robusta sem abrir mão do estilo. Características: - Proteção Superior: A tecnologia de absorção de impactos proporciona defesa contra quedas, arranhões e impactos, garantindo que seu dispositivo permaneça em perfeito estado. - Design Ergonômico: Com um encaixe seguro e confortável, a capa facilita o manuseio, permitindo que você utilize seu tablet com facilidade. - Acesso Total: A Capa Defender mantém todas as portas e botões acessíveis, permitindo o uso total das funcionalidades do seu Galaxy Tab III 7, sem a necessidade de remover a capa. - Material de Alta Qualidade: Fabricada com materiais duráveis, resistentes à abrasão e ao desgaste, garantindo longa vida útil. - Instalação Simples: A capa é fácil de instalar e remover, permitindo que você troque de acessório conforme suas necessidades. Dimensões e Peso: - Compatível com Galaxy Tab III 7. - Peso leve, ideal para transporte. Cores Disponíveis: - Preto clássico, que combina com qualquer estilo. Cuidados e Manutenção: - Limpeza com pano úmido. - Evitar contato com produtos químicos agressivos. Garanta a proteção que seu Galaxy Tab III 7 merece com a Capa Protetora Defender Preta da Otterbox. Perfeita para uso diário, viagens ou qualquer situação em que seu tablet esteja exposto a riscos.</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Sem avaliação</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>['Proteção em Camadas: A capa possui três camadas de proteção, incluindo uma camada interna de policarbonato rígido que absorve impactos e uma camada externa emborrachada que oferece resistência adicional contra quedas e arranhões.', 'Design Resistente: A capa é projetada para suportar ambientes desafiadores e testes rigorosos, protegendo o dispositivo de quedas de até 2 metros', 'Acesso Total: Apesar da proteção, a capa permite fácil acesso a todos os botões, portas e funcionalidades do tablet, incluindo câmera e conector de carregamento, sem precisar remover a capa.', 'Material e Dimensões: A capa é feita de policarbonato e silicone emborrachado, leve e projetada para se ajustar perfeitamente ao Galaxy Tab III 7".']</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/41Vc49XdKZL._AC_SL1200_.jpg</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>498x1148</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Bermuda Masculina Térmica De Compressão Lupo I-Max</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>R$120,30</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A Bermuda Lupo AM Térmica I-Max em azul marinho é a escolha ideal para quem busca alto desempenho e conforto durante treinos intensos e atividades físicas. Feita com a tecnologia I-Max, ela oferece uma excelente compressão, proporcionando suporte muscular que melhora a performance e reduz a fadiga. Seu tecido térmico mantém a temperatura corporal estável, garantindo conforto em climas frios ou quentes.
+Características:
+Tecnologia I-Max: compressão que auxilia na circulação sanguínea e aumenta a resistência durante o exercício.
+Tecido térmico: mantém o corpo na temperatura ideal em qualquer condição climática.
+Elasticidade: ajuste perfeito ao corpo, permitindo total liberdade de movimento.
+Design anatômico: molda-se ao corpo com um caimento perfeito, valorizando a silhueta.
+Cor azul marinho: sofisticada e fácil de combinar com outras peças esportivas.
+Costuras flat: evitam atrito e irritações na pele, garantindo máximo conforto durante o uso prolongado.
+Respirabilidade: tecido que facilita a ventilação e evita o acúmulo de suor.
+Essa bermuda é a opção certa para quem procura qualidade, desempenho e estilo em uma única peça. Seja para correr, malhar ou praticar esportes ao ar livre, a Bermuda Lupo AM Térmica I-Max é a sua companheira ideal.</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Sem avaliação</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>['Bullet points não encontrados']</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51Gb00LBw2L._AC_SL1200_.jpg</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>828x1013</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Película Protetora de Vidro para Tela de Celular, para Motorola E4, Transparente</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>R$19,09</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Proteção além da sua expectativa. As películas são compostas de um vidro temperado especial, não atrapalha o touch do seu smartphone, mas protege muito mais contra riscos, arranhões e impactos de menor grau sobre a tela do aparelho.</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4,3 de 5</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>['Proteção além da sua expectativa', 'As películas são compostas de um vidro temperado especial, não atrapalha o touch do seu smartphone', 'Protege muito mais contra riscos, arranhões e impactos de menor grau sobre a tela do aparelho', 'Para Motorola E4']</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/61HJECjobtL._AC_SL1000_.jpg</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>790x812</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>Kit 2 Cuecas Boxer Mash Preto/Preto Listrado</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>R$52,90</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Eleve o conforto do seu dia a dia com o Kit Boxer Microfibra 2 Peças da Mash, ideal para quem busca qualidade e praticidade em roupas íntimas. Este conjunto é perfeito para uso diário, proporcionando o máximo de conforto e durabilidade.
 Características principais:
@@ -544,178 +858,6 @@
 O Kit Boxer Microfibra 2 Peças da Mash é a escolha perfeita para quem preza por qualidade, conforto e estilo no dia a dia!</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Sem avaliação</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Meias Kids Selene 3 Pares Sortidos</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>R$30,99</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Ofereça conforto e estilo para os pequenos com as Meias Kids Selene. Perfeitas para o dia a dia, essas meias são ideais para garantir que as crianças estejam sempre aquecidas e bem vestidas, sem abrir mão da praticidade e do charme.
-Características Principais:
-Pacote com 3 Pares Sortidos: Cada pacote contém três pares de meias em cores e padrões variados, proporcionando opções versáteis para combinar com diferentes roupas e ocasiões.
-Conforto Superior: Feitas com materiais macios e respiráveis, as meias garantem um ajuste confortável e agradável durante todo o dia, evitando irritações e desconforto.
-Composição de Qualidade: Fabricadas com uma mistura de algodão e elastano, oferecem elasticidade e durabilidade, mantendo a forma e o ajuste perfeito após várias lavagens.
-Design Atraente: Disponíveis em uma variedade de cores e padrões divertidos, as meias adicionam um toque de diversão e estilo ao visual das crianças.
-Ajuste Perfeito: O elástico suave na parte superior ajuda a manter as meias no lugar sem apertar, proporcionando um ajuste seguro e confortável.
-Fácil Cuidados: Podem ser lavadas na máquina e secas ao ar livre, mantendo a praticidade para os pais e a durabilidade para os pequenos.
-As Meias Kids Selene são a escolha ideal para pais que buscam qualidade e estilo para seus filhos. Com a combinação perfeita de conforto, durabilidade e design, essas meias são um complemento essencial para o guarda-roupa das crianças.</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Sem avaliação</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Bermuda Masculina Térmica De Compressão Lupo I-Max</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>R$120,30</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>A Bermuda Lupo AM Térmica I-Max em azul marinho é a escolha ideal para quem busca alto desempenho e conforto durante treinos intensos e atividades físicas. Feita com a tecnologia I-Max, ela oferece uma excelente compressão, proporcionando suporte muscular que melhora a performance e reduz a fadiga. Seu tecido térmico mantém a temperatura corporal estável, garantindo conforto em climas frios ou quentes.
-Características:
-Tecnologia I-Max: compressão que auxilia na circulação sanguínea e aumenta a resistência durante o exercício.
-Tecido térmico: mantém o corpo na temperatura ideal em qualquer condição climática.
-Elasticidade: ajuste perfeito ao corpo, permitindo total liberdade de movimento.
-Design anatômico: molda-se ao corpo com um caimento perfeito, valorizando a silhueta.
-Cor azul marinho: sofisticada e fácil de combinar com outras peças esportivas.
-Costuras flat: evitam atrito e irritações na pele, garantindo máximo conforto durante o uso prolongado.
-Respirabilidade: tecido que facilita a ventilação e evita o acúmulo de suor.
-Essa bermuda é a opção certa para quem procura qualidade, desempenho e estilo em uma única peça. Seja para correr, malhar ou praticar esportes ao ar livre, a Bermuda Lupo AM Térmica I-Max é a sua companheira ideal.</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Sem avaliação</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Ring Light 6 Polegadas 14cm com Mini Tripe (Preto)</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>R$30,90</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Ring Light 6 Polegadas (14cm) com Mini Tripé! Ideal para criadores de conteúdo, maquiadores, youtubers e influenciadores, essa iluminação prática e eficiente é o segredo para resultados profissionais. Com seu design compacto e 3 opções de temperatura de cor (branca, neutra e quente), você terá o controle perfeito da luz, ajustando-a conforme o ambiente e o estilo de gravação. O mini tripé garante estabilidade e facilidade de uso em qualquer superfície, oferecendo ângulos ideais para selfies, gravações e videochamadas. Compacto, portátil e extremamente versátil, o Ring Light de 14cm é a escolha perfeita para destacar seus melhores momentos, melhorar a qualidade visual do seu conteúdo e proporcionar aquele brilho único que faz toda a diferença. Destaques: 3 modos de iluminação para ajuste perfeito; Mini tripé estável para qualquer superfície; Ideal para vídeos, fotos, lives e tutoriais; Compacto e leve, fácil de transportar.</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Sem avaliação</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Biquíni Aviação Estampado Sem Bojo Conforto e Estilo</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>R$44,99</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Transforme seu Verão com o Biquíni Aviação com Estampa Pimenta
-Prepare-se para brilhar neste verão com o Biquíni Aviação com Estampa Pimenta. Com um design vibrante e ousado, este biquíni é perfeito para quem deseja se destacar à beira da piscina ou na praia. A estampa de pimenta traz um toque de personalidade e modernidade, tornando cada momento ainda mais especial.
-Estampa Exclusiva: A estampa de pimenta não só adiciona um charme único e vibrante ao seu visual, mas também reflete seu estilo arrojado e confiante.
-Conforto Sem Bojo: A ausência de bojo garante um ajuste leve e confortável, ideal para dias ensolarados de diversão e relaxamento. Você pode se mover livremente, sem abrir mão da elegância.
-Design Estiloso: Com um corte que valoriza as curvas, este biquíni é ideal para quem busca um look ousado e contemporâneo. Combine-o com seus acessórios favoritos e esteja pronta para arrasar!
-Transforme suas experiências de verão em momentos inesquecíveis com o Biquíni Aviação. Sinta-se confiante, estilosa e confortável em qualquer ocasião!</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Sem avaliação</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Película Protetora de Vidro para Tela de Celular, para Motorola E4, Transparente</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>R$19,09</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Proteção além da sua expectativa. As películas são compostas de um vidro temperado especial, não atrapalha o touch do seu smartphone, mas protege muito mais contra riscos, arranhões e impactos de menor grau sobre a tela do aparelho.</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>4,3 de 5</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Shorts Jeans Stillage Confortável com Barras Dobradas Estilo Casual</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>R$47,90</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Descubra o shorts perfeito para os dias quentes com o Shorts Jeans Stillage. Feito em jeans de alta qualidade, este modelo oferece o equilíbrio ideal entre conforto e estilo. Com barras dobradas que trazem um toque moderno e despojado, ele é a escolha ideal para compor looks casuais e frescos. Versátil, combina facilmente com blusas, camisetas ou regatas, sendo perfeito para passeios ou momentos descontraídos. Além disso, o corte ajustado valoriza a silhueta, proporcionando liberdade de movimento sem abrir mão do estilo.</t>
-        </is>
-      </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>Sem avaliação</t>
@@ -724,55 +866,109 @@
       <c r="E9" t="n">
         <v>0</v>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>['Bullet points não encontrados']</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51WYmEtPS1L._AC_SL1200_.jpg</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>833x1137</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Capa Protetora Defender Preta Para Galaxy Tab III 7 Otterbox (Preto)</t>
+          <t>Capa Protetora Kicktok para Galaxy S8 Plus, Samsung, Capa Protetora para Celular, Transparente</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R$28,89</t>
+          <t>R$31,23</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Proteja seu Galaxy Tab III 7 com a Capa Protetora Defender da Otterbox, projetada para oferecer máxima segurança e funcionalidade. Esta capa é ideal para quem busca proteção robusta sem abrir mão do estilo. Características: - Proteção Superior: A tecnologia de absorção de impactos proporciona defesa contra quedas, arranhões e impactos, garantindo que seu dispositivo permaneça em perfeito estado. - Design Ergonômico: Com um encaixe seguro e confortável, a capa facilita o manuseio, permitindo que você utilize seu tablet com facilidade. - Acesso Total: A Capa Defender mantém todas as portas e botões acessíveis, permitindo o uso total das funcionalidades do seu Galaxy Tab III 7, sem a necessidade de remover a capa. - Material de Alta Qualidade: Fabricada com materiais duráveis, resistentes à abrasão e ao desgaste, garantindo longa vida útil. - Instalação Simples: A capa é fácil de instalar e remover, permitindo que você troque de acessório conforme suas necessidades. Dimensões e Peso: - Compatível com Galaxy Tab III 7. - Peso leve, ideal para transporte. Cores Disponíveis: - Preto clássico, que combina com qualquer estilo. Cuidados e Manutenção: - Limpeza com pano úmido. - Evitar contato com produtos químicos agressivos. Garanta a proteção que seu Galaxy Tab III 7 merece com a Capa Protetora Defender Preta da Otterbox. Perfeita para uso diário, viagens ou qualquer situação em que seu tablet esteja exposto a riscos.</t>
+          <t>A capa S8 kicktok protege o Galaxy S8 plus realçando o design do smartphone. A capa serve também como apoio permitindo uma posição confortável para visualização da tela ou para digitação além de permitir acesso rápido e fácil a todos os botões e conexões.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Sem avaliação</t>
+          <t>3,8 de 5</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>['Estilo e elegância', 'Proteção completa contra riscos e quedas', 'Suporte embutido para assistir a vídeos com as mãos livres', 'País de Origem: VN']</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51jZ4MDpKBL._AC_SL1499_.jpg</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>681x1443</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Capa Protetora Kicktok para Galaxy S8 Plus, Samsung, Capa Protetora para Celular, Transparente</t>
+          <t>Shorts Jeans Stillage Confortável com Barras Dobradas Estilo Casual</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>R$31,23</t>
+          <t>R$47,90</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>A capa S8 kicktok protege o Galaxy S8 plus realçando o design do smartphone. A capa serve também como apoio permitindo uma posição confortável para visualização da tela ou para digitação além de permitir acesso rápido e fácil a todos os botões e conexões.</t>
+          <t>Descubra o shorts perfeito para os dias quentes com o Shorts Jeans Stillage. Feito em jeans de alta qualidade, este modelo oferece o equilíbrio ideal entre conforto e estilo. Com barras dobradas que trazem um toque moderno e despojado, ele é a escolha ideal para compor looks casuais e frescos. Versátil, combina facilmente com blusas, camisetas ou regatas, sendo perfeito para passeios ou momentos descontraídos. Além disso, o corte ajustado valoriza a silhueta, proporcionando liberdade de movimento sem abrir mão do estilo.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3,8 de 5</t>
+          <t>Sem avaliação</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>['Bullet points não encontrados']</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/61mjwNm8C5L._AC_SL1200_.jpg</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>1116x811</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -799,6 +995,24 @@
       <c r="E12" t="n">
         <v>20</v>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>['Adesivo de silicone', 'Fina e forte', 'Alta sensibilidade', 'A tela do seu aparelho sempre nova']</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/71UPRh4y2oL._AC_SL1500_.jpg</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>724x1500</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -808,7 +1022,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>R$48,99</t>
+          <t>R$45,41</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -824,55 +1038,109 @@
       <c r="E13" t="n">
         <v>3</v>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>['Para o uso de outros acessórios não precisa retirar a capa', 'Evite riscos e impactos que podem danificar seu aparelho.', 'Com acabamento refinado, dá maior aderência e segurança quando o aparelho está em suas mãos.', 'País de Origem: CN']</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/615aJ73lEBL._AC_SL1500_.jpg</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>638x1500</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Capa Protetora Cristal Case Transparente Moto E5, Motorola, Capa com Proteção Completa (Carcaça+Tela), Transparente</t>
+          <t>Carregador Veicular Hightech, Energizer, EZ-DCA2CUWH3I, Branca</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>R$14,90</t>
+          <t>R$19,90</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Protege seu smartphone na parte traseira e laterais. com abertura para acessórios como carregadores e fones. Para o uso de outros acessórios não precisa retirar a capa. Evite riscos e impactos que podem danificar seu aparelho.</t>
+          <t>Carregue seus aparelhos enquanto está na rua ou na estrada. Com 3, 4 Amp potência de saída, este carregador Veicular Energizer com duas saídas USB, proporciona a carga rápida e segura de seus smartphones ou tablets.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3,2 de 5</t>
+          <t>4,5 de 5</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>33</v>
+        <v>11</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>['Carregue dois aparelhos simultaneamente', 'Obs: Não acompanha cabo USB', 'Design elegante']</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/61t5kdNN+3L._AC_SL1500_.jpg</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>1160x1248</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Carregador Veicular Hightech, Energizer, EZ-DCA2CUWH3I, Branca</t>
+          <t>Capa Protetora Cristal Case Transparente Moto E5, Motorola, Capa com Proteção Completa (Carcaça+Tela), Transparente</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>R$19,90</t>
+          <t>R$14,90</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Carregue seus aparelhos enquanto está na rua ou na estrada. Com 3, 4 Amp potência de saída, este carregador Veicular Energizer com duas saídas USB, proporciona a carga rápida e segura de seus smartphones ou tablets.</t>
+          <t>Protege seu smartphone na parte traseira e laterais. com abertura para acessórios como carregadores e fones. Para o uso de outros acessórios não precisa retirar a capa. Evite riscos e impactos que podem danificar seu aparelho.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4,5 de 5</t>
+          <t>3,2 de 5</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>11</v>
+        <v>33</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>['Protege seu smartphone na parte traseira e laterais. com abertura para acessórios como carregadores e fones', 'Para o uso de outros acessórios não precisa retirar a capa', 'Evite riscos e impactos que podem danificar seu aparelho', 'País de Origem: CN']</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/611KhH7BtTL._AC_SL1500_.jpg</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>697x1433</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -899,6 +1167,24 @@
       <c r="E16" t="n">
         <v>0</v>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>['Alta Resolução: Suporta resoluções de até 4K (2160p), proporcionando imagens nítidas e detalhadas, ideal para gamers e profissionais que exigem qualidade visual superior.', 'Blindagem Reforçada: A blindagem avançada do cabo protege contra interferências eletromagnéticas, minimizando perda de sinal e garantindo uma conexão de alta qualidade.', 'Conectores Banhados a Ouro: Os conectores banhados a ouro garantem uma excelente condutividade e resistência à corrosão, assegurando uma transmissão de sinal mais estável e confiável.', 'Trava de Segurança: Equipado com uma trava de segurança, o cabo assegura uma conexão firme e confiável, evitando desconexões acidentais durante o uso.', 'Comprimento Ideal: Com 1,8 metros de comprimento, o cabo oferece flexibilidade e conveniência para conectar dispositivos em diferentes configurações sem comprometer a qualidade do sinal.']</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51-3+Xs2w-L._AC_SL1200_.jpg</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>1200x1091</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -924,6 +1210,24 @@
       <c r="E17" t="n">
         <v>0</v>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>['Eficiência de Carregamento: Com potência de 15W, o carregador oferece carregamento rápido e eficiente para uma variedade de dispositivos, incluindo smartphones e tablets.', 'Portabilidade e Design Compacto: O design leve e discreto facilita o transporte em bolsas e mochilas, tornando-o ideal para quem está sempre em movimento.', 'Compatibilidade Universal: A porta USB-A permite a conexão com uma ampla gama de dispositivos, garantindo flexibilidade no carregamento.', 'Segurança Avançada: Equipado com proteção contra superaquecimento, sobrecarga e curtos-circuitos, assegura um uso seguro para os dispositivos.', 'Compatibilidade Global: Funciona em tensões de 100-240V, sendo ideal para viajantes que necessitam de um carregador confiável em diferentes regiões do mundo.']</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/41ybhWt-6iL._AC_SL1200_.jpg</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>595x1185</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -949,6 +1253,24 @@
       <c r="E18" t="n">
         <v>0</v>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>['Com Design Limpo E Moderno, Trazendo Requinte E Sofisticação Para A Decoração De Seu Bar', 'Um Lindo Presente Para Homens Modernos Que Gostam De Preparar Seus Dinks Ou Receber Seus Convidados Com Elegncia', 'Em Aço Inox Polido, Prática De Limpar E Durável', 'País de Origem: CN']</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51n-vWG4HIL._AC_SL1000_.jpg</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>611x893</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -973,6 +1295,24 @@
       </c>
       <c r="E19" t="n">
         <v>2</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>['Ideal para limpar e tirar o pó na sala no quarto ou no seu escritório', 'Dobrável em aço e plástico com 45 cm', 'Material pp e aço inox', 'Fabricado com muito cuidado e atenção aos detalhes']</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/41n99saqHAL._AC_SL1000_.jpg</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>410x362</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/arquivo_convertido.xlsx
+++ b/arquivo_convertido.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,37 +446,57 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>descricao</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>avaliacao</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>qtd_avaliacao</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>bullets</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>imagem</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>qtd_imagem</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>qualidade_imagem</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>video</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>nome_categoria</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>link_categoria</t>
         </is>
       </c>
     </row>
@@ -492,6 +512,11 @@
         </is>
       </c>
       <c r="C2" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Portas-Leitor-Cartao-Memoria-7portas/dp/B0DGGW72LL/ref=sr_1_1?dib=eyJ2IjoiMSJ9.an_1cY7E3LZNeVFRP4TQy4D6XkRe91SyzHh0aA3HqqAYh13TYtkf28luLUpqKdKYxdilEX4ZBI9cODJTEig0luYmtM4qnUstiXEQ2BqvBB1prwSJR7EozqV2Qy3YjTzFGj2xXOvznxaPCE_j3Fhst02QylxaUedF9OxRXxxUodm9igkYUVrFiq9hAyn5E-ktKeySD2f35RRaclvvMPpHz8PzuDy1Ck93AKfgPxw5WC4.FrqZ0joENNmRduDYE7-tNuS5qWPM63m8VQtvS0UiF_U&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744748303&amp;s=merchant-items&amp;sr=1-1&amp;xpid=tqkuqdh5H_SQg</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>Características
 - HUB + Leitor de cartão universal
@@ -526,226 +551,59 @@
 - RS MMC-Speed/RS MMC-Max/MMC Pro/MMC Mobile/MMC/ Mobile-Pro</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>5 de 5</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>1</v>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['Portatil e fácil de carregar', 'Alta velocidade de transmissão', 'Compatibilidade']</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://m.media-amazon.com/images/I/31g-tls+1xL._AC_.jpg</t>
         </is>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>1</v>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Hubs USB</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Hubs-USB/b/ref=dp_bc_3?ie=UTF8&amp;node=23884302011</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Meias Kids Selene 3 Pares Sortidos</t>
+          <t>Bermuda Masculina Térmica De Compressão Lupo I-Max</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R$30,99</t>
+          <t>R$120,30</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Ofereça conforto e estilo para os pequenos com as Meias Kids Selene. Perfeitas para o dia a dia, essas meias são ideais para garantir que as crianças estejam sempre aquecidas e bem vestidas, sem abrir mão da praticidade e do charme.
-Características Principais:
-Pacote com 3 Pares Sortidos: Cada pacote contém três pares de meias em cores e padrões variados, proporcionando opções versáteis para combinar com diferentes roupas e ocasiões.
-Conforto Superior: Feitas com materiais macios e respiráveis, as meias garantem um ajuste confortável e agradável durante todo o dia, evitando irritações e desconforto.
-Composição de Qualidade: Fabricadas com uma mistura de algodão e elastano, oferecem elasticidade e durabilidade, mantendo a forma e o ajuste perfeito após várias lavagens.
-Design Atraente: Disponíveis em uma variedade de cores e padrões divertidos, as meias adicionam um toque de diversão e estilo ao visual das crianças.
-Ajuste Perfeito: O elástico suave na parte superior ajuda a manter as meias no lugar sem apertar, proporcionando um ajuste seguro e confortável.
-Fácil Cuidados: Podem ser lavadas na máquina e secas ao ar livre, mantendo a praticidade para os pais e a durabilidade para os pequenos.
-As Meias Kids Selene são a escolha ideal para pais que buscam qualidade e estilo para seus filhos. Com a combinação perfeita de conforto, durabilidade e design, essas meias são um complemento essencial para o guarda-roupa das crianças.</t>
+          <t>https://www.amazon.com.br/Bermuda-Masculina-T%C3%A9rmica-Compress%C3%A3o-I-Max/dp/B0DGQTCMC5/ref=sr_1_2?dib=eyJ2IjoiMSJ9.an_1cY7E3LZNeVFRP4TQy4D6XkRe91SyzHh0aA3HqqAYh13TYtkf28luLUpqKdKYxdilEX4ZBI9cODJTEig0luYmtM4qnUstiXEQ2BqvBB1prwSJR7EozqV2Qy3YjTzFGj2xXOvznxaPCE_j3Fhst02QylxaUedF9OxRXxxUodm9igkYUVrFiq9hAyn5E-ktKeySD2f35RRaclvvMPpHz8PzuDy1Ck93AKfgPxw5WC4.FrqZ0joENNmRduDYE7-tNuS5qWPM63m8VQtvS0UiF_U&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744748303&amp;s=merchant-items&amp;sr=1-2&amp;ufe=app_do%3Aamzn1.fos.a492fd4a-f54d-4e8d-8c31-35e0a04ce61e&amp;xpid=tqkuqdh5H_SQg</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
-        <is>
-          <t>Sem avaliação</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>['Bullet points não encontrados']</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>https://m.media-amazon.com/images/I/61PCujaCXDL._AC_SL1200_.jpg</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>1060x722</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Ring Light 6 Polegadas 14cm com Mini Tripe (Preto)</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>R$30,90</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Ring Light 6 Polegadas (14cm) com Mini Tripé! Ideal para criadores de conteúdo, maquiadores, youtubers e influenciadores, essa iluminação prática e eficiente é o segredo para resultados profissionais. Com seu design compacto e 3 opções de temperatura de cor (branca, neutra e quente), você terá o controle perfeito da luz, ajustando-a conforme o ambiente e o estilo de gravação. O mini tripé garante estabilidade e facilidade de uso em qualquer superfície, oferecendo ângulos ideais para selfies, gravações e videochamadas. Compacto, portátil e extremamente versátil, o Ring Light de 14cm é a escolha perfeita para destacar seus melhores momentos, melhorar a qualidade visual do seu conteúdo e proporcionar aquele brilho único que faz toda a diferença. Destaques: 3 modos de iluminação para ajuste perfeito; Mini tripé estável para qualquer superfície; Ideal para vídeos, fotos, lives e tutoriais; Compacto e leve, fácil de transportar.</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Sem avaliação</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>['Versatilidade de Iluminação: Com três opções de temperatura de cor (branca, neutra e quente), o Ring Light permite que você ajuste a iluminação conforme o ambiente e o estilo de gravação, garantindo resultados sempre profissionais.', 'Portabilidade e Design Compacto: Seu tamanho reduzido e leveza tornam este ring light extremamente fácil de transportar, ideal para criadores de conteúdo em movimento, maquiadores e influenciadores que precisam de uma solução prática.', 'Mini Tripé Estável: O mini tripé proporciona estabilidade em qualquer superfície, permitindo ângulos ideais para selfies, gravações e videochamadas, sem comprometer a qualidade da imagem.', 'Ideal para Múltiplas Aplicações: Perfeito para vídeos, fotos, transmissões ao vivo e tutoriais, o Ring Light é uma ferramenta essencial para quem deseja elevar a qualidade visual do seu conteúdo.', 'Facilidade de Uso: A combinação de um design intuitivo com a funcionalidade do tripé torna este ring light fácil de usar, proporcionando uma experiência sem complicações para todos os criadores de conteúdo, independentemente do nível de experiência.']</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>https://m.media-amazon.com/images/I/516F0uDJazL._AC_SL1200_.jpg</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>1200x1133</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Biquíni Aviação Estampado Sem Bojo Conforto e Estilo</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>R$44,99</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Transforme seu Verão com o Biquíni Aviação com Estampa Pimenta
-Prepare-se para brilhar neste verão com o Biquíni Aviação com Estampa Pimenta. Com um design vibrante e ousado, este biquíni é perfeito para quem deseja se destacar à beira da piscina ou na praia. A estampa de pimenta traz um toque de personalidade e modernidade, tornando cada momento ainda mais especial.
-Estampa Exclusiva: A estampa de pimenta não só adiciona um charme único e vibrante ao seu visual, mas também reflete seu estilo arrojado e confiante.
-Conforto Sem Bojo: A ausência de bojo garante um ajuste leve e confortável, ideal para dias ensolarados de diversão e relaxamento. Você pode se mover livremente, sem abrir mão da elegância.
-Design Estiloso: Com um corte que valoriza as curvas, este biquíni é ideal para quem busca um look ousado e contemporâneo. Combine-o com seus acessórios favoritos e esteja pronta para arrasar!
-Transforme suas experiências de verão em momentos inesquecíveis com o Biquíni Aviação. Sinta-se confiante, estilosa e confortável em qualquer ocasião!</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Sem avaliação</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>['Bullet points não encontrados']</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>https://m.media-amazon.com/images/I/61jwBveWy3L._AC_SL1200_.jpg</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>797x1034</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Capa Protetora Defender Preta Para Galaxy Tab III 7 Otterbox (Preto)</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>R$28,89</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Proteja seu Galaxy Tab III 7 com a Capa Protetora Defender da Otterbox, projetada para oferecer máxima segurança e funcionalidade. Esta capa é ideal para quem busca proteção robusta sem abrir mão do estilo. Características: - Proteção Superior: A tecnologia de absorção de impactos proporciona defesa contra quedas, arranhões e impactos, garantindo que seu dispositivo permaneça em perfeito estado. - Design Ergonômico: Com um encaixe seguro e confortável, a capa facilita o manuseio, permitindo que você utilize seu tablet com facilidade. - Acesso Total: A Capa Defender mantém todas as portas e botões acessíveis, permitindo o uso total das funcionalidades do seu Galaxy Tab III 7, sem a necessidade de remover a capa. - Material de Alta Qualidade: Fabricada com materiais duráveis, resistentes à abrasão e ao desgaste, garantindo longa vida útil. - Instalação Simples: A capa é fácil de instalar e remover, permitindo que você troque de acessório conforme suas necessidades. Dimensões e Peso: - Compatível com Galaxy Tab III 7. - Peso leve, ideal para transporte. Cores Disponíveis: - Preto clássico, que combina com qualquer estilo. Cuidados e Manutenção: - Limpeza com pano úmido. - Evitar contato com produtos químicos agressivos. Garanta a proteção que seu Galaxy Tab III 7 merece com a Capa Protetora Defender Preta da Otterbox. Perfeita para uso diário, viagens ou qualquer situação em que seu tablet esteja exposto a riscos.</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Sem avaliação</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>['Proteção em Camadas: A capa possui três camadas de proteção, incluindo uma camada interna de policarbonato rígido que absorve impactos e uma camada externa emborrachada que oferece resistência adicional contra quedas e arranhões.', 'Design Resistente: A capa é projetada para suportar ambientes desafiadores e testes rigorosos, protegendo o dispositivo de quedas de até 2 metros', 'Acesso Total: Apesar da proteção, a capa permite fácil acesso a todos os botões, portas e funcionalidades do tablet, incluindo câmera e conector de carregamento, sem precisar remover a capa.', 'Material e Dimensões: A capa é feita de policarbonato e silicone emborrachado, leve e projetada para se ajustar perfeitamente ao Galaxy Tab III 7".']</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>https://m.media-amazon.com/images/I/41Vc49XdKZL._AC_SL1200_.jpg</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>498x1148</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Bermuda Masculina Térmica De Compressão Lupo I-Max</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>R$120,30</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
         <is>
           <t>A Bermuda Lupo AM Térmica I-Max em azul marinho é a escolha ideal para quem busca alto desempenho e conforto durante treinos intensos e atividades físicas. Feita com a tecnologia I-Max, ela oferece uma excelente compressão, proporcionando suporte muscular que melhora a performance e reduz a fadiga. Seu tecido térmico mantém a temperatura corporal estável, garantindo conforto em climas frios ou quentes.
 Características:
@@ -759,88 +617,129 @@
 Essa bermuda é a opção certa para quem procura qualidade, desempenho e estilo em uma única peça. Seja para correr, malhar ou praticar esportes ao ar livre, a Bermuda Lupo AM Térmica I-Max é a sua companheira ideal.</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>Sem avaliação</t>
         </is>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>['Bullet points não encontrados']</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>['Elasticidade', 'Design anatômico', 'Respirabilidade', 'Tecido térmico']</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://m.media-amazon.com/images/I/51Gb00LBw2L._AC_SL1200_.jpg</t>
         </is>
       </c>
-      <c r="H7" t="n">
+      <c r="I3" t="n">
         <v>1</v>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>828x1013</t>
         </is>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Película Protetora de Vidro para Tela de Celular, para Motorola E4, Transparente</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>R$19,09</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Proteção além da sua expectativa. As películas são compostas de um vidro temperado especial, não atrapalha o touch do seu smartphone, mas protege muito mais contra riscos, arranhões e impactos de menor grau sobre a tela do aparelho.</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>4,3 de 5</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>31</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>['Proteção além da sua expectativa', 'As películas são compostas de um vidro temperado especial, não atrapalha o touch do seu smartphone', 'Protege muito mais contra riscos, arranhões e impactos de menor grau sobre a tela do aparelho', 'Para Motorola E4']</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>https://m.media-amazon.com/images/I/61HJECjobtL._AC_SL1000_.jpg</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>790x812</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="K3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Shorts e Bermudas</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/b/ref=dp_bc_5?ie=UTF8&amp;node=17682478011</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Biquíni Aviação Estampado Sem Bojo Conforto e Estilo</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>R$44,99</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Biqu%C3%ADni-Avia%C3%A7%C3%A3o-Estampado-Conforto-Estilo/dp/B0DKQY7HWC/ref=sr_1_3?dib=eyJ2IjoiMSJ9.an_1cY7E3LZNeVFRP4TQy4D6XkRe91SyzHh0aA3HqqAYh13TYtkf28luLUpqKdKYxdilEX4ZBI9cODJTEig0luYmtM4qnUstiXEQ2BqvBB1prwSJR7EozqV2Qy3YjTzFGj2xXOvznxaPCE_j3Fhst02QylxaUedF9OxRXxxUodm9igkYUVrFiq9hAyn5E-ktKeySD2f35RRaclvvMPpHz8PzuDy1Ck93AKfgPxw5WC4.FrqZ0joENNmRduDYE7-tNuS5qWPM63m8VQtvS0UiF_U&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744748303&amp;s=merchant-items&amp;sr=1-3&amp;ufe=app_do%3Aamzn1.fos.6d798eae-cadf-45de-946a-f477d47705b9&amp;xpid=tqkuqdh5H_SQg</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Transforme seu Verão com o Biquíni Aviação com Estampa Pimenta
+Prepare-se para brilhar neste verão com o Biquíni Aviação com Estampa Pimenta. Com um design vibrante e ousado, este biquíni é perfeito para quem deseja se destacar à beira da piscina ou na praia. A estampa de pimenta traz um toque de personalidade e modernidade, tornando cada momento ainda mais especial.
+Estampa Exclusiva: A estampa de pimenta não só adiciona um charme único e vibrante ao seu visual, mas também reflete seu estilo arrojado e confiante.
+Conforto Sem Bojo: A ausência de bojo garante um ajuste leve e confortável, ideal para dias ensolarados de diversão e relaxamento. Você pode se mover livremente, sem abrir mão da elegância.
+Design Estiloso: Com um corte que valoriza as curvas, este biquíni é ideal para quem busca um look ousado e contemporâneo. Combine-o com seus acessórios favoritos e esteja pronta para arrasar!
+Transforme suas experiências de verão em momentos inesquecíveis com o Biquíni Aviação. Sinta-se confiante, estilosa e confortável em qualquer ocasião!</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Sem avaliação</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>['Detalhes da estampa de pimenta e seu charme único', 'Conforto durante atividades', 'Valoriza as curvas e complementa o visual', 'Design Vibrante e Ousado']</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/61jwBveWy3L._AC_SL1200_.jpg</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>3</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>797x1034</t>
+        </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Conjuntos</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/b/ref=dp_bc_6?ie=UTF8&amp;node=17682696011</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>Kit 2 Cuecas Boxer Mash Preto/Preto Listrado</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>R$52,90</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Cuecas-Boxer-Mash-Preto-Listrado/dp/B0DGXZJ3TZ/ref=sr_1_4?dib=eyJ2IjoiMSJ9.an_1cY7E3LZNeVFRP4TQy4D6XkRe91SyzHh0aA3HqqAYh13TYtkf28luLUpqKdKYxdilEX4ZBI9cODJTEig0luYmtM4qnUstiXEQ2BqvBB1prwSJR7EozqV2Qy3YjTzFGj2xXOvznxaPCE_j3Fhst02QylxaUedF9OxRXxxUodm9igkYUVrFiq9hAyn5E-ktKeySD2f35RRaclvvMPpHz8PzuDy1Ck93AKfgPxw5WC4.FrqZ0joENNmRduDYE7-tNuS5qWPM63m8VQtvS0UiF_U&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744748303&amp;s=merchant-items&amp;sr=1-4&amp;ufe=app_do%3Aamzn1.fos.6d798eae-cadf-45de-946a-f477d47705b9&amp;xpid=tqkuqdh5H_SQg</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>Eleve o conforto do seu dia a dia com o Kit Boxer Microfibra 2 Peças da Mash, ideal para quem busca qualidade e praticidade em roupas íntimas. Este conjunto é perfeito para uso diário, proporcionando o máximo de conforto e durabilidade.
 Características principais:
@@ -858,460 +757,832 @@
 O Kit Boxer Microfibra 2 Peças da Mash é a escolha perfeita para quem preza por qualidade, conforto e estilo no dia a dia!</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Sem avaliação</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>['Modelagem anatômica', 'Cintura elástica', 'Sem costura lateral', 'Respirabilidade', 'Kit com 2 peças']</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51WYmEtPS1L._AC_SL1200_.jpg</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>833x1137</t>
+        </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Cuecas Samba-Canção</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/b/ref=dp_bc_5?ie=UTF8&amp;node=17682497011</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Capa Protetora Defender Preta Para Galaxy Tab III 7 Otterbox (Preto)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>R$28,89</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Protetora-Defender-Preta-Galaxy-Otterbox/dp/B07QYV9KGQ/ref=sr_1_5?dib=eyJ2IjoiMSJ9.an_1cY7E3LZNeVFRP4TQy4D6XkRe91SyzHh0aA3HqqAYh13TYtkf28luLUpqKdKYxdilEX4ZBI9cODJTEig0luYmtM4qnUstiXEQ2BqvBB1prwSJR7EozqV2Qy3YjTzFGj2xXOvznxaPCE_j3Fhst02QylxaUedF9OxRXxxUodm9igkYUVrFiq9hAyn5E-ktKeySD2f35RRaclvvMPpHz8PzuDy1Ck93AKfgPxw5WC4.FrqZ0joENNmRduDYE7-tNuS5qWPM63m8VQtvS0UiF_U&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744748303&amp;s=merchant-items&amp;sr=1-5&amp;xpid=tqkuqdh5H_SQg</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Proteja seu Galaxy Tab III 7 com a Capa Protetora Defender da Otterbox, projetada para oferecer máxima segurança e funcionalidade. Esta capa é ideal para quem busca proteção robusta sem abrir mão do estilo. Características: - Proteção Superior: A tecnologia de absorção de impactos proporciona defesa contra quedas, arranhões e impactos, garantindo que seu dispositivo permaneça em perfeito estado. - Design Ergonômico: Com um encaixe seguro e confortável, a capa facilita o manuseio, permitindo que você utilize seu tablet com facilidade. - Acesso Total: A Capa Defender mantém todas as portas e botões acessíveis, permitindo o uso total das funcionalidades do seu Galaxy Tab III 7, sem a necessidade de remover a capa. - Material de Alta Qualidade: Fabricada com materiais duráveis, resistentes à abrasão e ao desgaste, garantindo longa vida útil. - Instalação Simples: A capa é fácil de instalar e remover, permitindo que você troque de acessório conforme suas necessidades. Dimensões e Peso: - Compatível com Galaxy Tab III 7. - Peso leve, ideal para transporte. Cores Disponíveis: - Preto clássico, que combina com qualquer estilo. Cuidados e Manutenção: - Limpeza com pano úmido. - Evitar contato com produtos químicos agressivos. Garanta a proteção que seu Galaxy Tab III 7 merece com a Capa Protetora Defender Preta da Otterbox. Perfeita para uso diário, viagens ou qualquer situação em que seu tablet esteja exposto a riscos.</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Sem avaliação</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>['Proteção em Camadas: A capa possui três camadas de proteção, incluindo uma camada interna de policarbonato rígido que absorve impactos e uma camada externa emborrachada que oferece resistência adicional contra quedas e arranhões.', 'Design Resistente: A capa é projetada para suportar ambientes desafiadores e testes rigorosos, protegendo o dispositivo de quedas de até 2 metros', 'Acesso Total: Apesar da proteção, a capa permite fácil acesso a todos os botões, portas e funcionalidades do tablet, incluindo câmera e conector de carregamento, sem precisar remover a capa.', 'Material e Dimensões: A capa é feita de policarbonato e silicone emborrachado, leve e projetada para se ajustar perfeitamente ao Galaxy Tab III 7".']</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/41Vc49XdKZL._AC_SL1200_.jpg</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>498x1148</t>
+        </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Capas, Bolsas e Estojos</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/b/ref=dp_bc_4?ie=UTF8&amp;node=16364864011</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Cabo Displayport 4k Blindado Macho X Macho 1,8m 1.1 E 1.2 (preto)</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>R$31,90</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Cabo-Displayport-Blindado-Macho-preto/dp/B0DKPHT6SJ/ref=sr_1_6?dib=eyJ2IjoiMSJ9.an_1cY7E3LZNeVFRP4TQy4D6XkRe91SyzHh0aA3HqqAYh13TYtkf28luLUpqKdKYxdilEX4ZBI9cODJTEig0luYmtM4qnUstiXEQ2BqvBB1prwSJR7EozqV2Qy3YjTzFGj2xXOvznxaPCE_j3Fhst02QylxaUedF9OxRXxxUodm9igkYUVrFiq9hAyn5E-ktKeySD2f35RRaclvvMPpHz8PzuDy1Ck93AKfgPxw5WC4.FrqZ0joENNmRduDYE7-tNuS5qWPM63m8VQtvS0UiF_U&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744748303&amp;s=merchant-items&amp;sr=1-6&amp;xpid=tqkuqdh5H_SQg</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>O Cabo DisplayPort 4K Blindado de 1,8 metros oferece qualidade de transmissão superior para quem busca desempenho e durabilidade. Com conectores banhados a ouro e blindagem reforçada, ele proporciona máxima proteção contra interferências e uma conexão estável. Ideal para quem exige alta definição em resoluções de até 4K, este cabo é perfeito para conectar notebooks, tablets, TVs, monitores e projetores com suporte DisplayPort. Características do Produto: Marca: F3 Modelo: JC-DP1.8 Resolução Suportada: 480i, 576i/p, 720i/p, 1080i/p, até 2160p (4K) Conectores: 2 x DisplayPort (Macho) com conectores banhados a ouro Padrões Compatíveis: DisplayPort 1.1 e 1.2 Comprimento do Cabo: 1,8 metro Cor: Preto Com trava de segurança, garantindo uma conexão firme e confiável. Garantia do vendedor: 90 dias</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Sem avaliação</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>['Alta Resolução: Suporta resoluções de até 4K (2160p), proporcionando imagens nítidas e detalhadas, ideal para gamers e profissionais que exigem qualidade visual superior.', 'Blindagem Reforçada: A blindagem avançada do cabo protege contra interferências eletromagnéticas, minimizando perda de sinal e garantindo uma conexão de alta qualidade.', 'Conectores Banhados a Ouro: Os conectores banhados a ouro garantem uma excelente condutividade e resistência à corrosão, assegurando uma transmissão de sinal mais estável e confiável.', 'Trava de Segurança: Equipado com uma trava de segurança, o cabo assegura uma conexão firme e confiável, evitando desconexões acidentais durante o uso.', 'Comprimento Ideal: Com 1,8 metros de comprimento, o cabo oferece flexibilidade e conveniência para conectar dispositivos em diferentes configurações sem comprometer a qualidade do sinal.']</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51-3+Xs2w-L._AC_SL1200_.jpg</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>1200x1091</t>
+        </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Cabos DisplayPort</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/b/ref=dp_bc_5?ie=UTF8&amp;node=16364884011</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Shorts Jeans Stillage Confortável com Barras Dobradas Estilo Casual</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>R$47,90</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Shorts-Stillage-Confort%C3%A1vel-Barras-Dobradas/dp/B0DGXZDBPY/ref=sr_1_7?dib=eyJ2IjoiMSJ9.an_1cY7E3LZNeVFRP4TQy4D6XkRe91SyzHh0aA3HqqAYh13TYtkf28luLUpqKdKYxdilEX4ZBI9cODJTEig0luYmtM4qnUstiXEQ2BqvBB1prwSJR7EozqV2Qy3YjTzFGj2xXOvznxaPCE_j3Fhst02QylxaUedF9OxRXxxUodm9igkYUVrFiq9hAyn5E-ktKeySD2f35RRaclvvMPpHz8PzuDy1Ck93AKfgPxw5WC4.FrqZ0joENNmRduDYE7-tNuS5qWPM63m8VQtvS0UiF_U&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744748303&amp;s=merchant-items&amp;sr=1-7&amp;ufe=app_do%3Aamzn1.fos.6d798eae-cadf-45de-946a-f477d47705b9&amp;xpid=tqkuqdh5H_SQg</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Descubra o shorts perfeito para os dias quentes com o Shorts Jeans Stillage. Feito em jeans de alta qualidade, este modelo oferece o equilíbrio ideal entre conforto e estilo. Com barras dobradas que trazem um toque moderno e despojado, ele é a escolha ideal para compor looks casuais e frescos. Versátil, combina facilmente com blusas, camisetas ou regatas, sendo perfeito para passeios ou momentos descontraídos. Além disso, o corte ajustado valoriza a silhueta, proporcionando liberdade de movimento sem abrir mão do estilo.</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Sem avaliação</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>['Conforto Superior', 'Barras Dobradas', 'Corte Casual', 'Detalhes de Acabamento', 'Fácil de Combinar']</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/61mjwNm8C5L._AC_SL1200_.jpg</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>1116x811</t>
+        </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Shorts e Bermudas</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/b/ref=dp_bc_4?ie=UTF8&amp;node=17682127011</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Carregador Viagem USB-A Preto 15W Sem Cabo (Preto)</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>R$39,99</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Carregador-Viagem-USB-Preto-Cabo/dp/B0DKPHB587/ref=sr_1_8?dib=eyJ2IjoiMSJ9.an_1cY7E3LZNeVFRP4TQy4D6XkRe91SyzHh0aA3HqqAYh13TYtkf28luLUpqKdKYxdilEX4ZBI9cODJTEig0luYmtM4qnUstiXEQ2BqvBB1prwSJR7EozqV2Qy3YjTzFGj2xXOvznxaPCE_j3Fhst02QylxaUedF9OxRXxxUodm9igkYUVrFiq9hAyn5E-ktKeySD2f35RRaclvvMPpHz8PzuDy1Ck93AKfgPxw5WC4.FrqZ0joENNmRduDYE7-tNuS5qWPM63m8VQtvS0UiF_U&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744748303&amp;s=merchant-items&amp;sr=1-8&amp;xpid=tqkuqdh5H_SQg</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>Carregue seus dispositivos com rapidez e segurança onde quer que esteja com o Carregador Viagem USB-A Preto 15W. Ideal para quem está sempre em movimento, este carregador oferece potência e eficiência em um design compacto e fácil de transportar. Potência de 15W: Com uma saída de 15 watts, este carregador garante um carregamento rápido e eficiente para smartphones, tablets, fones de ouvido, e outros dispositivos USB-A, permitindo que você recupere energia de forma ágil, sem perder tempo. Design compacto e leve: Projetado para ser discreto e fácil de levar em bolsas, mochilas ou malas de viagem, ele é perfeito para acompanhar o seu ritmo, seja em viagens a trabalho ou lazer. USB-A universal: A porta USB-A oferece compatibilidade com uma ampla gama de cabos e dispositivos, garantindo flexibilidade para carregar praticamente qualquer gadget, desde que você tenha o cabo adequado. Sem cabo incluído: Este modelo não vem com cabo, oferecendo a liberdade de utilizar o cabo de sua escolha, seja para Android, iPhone ou outros dispositivos com diferentes entradas. Proteção integrada: Equipado com recursos de proteção contra superaquecimento, sobrecarga e curtos-circuitos, este carregador garante segurança durante o uso, protegendo seus dispositivos e você. Compatível com tensão global: Ideal para viajantes, o carregador pode ser utilizado em diferentes partes do mundo, adaptando-se a tensões de 100-240V, basta ter o adaptador de tomada correto. Dimensões: Compacto, fácil de guardar e transportar, pesando aproximadamente 50g. Leve com você o Carregador Viagem USB-A Preto 15W e garanta energia confiável para seus dispositivos em qualquer lugar Garantia do vendedor: 90 dias</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Sem avaliação</t>
         </is>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>['Bullet points não encontrados']</t>
-        </is>
+      <c r="F9" t="n">
+        <v>0</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51WYmEtPS1L._AC_SL1200_.jpg</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>833x1137</t>
+          <t>['Eficiência de Carregamento: Com potência de 15W, o carregador oferece carregamento rápido e eficiente para uma variedade de dispositivos, incluindo smartphones e tablets.', 'Portabilidade e Design Compacto: O design leve e discreto facilita o transporte em bolsas e mochilas, tornando-o ideal para quem está sempre em movimento.', 'Compatibilidade Universal: A porta USB-A permite a conexão com uma ampla gama de dispositivos, garantindo flexibilidade no carregamento.', 'Segurança Avançada: Equipado com proteção contra superaquecimento, sobrecarga e curtos-circuitos, assegura um uso seguro para os dispositivos.', 'Compatibilidade Global: Funciona em tensões de 100-240V, sendo ideal para viajantes que necessitam de um carregador confiável em diferentes regiões do mundo.']</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/41ybhWt-6iL._AC_SL1200_.jpg</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>595x1185</t>
+        </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Carregadores de Parede</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/b/ref=dp_bc_5?ie=UTF8&amp;node=16244307011</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Capa Protetora Kicktok para Galaxy S8 Plus, Samsung, Capa Protetora para Celular, Transparente</t>
+          <t>Ring Light 6 Polegadas 14cm com Mini Tripe (Preto)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R$31,23</t>
+          <t>R$30,90</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>A capa S8 kicktok protege o Galaxy S8 plus realçando o design do smartphone. A capa serve também como apoio permitindo uma posição confortável para visualização da tela ou para digitação além de permitir acesso rápido e fácil a todos os botões e conexões.</t>
+          <t>https://www.amazon.com.br/Ring-Light-Polegadas-Tripe-Preto/dp/B0DKPV57Z8/ref=sr_1_9?dib=eyJ2IjoiMSJ9.an_1cY7E3LZNeVFRP4TQy4D6XkRe91SyzHh0aA3HqqAYh13TYtkf28luLUpqKdKYxdilEX4ZBI9cODJTEig0luYmtM4qnUstiXEQ2BqvBB1prwSJR7EozqV2Qy3YjTzFGj2xXOvznxaPCE_j3Fhst02QylxaUedF9OxRXxxUodm9igkYUVrFiq9hAyn5E-ktKeySD2f35RRaclvvMPpHz8PzuDy1Ck93AKfgPxw5WC4.FrqZ0joENNmRduDYE7-tNuS5qWPM63m8VQtvS0UiF_U&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744748303&amp;s=merchant-items&amp;sr=1-9&amp;xpid=tqkuqdh5H_SQg</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3,8 de 5</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>7</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>['Estilo e elegância', 'Proteção completa contra riscos e quedas', 'Suporte embutido para assistir a vídeos com as mãos livres', 'País de Origem: VN']</t>
-        </is>
+          <t>Ring Light 6 Polegadas (14cm) com Mini Tripé! Ideal para criadores de conteúdo, maquiadores, youtubers e influenciadores, essa iluminação prática e eficiente é o segredo para resultados profissionais. Com seu design compacto e 3 opções de temperatura de cor (branca, neutra e quente), você terá o controle perfeito da luz, ajustando-a conforme o ambiente e o estilo de gravação. O mini tripé garante estabilidade e facilidade de uso em qualquer superfície, oferecendo ângulos ideais para selfies, gravações e videochamadas. Compacto, portátil e extremamente versátil, o Ring Light de 14cm é a escolha perfeita para destacar seus melhores momentos, melhorar a qualidade visual do seu conteúdo e proporcionar aquele brilho único que faz toda a diferença. Destaques: 3 modos de iluminação para ajuste perfeito; Mini tripé estável para qualquer superfície; Ideal para vídeos, fotos, lives e tutoriais; Compacto e leve, fácil de transportar.</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Sem avaliação</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51jZ4MDpKBL._AC_SL1499_.jpg</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>681x1443</t>
+          <t>['Versatilidade de Iluminação: Com três opções de temperatura de cor (branca, neutra e quente), o Ring Light permite que você ajuste a iluminação conforme o ambiente e o estilo de gravação, garantindo resultados sempre profissionais.', 'Portabilidade e Design Compacto: Seu tamanho reduzido e leveza tornam este ring light extremamente fácil de transportar, ideal para criadores de conteúdo em movimento, maquiadores e influenciadores que precisam de uma solução prática.', 'Mini Tripé Estável: O mini tripé proporciona estabilidade em qualquer superfície, permitindo ângulos ideais para selfies, gravações e videochamadas, sem comprometer a qualidade da imagem.', 'Ideal para Múltiplas Aplicações: Perfeito para vídeos, fotos, transmissões ao vivo e tutoriais, o Ring Light é uma ferramenta essencial para quem deseja elevar a qualidade visual do seu conteúdo.', 'Facilidade de Uso: A combinação de um design intuitivo com a funcionalidade do tripé torna este ring light fácil de usar, proporcionando uma experiência sem complicações para todos os criadores de conteúdo, independentemente do nível de experiência.']</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/516F0uDJazL._AC_SL1200_.jpg</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>1200x1133</t>
+        </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Luzes de Selfie</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Luzes-Selfie-Telefone-Celular/b/ref=dp_bc_6?ie=UTF8&amp;node=23658796011</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Shorts Jeans Stillage Confortável com Barras Dobradas Estilo Casual</t>
+          <t>Capa Protetora Kicktok para Galaxy S8 Plus, Samsung, Capa Protetora para Celular, Transparente</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>R$47,90</t>
+          <t>R$31,23</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Descubra o shorts perfeito para os dias quentes com o Shorts Jeans Stillage. Feito em jeans de alta qualidade, este modelo oferece o equilíbrio ideal entre conforto e estilo. Com barras dobradas que trazem um toque moderno e despojado, ele é a escolha ideal para compor looks casuais e frescos. Versátil, combina facilmente com blusas, camisetas ou regatas, sendo perfeito para passeios ou momentos descontraídos. Além disso, o corte ajustado valoriza a silhueta, proporcionando liberdade de movimento sem abrir mão do estilo.</t>
+          <t>https://www.amazon.com.br/Protetora-Kicktok-Samsung-Celular-Transparente/dp/B0777RX2H3/ref=sr_1_10?dib=eyJ2IjoiMSJ9.an_1cY7E3LZNeVFRP4TQy4D6XkRe91SyzHh0aA3HqqAYh13TYtkf28luLUpqKdKYxdilEX4ZBI9cODJTEig0luYmtM4qnUstiXEQ2BqvBB1prwSJR7EozqV2Qy3YjTzFGj2xXOvznxaPCE_j3Fhst02QylxaUedF9OxRXxxUodm9igkYUVrFiq9hAyn5E-ktKeySD2f35RRaclvvMPpHz8PzuDy1Ck93AKfgPxw5WC4.FrqZ0joENNmRduDYE7-tNuS5qWPM63m8VQtvS0UiF_U&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744748303&amp;s=merchant-items&amp;sr=1-10&amp;xpid=tqkuqdh5H_SQg</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Sem avaliação</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>['Bullet points não encontrados']</t>
-        </is>
+          <t>A capa S8 kicktok protege o Galaxy S8 plus realçando o design do smartphone. A capa serve também como apoio permitindo uma posição confortável para visualização da tela ou para digitação além de permitir acesso rápido e fácil a todos os botões e conexões.</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>3,8 de 5</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>7</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61mjwNm8C5L._AC_SL1200_.jpg</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>1116x811</t>
+          <t>['Estilo e elegância', 'Proteção completa contra riscos e quedas', 'Suporte embutido para assistir a vídeos com as mãos livres', 'País de Origem: VN']</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51jZ4MDpKBL._AC_SL1499_.jpg</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>4</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Capas Laterais</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/b/ref=dp_bc_5?ie=UTF8&amp;node=16244311011</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Película Protetora de Vidro Moto E5, Motorola, Transparente</t>
+          <t>Película Protetora de Vidro para Tela de Celular, para Motorola E4, Transparente</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>R$14,44</t>
+          <t>R$19,09</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Proteção além da sua expectativa! As películas são compostas de um vidro temperado especial, não atrapalha o touch do seu smartphone, mas protege muito mais contra riscos, arranhões e impactos de menor grau sobre a tela do aparelho.</t>
+          <t>https://www.amazon.com.br/Pel%C3%ADcula-Protetora-Motorola-Celular-Transparente/dp/B075DZL4X6/ref=sr_1_11?dib=eyJ2IjoiMSJ9.an_1cY7E3LZNeVFRP4TQy4D6XkRe91SyzHh0aA3HqqAYh13TYtkf28luLUpqKdKYxdilEX4ZBI9cODJTEig0luYmtM4qnUstiXEQ2BqvBB1prwSJR7EozqV2Qy3YjTzFGj2xXOvznxaPCE_j3Fhst02QylxaUedF9OxRXxxUodm9igkYUVrFiq9hAyn5E-ktKeySD2f35RRaclvvMPpHz8PzuDy1Ck93AKfgPxw5WC4.FrqZ0joENNmRduDYE7-tNuS5qWPM63m8VQtvS0UiF_U&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744748303&amp;s=merchant-items&amp;sr=1-11&amp;xpid=tqkuqdh5H_SQg</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3,4 de 5</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>20</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>['Adesivo de silicone', 'Fina e forte', 'Alta sensibilidade', 'A tela do seu aparelho sempre nova']</t>
-        </is>
+          <t>Proteção além da sua expectativa. As películas são compostas de um vidro temperado especial, não atrapalha o touch do seu smartphone, mas protege muito mais contra riscos, arranhões e impactos de menor grau sobre a tela do aparelho.</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>4,3 de 5</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>31</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71UPRh4y2oL._AC_SL1500_.jpg</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>724x1500</t>
+          <t>['Proteção além da sua expectativa', 'As películas são compostas de um vidro temperado especial, não atrapalha o touch do seu smartphone', 'Protege muito mais contra riscos, arranhões e impactos de menor grau sobre a tela do aparelho', 'Para Motorola E4']</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/61HJECjobtL._AC_SL1000_.jpg</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>790x812</t>
+        </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Capas Laterais</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/b/ref=dp_bc_5?ie=UTF8&amp;node=16244311011</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Capa Protetora Cristal Bumper Transparente com Lateral Moto G7, Motorola, 4882.0, Preta</t>
+          <t>Película Protetora de Vidro Moto E5, Motorola, Transparente</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>R$45,41</t>
+          <t>R$14,44</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Protege seu smartphone na parte traseira e laterais, com abertura para acessórios como carregadores e fones. Para o uso de outros acessórios não precisa retirar a capa. Evite riscos e impactos que podem danificar seu aparelho. Com acabamento refinado, dá maior aderência e segurança quando o aparelho está em suas mãos.</t>
+          <t>https://www.amazon.com.br/Pel%C3%ADcula-Protetora-Transparente-Motorola-Celular/dp/B07F6LKG2V/ref=sr_1_12?dib=eyJ2IjoiMSJ9.an_1cY7E3LZNeVFRP4TQy4D6XkRe91SyzHh0aA3HqqAYh13TYtkf28luLUpqKdKYxdilEX4ZBI9cODJTEig0luYmtM4qnUstiXEQ2BqvBB1prwSJR7EozqV2Qy3YjTzFGj2xXOvznxaPCE_j3Fhst02QylxaUedF9OxRXxxUodm9igkYUVrFiq9hAyn5E-ktKeySD2f35RRaclvvMPpHz8PzuDy1Ck93AKfgPxw5WC4.FrqZ0joENNmRduDYE7-tNuS5qWPM63m8VQtvS0UiF_U&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744748303&amp;s=merchant-items&amp;sr=1-12&amp;xpid=tqkuqdh5H_SQg</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>5 de 5</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>3</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>['Para o uso de outros acessórios não precisa retirar a capa', 'Evite riscos e impactos que podem danificar seu aparelho.', 'Com acabamento refinado, dá maior aderência e segurança quando o aparelho está em suas mãos.', 'País de Origem: CN']</t>
-        </is>
+          <t>Proteção além da sua expectativa! As películas são compostas de um vidro temperado especial, não atrapalha o touch do seu smartphone, mas protege muito mais contra riscos, arranhões e impactos de menor grau sobre a tela do aparelho.</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>3,4 de 5</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>20</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/615aJ73lEBL._AC_SL1500_.jpg</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
+          <t>['Adesivo de silicone', 'Fina e forte', 'Alta sensibilidade', 'A tela do seu aparelho sempre nova']</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/71UPRh4y2oL._AC_SL1500_.jpg</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
         <v>2</v>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>638x1500</t>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>724x1500</t>
+        </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Protetores de Tela</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Peliculas-Protetoras/b/ref=dp_bc_5?ie=UTF8&amp;node=16244091011</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Carregador Veicular Hightech, Energizer, EZ-DCA2CUWH3I, Branca</t>
+          <t>Capa Protetora Cristal Bumper Transparente com Lateral Moto G7, Motorola, 4882.0, Preta</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>R$19,90</t>
+          <t>R$45,40</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Carregue seus aparelhos enquanto está na rua ou na estrada. Com 3, 4 Amp potência de saída, este carregador Veicular Energizer com duas saídas USB, proporciona a carga rápida e segura de seus smartphones ou tablets.</t>
+          <t>https://www.amazon.com.br/Protetora-Cristal-Transparente-Motorola-4882-0/dp/B07NDB5ZD9/ref=sr_1_13?dib=eyJ2IjoiMSJ9.an_1cY7E3LZNeVFRP4TQy4D6XkRe91SyzHh0aA3HqqAYh13TYtkf28luLUpqKdKYxdilEX4ZBI9cODJTEig0luYmtM4qnUstiXEQ2BqvBB1prwSJR7EozqV2Qy3YjTzFGj2xXOvznxaPCE_j3Fhst02QylxaUedF9OxRXxxUodm9igkYUVrFiq9hAyn5E-ktKeySD2f35RRaclvvMPpHz8PzuDy1Ck93AKfgPxw5WC4.FrqZ0joENNmRduDYE7-tNuS5qWPM63m8VQtvS0UiF_U&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744748303&amp;s=merchant-items&amp;sr=1-13&amp;ufe=app_do%3Aamzn1.fos.6d798eae-cadf-45de-946a-f477d47705b9&amp;xpid=tqkuqdh5H_SQg</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4,5 de 5</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>11</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>['Carregue dois aparelhos simultaneamente', 'Obs: Não acompanha cabo USB', 'Design elegante']</t>
-        </is>
+          <t>Protege seu smartphone na parte traseira e laterais, com abertura para acessórios como carregadores e fones. Para o uso de outros acessórios não precisa retirar a capa. Evite riscos e impactos que podem danificar seu aparelho. Com acabamento refinado, dá maior aderência e segurança quando o aparelho está em suas mãos.</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>5 de 5</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>3</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61t5kdNN+3L._AC_SL1500_.jpg</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
+          <t>['Para o uso de outros acessórios não precisa retirar a capa', 'Evite riscos e impactos que podem danificar seu aparelho.', 'Com acabamento refinado, dá maior aderência e segurança quando o aparelho está em suas mãos.', 'País de Origem: CN']</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/615aJ73lEBL._AC_SL1500_.jpg</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
         <v>2</v>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>1160x1248</t>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>638x1500</t>
+        </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Capas Laterais</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/b/ref=dp_bc_5?ie=UTF8&amp;node=16244311011</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Capa Protetora Cristal Case Transparente Moto E5, Motorola, Capa com Proteção Completa (Carcaça+Tela), Transparente</t>
+          <t>Carregador Veicular Hightech, Energizer, EZ-DCA2CUWH3I, Branca</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>R$14,90</t>
+          <t>R$19,90</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Protege seu smartphone na parte traseira e laterais. com abertura para acessórios como carregadores e fones. Para o uso de outros acessórios não precisa retirar a capa. Evite riscos e impactos que podem danificar seu aparelho.</t>
+          <t>https://www.amazon.com.br/Carregador-Veicular-Original-Energizer-Sa%C3%ADdas/dp/B0182JTL9G/ref=sr_1_14?dib=eyJ2IjoiMSJ9.an_1cY7E3LZNeVFRP4TQy4D6XkRe91SyzHh0aA3HqqAYh13TYtkf28luLUpqKdKYxdilEX4ZBI9cODJTEig0luYmtM4qnUstiXEQ2BqvBB1prwSJR7EozqV2Qy3YjTzFGj2xXOvznxaPCE_j3Fhst02QylxaUedF9OxRXxxUodm9igkYUVrFiq9hAyn5E-ktKeySD2f35RRaclvvMPpHz8PzuDy1Ck93AKfgPxw5WC4.FrqZ0joENNmRduDYE7-tNuS5qWPM63m8VQtvS0UiF_U&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744748303&amp;s=merchant-items&amp;sr=1-14&amp;xpid=tqkuqdh5H_SQg</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3,2 de 5</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>33</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>['Protege seu smartphone na parte traseira e laterais. com abertura para acessórios como carregadores e fones', 'Para o uso de outros acessórios não precisa retirar a capa', 'Evite riscos e impactos que podem danificar seu aparelho', 'País de Origem: CN']</t>
-        </is>
+          <t>Carregue seus aparelhos enquanto está na rua ou na estrada. Com 3, 4 Amp potência de saída, este carregador Veicular Energizer com duas saídas USB, proporciona a carga rápida e segura de seus smartphones ou tablets.</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>4,5 de 5</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>12</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/611KhH7BtTL._AC_SL1500_.jpg</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>697x1433</t>
+          <t>['Carregue dois aparelhos simultaneamente', 'Obs: Não acompanha cabo USB', 'Design elegante']</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/61t5kdNN+3L._AC_SL1500_.jpg</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>2</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>1160x1248</t>
+        </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Carregadores Veiculares</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Carregadores-Veiculares/b/ref=dp_bc_5?ie=UTF8&amp;node=16244303011</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Cabo Displayport 4k Blindado Macho X Macho 1,8m 1.1 E 1.2 (preto)</t>
+          <t>Capa Protetora Cristal Case Transparente Moto E5, Motorola, Capa com Proteção Completa (Carcaça+Tela), Transparente</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>R$31,90</t>
+          <t>R$14,90</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>O Cabo DisplayPort 4K Blindado de 1,8 metros oferece qualidade de transmissão superior para quem busca desempenho e durabilidade. Com conectores banhados a ouro e blindagem reforçada, ele proporciona máxima proteção contra interferências e uma conexão estável. Ideal para quem exige alta definição em resoluções de até 4K, este cabo é perfeito para conectar notebooks, tablets, TVs, monitores e projetores com suporte DisplayPort. Características do Produto: Marca: F3 Modelo: JC-DP1.8 Resolução Suportada: 480i, 576i/p, 720i/p, 1080i/p, até 2160p (4K) Conectores: 2 x DisplayPort (Macho) com conectores banhados a ouro Padrões Compatíveis: DisplayPort 1.1 e 1.2 Comprimento do Cabo: 1,8 metro Cor: Preto Com trava de segurança, garantindo uma conexão firme e confiável. Garantia do vendedor: 90 dias</t>
+          <t>https://www.amazon.com.br/Protetora-Transparente-Motorola-Prote%C3%A7%C3%A3o-Completa/dp/B07F7JXDVY/ref=sr_1_15?dib=eyJ2IjoiMSJ9.an_1cY7E3LZNeVFRP4TQy4D6XkRe91SyzHh0aA3HqqAYh13TYtkf28luLUpqKdKYxdilEX4ZBI9cODJTEig0luYmtM4qnUstiXEQ2BqvBB1prwSJR7EozqV2Qy3YjTzFGj2xXOvznxaPCE_j3Fhst02QylxaUedF9OxRXxxUodm9igkYUVrFiq9hAyn5E-ktKeySD2f35RRaclvvMPpHz8PzuDy1Ck93AKfgPxw5WC4.FrqZ0joENNmRduDYE7-tNuS5qWPM63m8VQtvS0UiF_U&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744748303&amp;s=merchant-items&amp;sr=1-15&amp;xpid=tqkuqdh5H_SQg</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Sem avaliação</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>['Alta Resolução: Suporta resoluções de até 4K (2160p), proporcionando imagens nítidas e detalhadas, ideal para gamers e profissionais que exigem qualidade visual superior.', 'Blindagem Reforçada: A blindagem avançada do cabo protege contra interferências eletromagnéticas, minimizando perda de sinal e garantindo uma conexão de alta qualidade.', 'Conectores Banhados a Ouro: Os conectores banhados a ouro garantem uma excelente condutividade e resistência à corrosão, assegurando uma transmissão de sinal mais estável e confiável.', 'Trava de Segurança: Equipado com uma trava de segurança, o cabo assegura uma conexão firme e confiável, evitando desconexões acidentais durante o uso.', 'Comprimento Ideal: Com 1,8 metros de comprimento, o cabo oferece flexibilidade e conveniência para conectar dispositivos em diferentes configurações sem comprometer a qualidade do sinal.']</t>
-        </is>
+          <t>Protege seu smartphone na parte traseira e laterais. com abertura para acessórios como carregadores e fones. Para o uso de outros acessórios não precisa retirar a capa. Evite riscos e impactos que podem danificar seu aparelho.</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>3,2 de 5</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>33</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51-3+Xs2w-L._AC_SL1200_.jpg</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
+          <t>['Protege seu smartphone na parte traseira e laterais. com abertura para acessórios como carregadores e fones', 'Para o uso de outros acessórios não precisa retirar a capa', 'Evite riscos e impactos que podem danificar seu aparelho', 'País de Origem: CN']</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/611KhH7BtTL._AC_SL1500_.jpg</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
         <v>1</v>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>1200x1091</t>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>697x1433</t>
+        </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Capas Laterais</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/b/ref=dp_bc_5?ie=UTF8&amp;node=16244311011</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Carregador Viagem USB-A Preto 15W Sem Cabo (Preto)</t>
+          <t>Conj para Bar em Inox Stem 5 Pçs Prana Inox</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>R$39,99</t>
+          <t>R$199,90</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Carregue seus dispositivos com rapidez e segurança onde quer que esteja com o Carregador Viagem USB-A Preto 15W. Ideal para quem está sempre em movimento, este carregador oferece potência e eficiência em um design compacto e fácil de transportar. Potência de 15W: Com uma saída de 15 watts, este carregador garante um carregamento rápido e eficiente para smartphones, tablets, fones de ouvido, e outros dispositivos USB-A, permitindo que você recupere energia de forma ágil, sem perder tempo. Design compacto e leve: Projetado para ser discreto e fácil de levar em bolsas, mochilas ou malas de viagem, ele é perfeito para acompanhar o seu ritmo, seja em viagens a trabalho ou lazer. USB-A universal: A porta USB-A oferece compatibilidade com uma ampla gama de cabos e dispositivos, garantindo flexibilidade para carregar praticamente qualquer gadget, desde que você tenha o cabo adequado. Sem cabo incluído: Este modelo não vem com cabo, oferecendo a liberdade de utilizar o cabo de sua escolha, seja para Android, iPhone ou outros dispositivos com diferentes entradas. Proteção integrada: Equipado com recursos de proteção contra superaquecimento, sobrecarga e curtos-circuitos, este carregador garante segurança durante o uso, protegendo seus dispositivos e você. Compatível com tensão global: Ideal para viajantes, o carregador pode ser utilizado em diferentes partes do mundo, adaptando-se a tensões de 100-240V, basta ter o adaptador de tomada correto. Dimensões: Compacto, fácil de guardar e transportar, pesando aproximadamente 50g. Leve com você o Carregador Viagem USB-A Preto 15W e garanta energia confiável para seus dispositivos em qualquer lugar Garantia do vendedor: 90 dias</t>
+          <t>https://www.amazon.com.br/CONJ-PARA-PRANA-Prana-000BS04008XXXNMS/dp/B07C1PYNZY/ref=sr_1_16?dib=eyJ2IjoiMSJ9.an_1cY7E3LZNeVFRP4TQy4D6XkRe91SyzHh0aA3HqqAYh13TYtkf28luLUpqKdKYxdilEX4ZBI9cODJTEig0luYmtM4qnUstiXEQ2BqvBB1prwSJR7EozqV2Qy3YjTzFGj2xXOvznxaPCE_j3Fhst02QylxaUedF9OxRXxxUodm9igkYUVrFiq9hAyn5E-ktKeySD2f35RRaclvvMPpHz8PzuDy1Ck93AKfgPxw5WC4.FrqZ0joENNmRduDYE7-tNuS5qWPM63m8VQtvS0UiF_U&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744748303&amp;s=merchant-items&amp;sr=1-16&amp;ufe=app_do%3Aamzn1.fos.6121c6c4-c969-43ae-92f7-cc248fc6181d&amp;xpid=tqkuqdh5H_SQg</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>Conj. Bar stem em aço inox no modelo liso. Contém peneira, faca, dosador, pinça. Todo feito em inox polido, deixa o lugar sofisticado como decoração e muito útil no preparo de drinks e bebidas com tudo o que é preciso para um preparo rápido.</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>Sem avaliação</t>
         </is>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>['Eficiência de Carregamento: Com potência de 15W, o carregador oferece carregamento rápido e eficiente para uma variedade de dispositivos, incluindo smartphones e tablets.', 'Portabilidade e Design Compacto: O design leve e discreto facilita o transporte em bolsas e mochilas, tornando-o ideal para quem está sempre em movimento.', 'Compatibilidade Universal: A porta USB-A permite a conexão com uma ampla gama de dispositivos, garantindo flexibilidade no carregamento.', 'Segurança Avançada: Equipado com proteção contra superaquecimento, sobrecarga e curtos-circuitos, assegura um uso seguro para os dispositivos.', 'Compatibilidade Global: Funciona em tensões de 100-240V, sendo ideal para viajantes que necessitam de um carregador confiável em diferentes regiões do mundo.']</t>
-        </is>
+      <c r="F17" t="n">
+        <v>0</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/41ybhWt-6iL._AC_SL1200_.jpg</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>595x1185</t>
+          <t>['Com Design Limpo E Moderno, Trazendo Requinte E Sofisticação Para A Decoração De Seu Bar', 'Um Lindo Presente Para Homens Modernos Que Gostam De Preparar Seus Dinks Ou Receber Seus Convidados Com Elegncia', 'Em Aço Inox Polido, Prática De Limpar E Durável', 'País de Origem: CN']</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51n-vWG4HIL._AC_SL1000_.jpg</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>5</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>611x893</t>
+        </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Kits para Bar</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/b/ref=dp_bc_4?ie=UTF8&amp;node=17125148011</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Conj para Bar em Inox Stem 5 Pçs Prana Inox</t>
+          <t>Moldura Dobravel Plastica Crismop Inox</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>R$199,90</t>
+          <t>R$14,90</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Conj. Bar stem em aço inox no modelo liso. Contém peneira, faca, dosador, pinça. Todo feito em inox polido, deixa o lugar sofisticado como decoração e muito útil no preparo de drinks e bebidas com tudo o que é preciso para um preparo rápido.</t>
+          <t>https://www.amazon.com.br/Moldura-Dobravel-Plastica-Crismop-Inox/dp/B07GFW29QF/ref=sr_1_17?dib=eyJ2IjoiMSJ9.nJUGtznzO1_mp8QWZsUFXw.U2CihjVDI-ycq8hPBej8kXlvKnB5OP9svp036lzUguc&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744748834&amp;s=merchant-items&amp;sr=1-17&amp;xpid=tqkuqdh5H_SQg</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Sem avaliação</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>['Com Design Limpo E Moderno, Trazendo Requinte E Sofisticação Para A Decoração De Seu Bar', 'Um Lindo Presente Para Homens Modernos Que Gostam De Preparar Seus Dinks Ou Receber Seus Convidados Com Elegncia', 'Em Aço Inox Polido, Prática De Limpar E Durável', 'País de Origem: CN']</t>
-        </is>
+          <t>Suporte para Mop Pó Dobrável, prático e leve, ideal para ser usado com o refil mop algodão ou microfibra com 45cm, sua casa sem pó. Muito mais praticidade e rapidez na limpeza de sua casa ou apartamento.</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>5 de 5</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>2</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51n-vWG4HIL._AC_SL1000_.jpg</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>5</v>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>611x893</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Moldura Dobravel Plastica Crismop Inox</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>R$14,90</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Suporte para Mop Pó Dobrável, prático e leve, ideal para ser usado com o refil mop algodão ou microfibra com 45cm, sua casa sem pó. Muito mais praticidade e rapidez na limpeza de sua casa ou apartamento.</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>5 de 5</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>2</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
           <t>['Ideal para limpar e tirar o pó na sala no quarto ou no seu escritório', 'Dobrável em aço e plástico com 45 cm', 'Material pp e aço inox', 'Fabricado com muito cuidado e atenção aos detalhes']</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>https://m.media-amazon.com/images/I/41n99saqHAL._AC_SL1000_.jpg</t>
         </is>
       </c>
-      <c r="H19" t="n">
+      <c r="I18" t="n">
         <v>1</v>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>410x362</t>
+        </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Porta-Retratos de Mesa e Parede</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/b/ref=dp_bc_5?ie=UTF8&amp;node=17100787011</t>
         </is>
       </c>
     </row>

--- a/arquivo_convertido.xlsx
+++ b/arquivo_convertido.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,7 +496,22 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>ranking</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>link_categoria</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>fba</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>data_coleta</t>
         </is>
       </c>
     </row>
@@ -513,7 +528,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Portas-Leitor-Cartao-Memoria-7portas/dp/B0DGGW72LL/ref=sr_1_1?dib=eyJ2IjoiMSJ9.an_1cY7E3LZNeVFRP4TQy4D6XkRe91SyzHh0aA3HqqAYh13TYtkf28luLUpqKdKYxdilEX4ZBI9cODJTEig0luYmtM4qnUstiXEQ2BqvBB1prwSJR7EozqV2Qy3YjTzFGj2xXOvznxaPCE_j3Fhst02QylxaUedF9OxRXxxUodm9igkYUVrFiq9hAyn5E-ktKeySD2f35RRaclvvMPpHz8PzuDy1Ck93AKfgPxw5WC4.FrqZ0joENNmRduDYE7-tNuS5qWPM63m8VQtvS0UiF_U&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744748303&amp;s=merchant-items&amp;sr=1-1&amp;xpid=tqkuqdh5H_SQg</t>
+          <t>https://www.amazon.com.br/Portas-Leitor-Cartao-Memoria-7portas/dp/B0DGGW72LL/ref=sr_1_1?dib=eyJ2IjoiMSJ9.an_1cY7E3LZNeVFRP4TQyz7_H4IYPNFkgGxEwby91AkKywokTOlb8c8SKWTmidMQySxXYjgIW_zxf9-tjXk7MPMZVY30GMRz8mmI4G4KkkrrgzByzMWpF5NtUA4A1GbvGj2xXOvznxaPCE_j3Fhst02QylxaUedF9OxRXxxUodmWq1v7F0_mvfeKst6WIkqLQAt0furxmrQjl4I1KCGhVsmIlF2fwcRAlVDBdXWXph0.xyzGpZQqjzPPzruWyiJkz3rESs-TLbTRHYcWmsH7v8c&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744891849&amp;s=merchant-items&amp;sr=1-1&amp;xpid=tqkuqdh5H_SQg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -583,7 +598,22 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
+          <t>863</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
           <t>https://www.amazon.com.br/Hubs-USB/b/ref=dp_bc_3?ie=UTF8&amp;node=23884302011</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>WayTechBr</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>17/04/2025</t>
         </is>
       </c>
     </row>
@@ -600,7 +630,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Bermuda-Masculina-T%C3%A9rmica-Compress%C3%A3o-I-Max/dp/B0DGQTCMC5/ref=sr_1_2?dib=eyJ2IjoiMSJ9.an_1cY7E3LZNeVFRP4TQy4D6XkRe91SyzHh0aA3HqqAYh13TYtkf28luLUpqKdKYxdilEX4ZBI9cODJTEig0luYmtM4qnUstiXEQ2BqvBB1prwSJR7EozqV2Qy3YjTzFGj2xXOvznxaPCE_j3Fhst02QylxaUedF9OxRXxxUodm9igkYUVrFiq9hAyn5E-ktKeySD2f35RRaclvvMPpHz8PzuDy1Ck93AKfgPxw5WC4.FrqZ0joENNmRduDYE7-tNuS5qWPM63m8VQtvS0UiF_U&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744748303&amp;s=merchant-items&amp;sr=1-2&amp;ufe=app_do%3Aamzn1.fos.a492fd4a-f54d-4e8d-8c31-35e0a04ce61e&amp;xpid=tqkuqdh5H_SQg</t>
+          <t>https://www.amazon.com.br/Bermuda-Masculina-T%C3%A9rmica-Compress%C3%A3o-I-Max/dp/B0DGQTCMC5/ref=sr_1_2?dib=eyJ2IjoiMSJ9.an_1cY7E3LZNeVFRP4TQyz7_H4IYPNFkgGxEwby91AkKywokTOlb8c8SKWTmidMQySxXYjgIW_zxf9-tjXk7MPMZVY30GMRz8mmI4G4KkkrrgzByzMWpF5NtUA4A1GbvGj2xXOvznxaPCE_j3Fhst02QylxaUedF9OxRXxxUodmWq1v7F0_mvfeKst6WIkqLQAt0furxmrQjl4I1KCGhVsmIlF2fwcRAlVDBdXWXph0.xyzGpZQqjzPPzruWyiJkz3rESs-TLbTRHYcWmsH7v8c&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744891849&amp;s=merchant-items&amp;sr=1-2&amp;ufe=app_do%3Aamzn1.fos.a492fd4a-f54d-4e8d-8c31-35e0a04ce61e&amp;xpid=tqkuqdh5H_SQg</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -653,34 +683,44 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
+          <t>Indisponível</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
           <t>https://www.amazon.com.br/b/ref=dp_bc_5?ie=UTF8&amp;node=17682478011</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>WayTechBr</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>17/04/2025</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Biquíni Aviação Estampado Sem Bojo Conforto e Estilo</t>
+          <t>Capa Protetora Defender Preta Para Galaxy Tab III 7 Otterbox (Preto)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R$44,99</t>
+          <t>R$28,89</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Biqu%C3%ADni-Avia%C3%A7%C3%A3o-Estampado-Conforto-Estilo/dp/B0DKQY7HWC/ref=sr_1_3?dib=eyJ2IjoiMSJ9.an_1cY7E3LZNeVFRP4TQy4D6XkRe91SyzHh0aA3HqqAYh13TYtkf28luLUpqKdKYxdilEX4ZBI9cODJTEig0luYmtM4qnUstiXEQ2BqvBB1prwSJR7EozqV2Qy3YjTzFGj2xXOvznxaPCE_j3Fhst02QylxaUedF9OxRXxxUodm9igkYUVrFiq9hAyn5E-ktKeySD2f35RRaclvvMPpHz8PzuDy1Ck93AKfgPxw5WC4.FrqZ0joENNmRduDYE7-tNuS5qWPM63m8VQtvS0UiF_U&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744748303&amp;s=merchant-items&amp;sr=1-3&amp;ufe=app_do%3Aamzn1.fos.6d798eae-cadf-45de-946a-f477d47705b9&amp;xpid=tqkuqdh5H_SQg</t>
+          <t>https://www.amazon.com.br/Protetora-Defender-Preta-Galaxy-Otterbox/dp/B07QYV9KGQ/ref=sr_1_3?dib=eyJ2IjoiMSJ9.an_1cY7E3LZNeVFRP4TQyz7_H4IYPNFkgGxEwby91AkKywokTOlb8c8SKWTmidMQySxXYjgIW_zxf9-tjXk7MPMZVY30GMRz8mmI4G4KkkrrgzByzMWpF5NtUA4A1GbvGj2xXOvznxaPCE_j3Fhst02QylxaUedF9OxRXxxUodmWq1v7F0_mvfeKst6WIkqLQAt0furxmrQjl4I1KCGhVsmIlF2fwcRAlVDBdXWXph0.xyzGpZQqjzPPzruWyiJkz3rESs-TLbTRHYcWmsH7v8c&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744891849&amp;s=merchant-items&amp;sr=1-3&amp;xpid=tqkuqdh5H_SQg</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Transforme seu Verão com o Biquíni Aviação com Estampa Pimenta
-Prepare-se para brilhar neste verão com o Biquíni Aviação com Estampa Pimenta. Com um design vibrante e ousado, este biquíni é perfeito para quem deseja se destacar à beira da piscina ou na praia. A estampa de pimenta traz um toque de personalidade e modernidade, tornando cada momento ainda mais especial.
-Estampa Exclusiva: A estampa de pimenta não só adiciona um charme único e vibrante ao seu visual, mas também reflete seu estilo arrojado e confiante.
-Conforto Sem Bojo: A ausência de bojo garante um ajuste leve e confortável, ideal para dias ensolarados de diversão e relaxamento. Você pode se mover livremente, sem abrir mão da elegância.
-Design Estiloso: Com um corte que valoriza as curvas, este biquíni é ideal para quem busca um look ousado e contemporâneo. Combine-o com seus acessórios favoritos e esteja pronta para arrasar!
-Transforme suas experiências de verão em momentos inesquecíveis com o Biquíni Aviação. Sinta-se confiante, estilosa e confortável em qualquer ocasião!</t>
+          <t>Proteja seu Galaxy Tab III 7 com a Capa Protetora Defender da Otterbox, projetada para oferecer máxima segurança e funcionalidade. Esta capa é ideal para quem busca proteção robusta sem abrir mão do estilo. Características: - Proteção Superior: A tecnologia de absorção de impactos proporciona defesa contra quedas, arranhões e impactos, garantindo que seu dispositivo permaneça em perfeito estado. - Design Ergonômico: Com um encaixe seguro e confortável, a capa facilita o manuseio, permitindo que você utilize seu tablet com facilidade. - Acesso Total: A Capa Defender mantém todas as portas e botões acessíveis, permitindo o uso total das funcionalidades do seu Galaxy Tab III 7, sem a necessidade de remover a capa. - Material de Alta Qualidade: Fabricada com materiais duráveis, resistentes à abrasão e ao desgaste, garantindo longa vida útil. - Instalação Simples: A capa é fácil de instalar e remover, permitindo que você troque de acessório conforme suas necessidades. Dimensões e Peso: - Compatível com Galaxy Tab III 7. - Peso leve, ideal para transporte. Cores Disponíveis: - Preto clássico, que combina com qualquer estilo. Cuidados e Manutenção: - Limpeza com pano úmido. - Evitar contato com produtos químicos agressivos. Garanta a proteção que seu Galaxy Tab III 7 merece com a Capa Protetora Defender Preta da Otterbox. Perfeita para uso diário, viagens ou qualquer situação em que seu tablet esteja exposto a riscos.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -693,20 +733,20 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['Detalhes da estampa de pimenta e seu charme único', 'Conforto durante atividades', 'Valoriza as curvas e complementa o visual', 'Design Vibrante e Ousado']</t>
+          <t>['Proteção em Camadas: A capa possui três camadas de proteção, incluindo uma camada interna de policarbonato rígido que absorve impactos e uma camada externa emborrachada que oferece resistência adicional contra quedas e arranhões.', 'Design Resistente: A capa é projetada para suportar ambientes desafiadores e testes rigorosos, protegendo o dispositivo de quedas de até 2 metros', 'Acesso Total: Apesar da proteção, a capa permite fácil acesso a todos os botões, portas e funcionalidades do tablet, incluindo câmera e conector de carregamento, sem precisar remover a capa.', 'Material e Dimensões: A capa é feita de policarbonato e silicone emborrachado, leve e projetada para se ajustar perfeitamente ao Galaxy Tab III 7".']</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61jwBveWy3L._AC_SL1200_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/41Vc49XdKZL._AC_SL1200_.jpg</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>797x1034</t>
+          <t>498x1148</t>
         </is>
       </c>
       <c r="K4" t="b">
@@ -714,12 +754,27 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Conjuntos</t>
+          <t>Capas, Bolsas e Estojos</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/b/ref=dp_bc_6?ie=UTF8&amp;node=17682696011</t>
+          <t>Indisponível</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/b/ref=dp_bc_4?ie=UTF8&amp;node=16364864011</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>WayTechBr</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>17/04/2025</t>
         </is>
       </c>
     </row>
@@ -736,7 +791,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Cuecas-Boxer-Mash-Preto-Listrado/dp/B0DGXZJ3TZ/ref=sr_1_4?dib=eyJ2IjoiMSJ9.an_1cY7E3LZNeVFRP4TQy4D6XkRe91SyzHh0aA3HqqAYh13TYtkf28luLUpqKdKYxdilEX4ZBI9cODJTEig0luYmtM4qnUstiXEQ2BqvBB1prwSJR7EozqV2Qy3YjTzFGj2xXOvznxaPCE_j3Fhst02QylxaUedF9OxRXxxUodm9igkYUVrFiq9hAyn5E-ktKeySD2f35RRaclvvMPpHz8PzuDy1Ck93AKfgPxw5WC4.FrqZ0joENNmRduDYE7-tNuS5qWPM63m8VQtvS0UiF_U&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744748303&amp;s=merchant-items&amp;sr=1-4&amp;ufe=app_do%3Aamzn1.fos.6d798eae-cadf-45de-946a-f477d47705b9&amp;xpid=tqkuqdh5H_SQg</t>
+          <t>https://www.amazon.com.br/Cuecas-Boxer-Mash-Preto-Listrado/dp/B0DGXZJ3TZ/ref=sr_1_4?dib=eyJ2IjoiMSJ9.an_1cY7E3LZNeVFRP4TQyz7_H4IYPNFkgGxEwby91AkKywokTOlb8c8SKWTmidMQySxXYjgIW_zxf9-tjXk7MPMZVY30GMRz8mmI4G4KkkrrgzByzMWpF5NtUA4A1GbvGj2xXOvznxaPCE_j3Fhst02QylxaUedF9OxRXxxUodmWq1v7F0_mvfeKst6WIkqLQAt0furxmrQjl4I1KCGhVsmIlF2fwcRAlVDBdXWXph0.xyzGpZQqjzPPzruWyiJkz3rESs-TLbTRHYcWmsH7v8c&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744891849&amp;s=merchant-items&amp;sr=1-4&amp;ufe=app_do%3Aamzn1.fos.6d798eae-cadf-45de-946a-f477d47705b9&amp;xpid=tqkuqdh5H_SQg</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -793,29 +848,44 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
+          <t>Indisponível</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
           <t>https://www.amazon.com.br/b/ref=dp_bc_5?ie=UTF8&amp;node=17682497011</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>WayTechBr</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>17/04/2025</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Capa Protetora Defender Preta Para Galaxy Tab III 7 Otterbox (Preto)</t>
+          <t>Cabo Displayport 4k Blindado Macho X Macho 1,8m 1.1 E 1.2 (preto)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R$28,89</t>
+          <t>R$31,90</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Protetora-Defender-Preta-Galaxy-Otterbox/dp/B07QYV9KGQ/ref=sr_1_5?dib=eyJ2IjoiMSJ9.an_1cY7E3LZNeVFRP4TQy4D6XkRe91SyzHh0aA3HqqAYh13TYtkf28luLUpqKdKYxdilEX4ZBI9cODJTEig0luYmtM4qnUstiXEQ2BqvBB1prwSJR7EozqV2Qy3YjTzFGj2xXOvznxaPCE_j3Fhst02QylxaUedF9OxRXxxUodm9igkYUVrFiq9hAyn5E-ktKeySD2f35RRaclvvMPpHz8PzuDy1Ck93AKfgPxw5WC4.FrqZ0joENNmRduDYE7-tNuS5qWPM63m8VQtvS0UiF_U&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744748303&amp;s=merchant-items&amp;sr=1-5&amp;xpid=tqkuqdh5H_SQg</t>
+          <t>https://www.amazon.com.br/Cabo-Displayport-Blindado-Macho-preto/dp/B0DKPHT6SJ/ref=sr_1_5?dib=eyJ2IjoiMSJ9.an_1cY7E3LZNeVFRP4TQyz7_H4IYPNFkgGxEwby91AkKywokTOlb8c8SKWTmidMQySxXYjgIW_zxf9-tjXk7MPMZVY30GMRz8mmI4G4KkkrrgzByzMWpF5NtUA4A1GbvGj2xXOvznxaPCE_j3Fhst02QylxaUedF9OxRXxxUodmWq1v7F0_mvfeKst6WIkqLQAt0furxmrQjl4I1KCGhVsmIlF2fwcRAlVDBdXWXph0.xyzGpZQqjzPPzruWyiJkz3rESs-TLbTRHYcWmsH7v8c&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744891849&amp;s=merchant-items&amp;sr=1-5&amp;xpid=tqkuqdh5H_SQg</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Proteja seu Galaxy Tab III 7 com a Capa Protetora Defender da Otterbox, projetada para oferecer máxima segurança e funcionalidade. Esta capa é ideal para quem busca proteção robusta sem abrir mão do estilo. Características: - Proteção Superior: A tecnologia de absorção de impactos proporciona defesa contra quedas, arranhões e impactos, garantindo que seu dispositivo permaneça em perfeito estado. - Design Ergonômico: Com um encaixe seguro e confortável, a capa facilita o manuseio, permitindo que você utilize seu tablet com facilidade. - Acesso Total: A Capa Defender mantém todas as portas e botões acessíveis, permitindo o uso total das funcionalidades do seu Galaxy Tab III 7, sem a necessidade de remover a capa. - Material de Alta Qualidade: Fabricada com materiais duráveis, resistentes à abrasão e ao desgaste, garantindo longa vida útil. - Instalação Simples: A capa é fácil de instalar e remover, permitindo que você troque de acessório conforme suas necessidades. Dimensões e Peso: - Compatível com Galaxy Tab III 7. - Peso leve, ideal para transporte. Cores Disponíveis: - Preto clássico, que combina com qualquer estilo. Cuidados e Manutenção: - Limpeza com pano úmido. - Evitar contato com produtos químicos agressivos. Garanta a proteção que seu Galaxy Tab III 7 merece com a Capa Protetora Defender Preta da Otterbox. Perfeita para uso diário, viagens ou qualquer situação em que seu tablet esteja exposto a riscos.</t>
+          <t>O Cabo DisplayPort 4K Blindado de 1,8 metros oferece qualidade de transmissão superior para quem busca desempenho e durabilidade. Com conectores banhados a ouro e blindagem reforçada, ele proporciona máxima proteção contra interferências e uma conexão estável. Ideal para quem exige alta definição em resoluções de até 4K, este cabo é perfeito para conectar notebooks, tablets, TVs, monitores e projetores com suporte DisplayPort. Características do Produto: Marca: F3 Modelo: JC-DP1.8 Resolução Suportada: 480i, 576i/p, 720i/p, 1080i/p, até 2160p (4K) Conectores: 2 x DisplayPort (Macho) com conectores banhados a ouro Padrões Compatíveis: DisplayPort 1.1 e 1.2 Comprimento do Cabo: 1,8 metro Cor: Preto Com trava de segurança, garantindo uma conexão firme e confiável. Garantia do vendedor: 90 dias</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -828,20 +898,20 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['Proteção em Camadas: A capa possui três camadas de proteção, incluindo uma camada interna de policarbonato rígido que absorve impactos e uma camada externa emborrachada que oferece resistência adicional contra quedas e arranhões.', 'Design Resistente: A capa é projetada para suportar ambientes desafiadores e testes rigorosos, protegendo o dispositivo de quedas de até 2 metros', 'Acesso Total: Apesar da proteção, a capa permite fácil acesso a todos os botões, portas e funcionalidades do tablet, incluindo câmera e conector de carregamento, sem precisar remover a capa.', 'Material e Dimensões: A capa é feita de policarbonato e silicone emborrachado, leve e projetada para se ajustar perfeitamente ao Galaxy Tab III 7".']</t>
+          <t>['Alta Resolução: Suporta resoluções de até 4K (2160p), proporcionando imagens nítidas e detalhadas, ideal para gamers e profissionais que exigem qualidade visual superior.', 'Blindagem Reforçada: A blindagem avançada do cabo protege contra interferências eletromagnéticas, minimizando perda de sinal e garantindo uma conexão de alta qualidade.', 'Conectores Banhados a Ouro: Os conectores banhados a ouro garantem uma excelente condutividade e resistência à corrosão, assegurando uma transmissão de sinal mais estável e confiável.', 'Trava de Segurança: Equipado com uma trava de segurança, o cabo assegura uma conexão firme e confiável, evitando desconexões acidentais durante o uso.', 'Comprimento Ideal: Com 1,8 metros de comprimento, o cabo oferece flexibilidade e conveniência para conectar dispositivos em diferentes configurações sem comprometer a qualidade do sinal.']</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/41Vc49XdKZL._AC_SL1200_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/51-3+Xs2w-L._AC_SL1200_.jpg</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>498x1148</t>
+          <t>1200x1091</t>
         </is>
       </c>
       <c r="K6" t="b">
@@ -849,34 +919,54 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Capas, Bolsas e Estojos</t>
+          <t>Cabos DisplayPort</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/b/ref=dp_bc_4?ie=UTF8&amp;node=16364864011</t>
+          <t>Indisponível</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/b/ref=dp_bc_5?ie=UTF8&amp;node=16364884011</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>WayTechBr</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>17/04/2025</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Cabo Displayport 4k Blindado Macho X Macho 1,8m 1.1 E 1.2 (preto)</t>
+          <t>Biquíni Aviação Estampado Sem Bojo Conforto e Estilo</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R$31,90</t>
+          <t>R$44,99</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Cabo-Displayport-Blindado-Macho-preto/dp/B0DKPHT6SJ/ref=sr_1_6?dib=eyJ2IjoiMSJ9.an_1cY7E3LZNeVFRP4TQy4D6XkRe91SyzHh0aA3HqqAYh13TYtkf28luLUpqKdKYxdilEX4ZBI9cODJTEig0luYmtM4qnUstiXEQ2BqvBB1prwSJR7EozqV2Qy3YjTzFGj2xXOvznxaPCE_j3Fhst02QylxaUedF9OxRXxxUodm9igkYUVrFiq9hAyn5E-ktKeySD2f35RRaclvvMPpHz8PzuDy1Ck93AKfgPxw5WC4.FrqZ0joENNmRduDYE7-tNuS5qWPM63m8VQtvS0UiF_U&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744748303&amp;s=merchant-items&amp;sr=1-6&amp;xpid=tqkuqdh5H_SQg</t>
+          <t>https://www.amazon.com.br/Biqu%C3%ADni-Avia%C3%A7%C3%A3o-Estampado-Conforto-Estilo/dp/B0DKQY7HWC/ref=sr_1_6?dib=eyJ2IjoiMSJ9.an_1cY7E3LZNeVFRP4TQyz7_H4IYPNFkgGxEwby91AkKywokTOlb8c8SKWTmidMQySxXYjgIW_zxf9-tjXk7MPMZVY30GMRz8mmI4G4KkkrrgzByzMWpF5NtUA4A1GbvGj2xXOvznxaPCE_j3Fhst02QylxaUedF9OxRXxxUodmWq1v7F0_mvfeKst6WIkqLQAt0furxmrQjl4I1KCGhVsmIlF2fwcRAlVDBdXWXph0.xyzGpZQqjzPPzruWyiJkz3rESs-TLbTRHYcWmsH7v8c&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744891849&amp;s=merchant-items&amp;sr=1-6&amp;ufe=app_do%3Aamzn1.fos.6d798eae-cadf-45de-946a-f477d47705b9&amp;xpid=tqkuqdh5H_SQg</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>O Cabo DisplayPort 4K Blindado de 1,8 metros oferece qualidade de transmissão superior para quem busca desempenho e durabilidade. Com conectores banhados a ouro e blindagem reforçada, ele proporciona máxima proteção contra interferências e uma conexão estável. Ideal para quem exige alta definição em resoluções de até 4K, este cabo é perfeito para conectar notebooks, tablets, TVs, monitores e projetores com suporte DisplayPort. Características do Produto: Marca: F3 Modelo: JC-DP1.8 Resolução Suportada: 480i, 576i/p, 720i/p, 1080i/p, até 2160p (4K) Conectores: 2 x DisplayPort (Macho) com conectores banhados a ouro Padrões Compatíveis: DisplayPort 1.1 e 1.2 Comprimento do Cabo: 1,8 metro Cor: Preto Com trava de segurança, garantindo uma conexão firme e confiável. Garantia do vendedor: 90 dias</t>
+          <t>Transforme seu Verão com o Biquíni Aviação com Estampa Pimenta
+Prepare-se para brilhar neste verão com o Biquíni Aviação com Estampa Pimenta. Com um design vibrante e ousado, este biquíni é perfeito para quem deseja se destacar à beira da piscina ou na praia. A estampa de pimenta traz um toque de personalidade e modernidade, tornando cada momento ainda mais especial.
+Estampa Exclusiva: A estampa de pimenta não só adiciona um charme único e vibrante ao seu visual, mas também reflete seu estilo arrojado e confiante.
+Conforto Sem Bojo: A ausência de bojo garante um ajuste leve e confortável, ideal para dias ensolarados de diversão e relaxamento. Você pode se mover livremente, sem abrir mão da elegância.
+Design Estiloso: Com um corte que valoriza as curvas, este biquíni é ideal para quem busca um look ousado e contemporâneo. Combine-o com seus acessórios favoritos e esteja pronta para arrasar!
+Transforme suas experiências de verão em momentos inesquecíveis com o Biquíni Aviação. Sinta-se confiante, estilosa e confortável em qualquer ocasião!</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -889,20 +979,20 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['Alta Resolução: Suporta resoluções de até 4K (2160p), proporcionando imagens nítidas e detalhadas, ideal para gamers e profissionais que exigem qualidade visual superior.', 'Blindagem Reforçada: A blindagem avançada do cabo protege contra interferências eletromagnéticas, minimizando perda de sinal e garantindo uma conexão de alta qualidade.', 'Conectores Banhados a Ouro: Os conectores banhados a ouro garantem uma excelente condutividade e resistência à corrosão, assegurando uma transmissão de sinal mais estável e confiável.', 'Trava de Segurança: Equipado com uma trava de segurança, o cabo assegura uma conexão firme e confiável, evitando desconexões acidentais durante o uso.', 'Comprimento Ideal: Com 1,8 metros de comprimento, o cabo oferece flexibilidade e conveniência para conectar dispositivos em diferentes configurações sem comprometer a qualidade do sinal.']</t>
+          <t>['Detalhes da estampa de pimenta e seu charme único', 'Conforto durante atividades', 'Valoriza as curvas e complementa o visual', 'Design Vibrante e Ousado']</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51-3+Xs2w-L._AC_SL1200_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61jwBveWy3L._AC_SL1200_.jpg</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>1200x1091</t>
+          <t>797x1034</t>
         </is>
       </c>
       <c r="K7" t="b">
@@ -910,34 +1000,49 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Cabos DisplayPort</t>
+          <t>Conjuntos</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/b/ref=dp_bc_5?ie=UTF8&amp;node=16364884011</t>
+          <t>Indisponível</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/b/ref=dp_bc_6?ie=UTF8&amp;node=17682696011</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>WayTechBr</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>17/04/2025</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Shorts Jeans Stillage Confortável com Barras Dobradas Estilo Casual</t>
+          <t>Carregador Viagem USB-A Preto 15W Sem Cabo (Preto)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>R$47,90</t>
+          <t>R$39,99</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Shorts-Stillage-Confort%C3%A1vel-Barras-Dobradas/dp/B0DGXZDBPY/ref=sr_1_7?dib=eyJ2IjoiMSJ9.an_1cY7E3LZNeVFRP4TQy4D6XkRe91SyzHh0aA3HqqAYh13TYtkf28luLUpqKdKYxdilEX4ZBI9cODJTEig0luYmtM4qnUstiXEQ2BqvBB1prwSJR7EozqV2Qy3YjTzFGj2xXOvznxaPCE_j3Fhst02QylxaUedF9OxRXxxUodm9igkYUVrFiq9hAyn5E-ktKeySD2f35RRaclvvMPpHz8PzuDy1Ck93AKfgPxw5WC4.FrqZ0joENNmRduDYE7-tNuS5qWPM63m8VQtvS0UiF_U&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744748303&amp;s=merchant-items&amp;sr=1-7&amp;ufe=app_do%3Aamzn1.fos.6d798eae-cadf-45de-946a-f477d47705b9&amp;xpid=tqkuqdh5H_SQg</t>
+          <t>https://www.amazon.com.br/Carregador-Viagem-USB-Preto-Cabo/dp/B0DKPHB587/ref=sr_1_7?dib=eyJ2IjoiMSJ9.an_1cY7E3LZNeVFRP4TQyz7_H4IYPNFkgGxEwby91AkKywokTOlb8c8SKWTmidMQySxXYjgIW_zxf9-tjXk7MPMZVY30GMRz8mmI4G4KkkrrgzByzMWpF5NtUA4A1GbvGj2xXOvznxaPCE_j3Fhst02QylxaUedF9OxRXxxUodmWq1v7F0_mvfeKst6WIkqLQAt0furxmrQjl4I1KCGhVsmIlF2fwcRAlVDBdXWXph0.xyzGpZQqjzPPzruWyiJkz3rESs-TLbTRHYcWmsH7v8c&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744891849&amp;s=merchant-items&amp;sr=1-7&amp;xpid=tqkuqdh5H_SQg</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Descubra o shorts perfeito para os dias quentes com o Shorts Jeans Stillage. Feito em jeans de alta qualidade, este modelo oferece o equilíbrio ideal entre conforto e estilo. Com barras dobradas que trazem um toque moderno e despojado, ele é a escolha ideal para compor looks casuais e frescos. Versátil, combina facilmente com blusas, camisetas ou regatas, sendo perfeito para passeios ou momentos descontraídos. Além disso, o corte ajustado valoriza a silhueta, proporcionando liberdade de movimento sem abrir mão do estilo.</t>
+          <t>Carregue seus dispositivos com rapidez e segurança onde quer que esteja com o Carregador Viagem USB-A Preto 15W. Ideal para quem está sempre em movimento, este carregador oferece potência e eficiência em um design compacto e fácil de transportar. Potência de 15W: Com uma saída de 15 watts, este carregador garante um carregamento rápido e eficiente para smartphones, tablets, fones de ouvido, e outros dispositivos USB-A, permitindo que você recupere energia de forma ágil, sem perder tempo. Design compacto e leve: Projetado para ser discreto e fácil de levar em bolsas, mochilas ou malas de viagem, ele é perfeito para acompanhar o seu ritmo, seja em viagens a trabalho ou lazer. USB-A universal: A porta USB-A oferece compatibilidade com uma ampla gama de cabos e dispositivos, garantindo flexibilidade para carregar praticamente qualquer gadget, desde que você tenha o cabo adequado. Sem cabo incluído: Este modelo não vem com cabo, oferecendo a liberdade de utilizar o cabo de sua escolha, seja para Android, iPhone ou outros dispositivos com diferentes entradas. Proteção integrada: Equipado com recursos de proteção contra superaquecimento, sobrecarga e curtos-circuitos, este carregador garante segurança durante o uso, protegendo seus dispositivos e você. Compatível com tensão global: Ideal para viajantes, o carregador pode ser utilizado em diferentes partes do mundo, adaptando-se a tensões de 100-240V, basta ter o adaptador de tomada correto. Dimensões: Compacto, fácil de guardar e transportar, pesando aproximadamente 50g. Leve com você o Carregador Viagem USB-A Preto 15W e garanta energia confiável para seus dispositivos em qualquer lugar Garantia do vendedor: 90 dias</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -950,20 +1055,20 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['Conforto Superior', 'Barras Dobradas', 'Corte Casual', 'Detalhes de Acabamento', 'Fácil de Combinar']</t>
+          <t>['Eficiência de Carregamento: Com potência de 15W, o carregador oferece carregamento rápido e eficiente para uma variedade de dispositivos, incluindo smartphones e tablets.', 'Portabilidade e Design Compacto: O design leve e discreto facilita o transporte em bolsas e mochilas, tornando-o ideal para quem está sempre em movimento.', 'Compatibilidade Universal: A porta USB-A permite a conexão com uma ampla gama de dispositivos, garantindo flexibilidade no carregamento.', 'Segurança Avançada: Equipado com proteção contra superaquecimento, sobrecarga e curtos-circuitos, assegura um uso seguro para os dispositivos.', 'Compatibilidade Global: Funciona em tensões de 100-240V, sendo ideal para viajantes que necessitam de um carregador confiável em diferentes regiões do mundo.']</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61mjwNm8C5L._AC_SL1200_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/41ybhWt-6iL._AC_SL1200_.jpg</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>1116x811</t>
+          <t>595x1185</t>
         </is>
       </c>
       <c r="K8" t="b">
@@ -971,34 +1076,49 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Shorts e Bermudas</t>
+          <t>Carregadores de Parede</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/b/ref=dp_bc_4?ie=UTF8&amp;node=17682127011</t>
+          <t>Indisponível</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/b/ref=dp_bc_5?ie=UTF8&amp;node=16244307011</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>WayTechBr</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>17/04/2025</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Carregador Viagem USB-A Preto 15W Sem Cabo (Preto)</t>
+          <t>Shorts Jeans Stillage Confortável com Barras Dobradas Estilo Casual</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>R$39,99</t>
+          <t>R$47,90</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Carregador-Viagem-USB-Preto-Cabo/dp/B0DKPHB587/ref=sr_1_8?dib=eyJ2IjoiMSJ9.an_1cY7E3LZNeVFRP4TQy4D6XkRe91SyzHh0aA3HqqAYh13TYtkf28luLUpqKdKYxdilEX4ZBI9cODJTEig0luYmtM4qnUstiXEQ2BqvBB1prwSJR7EozqV2Qy3YjTzFGj2xXOvznxaPCE_j3Fhst02QylxaUedF9OxRXxxUodm9igkYUVrFiq9hAyn5E-ktKeySD2f35RRaclvvMPpHz8PzuDy1Ck93AKfgPxw5WC4.FrqZ0joENNmRduDYE7-tNuS5qWPM63m8VQtvS0UiF_U&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744748303&amp;s=merchant-items&amp;sr=1-8&amp;xpid=tqkuqdh5H_SQg</t>
+          <t>https://www.amazon.com.br/Shorts-Stillage-Confort%C3%A1vel-Barras-Dobradas/dp/B0DGXZDBPY/ref=sr_1_8?dib=eyJ2IjoiMSJ9.an_1cY7E3LZNeVFRP4TQyz7_H4IYPNFkgGxEwby91AkKywokTOlb8c8SKWTmidMQySxXYjgIW_zxf9-tjXk7MPMZVY30GMRz8mmI4G4KkkrrgzByzMWpF5NtUA4A1GbvGj2xXOvznxaPCE_j3Fhst02QylxaUedF9OxRXxxUodmWq1v7F0_mvfeKst6WIkqLQAt0furxmrQjl4I1KCGhVsmIlF2fwcRAlVDBdXWXph0.xyzGpZQqjzPPzruWyiJkz3rESs-TLbTRHYcWmsH7v8c&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744891849&amp;s=merchant-items&amp;sr=1-8&amp;ufe=app_do%3Aamzn1.fos.6d798eae-cadf-45de-946a-f477d47705b9&amp;xpid=tqkuqdh5H_SQg</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Carregue seus dispositivos com rapidez e segurança onde quer que esteja com o Carregador Viagem USB-A Preto 15W. Ideal para quem está sempre em movimento, este carregador oferece potência e eficiência em um design compacto e fácil de transportar. Potência de 15W: Com uma saída de 15 watts, este carregador garante um carregamento rápido e eficiente para smartphones, tablets, fones de ouvido, e outros dispositivos USB-A, permitindo que você recupere energia de forma ágil, sem perder tempo. Design compacto e leve: Projetado para ser discreto e fácil de levar em bolsas, mochilas ou malas de viagem, ele é perfeito para acompanhar o seu ritmo, seja em viagens a trabalho ou lazer. USB-A universal: A porta USB-A oferece compatibilidade com uma ampla gama de cabos e dispositivos, garantindo flexibilidade para carregar praticamente qualquer gadget, desde que você tenha o cabo adequado. Sem cabo incluído: Este modelo não vem com cabo, oferecendo a liberdade de utilizar o cabo de sua escolha, seja para Android, iPhone ou outros dispositivos com diferentes entradas. Proteção integrada: Equipado com recursos de proteção contra superaquecimento, sobrecarga e curtos-circuitos, este carregador garante segurança durante o uso, protegendo seus dispositivos e você. Compatível com tensão global: Ideal para viajantes, o carregador pode ser utilizado em diferentes partes do mundo, adaptando-se a tensões de 100-240V, basta ter o adaptador de tomada correto. Dimensões: Compacto, fácil de guardar e transportar, pesando aproximadamente 50g. Leve com você o Carregador Viagem USB-A Preto 15W e garanta energia confiável para seus dispositivos em qualquer lugar Garantia do vendedor: 90 dias</t>
+          <t>Descubra o shorts perfeito para os dias quentes com o Shorts Jeans Stillage. Feito em jeans de alta qualidade, este modelo oferece o equilíbrio ideal entre conforto e estilo. Com barras dobradas que trazem um toque moderno e despojado, ele é a escolha ideal para compor looks casuais e frescos. Versátil, combina facilmente com blusas, camisetas ou regatas, sendo perfeito para passeios ou momentos descontraídos. Além disso, o corte ajustado valoriza a silhueta, proporcionando liberdade de movimento sem abrir mão do estilo.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1011,20 +1131,20 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['Eficiência de Carregamento: Com potência de 15W, o carregador oferece carregamento rápido e eficiente para uma variedade de dispositivos, incluindo smartphones e tablets.', 'Portabilidade e Design Compacto: O design leve e discreto facilita o transporte em bolsas e mochilas, tornando-o ideal para quem está sempre em movimento.', 'Compatibilidade Universal: A porta USB-A permite a conexão com uma ampla gama de dispositivos, garantindo flexibilidade no carregamento.', 'Segurança Avançada: Equipado com proteção contra superaquecimento, sobrecarga e curtos-circuitos, assegura um uso seguro para os dispositivos.', 'Compatibilidade Global: Funciona em tensões de 100-240V, sendo ideal para viajantes que necessitam de um carregador confiável em diferentes regiões do mundo.']</t>
+          <t>['Conforto Superior', 'Barras Dobradas', 'Corte Casual', 'Detalhes de Acabamento', 'Fácil de Combinar']</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/41ybhWt-6iL._AC_SL1200_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61mjwNm8C5L._AC_SL1200_.jpg</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>595x1185</t>
+          <t>1116x811</t>
         </is>
       </c>
       <c r="K9" t="b">
@@ -1032,12 +1152,27 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Carregadores de Parede</t>
+          <t>Shorts e Bermudas</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/b/ref=dp_bc_5?ie=UTF8&amp;node=16244307011</t>
+          <t>Indisponível</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/b/ref=dp_bc_4?ie=UTF8&amp;node=17682127011</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>WayTechBr</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>17/04/2025</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1189,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Ring-Light-Polegadas-Tripe-Preto/dp/B0DKPV57Z8/ref=sr_1_9?dib=eyJ2IjoiMSJ9.an_1cY7E3LZNeVFRP4TQy4D6XkRe91SyzHh0aA3HqqAYh13TYtkf28luLUpqKdKYxdilEX4ZBI9cODJTEig0luYmtM4qnUstiXEQ2BqvBB1prwSJR7EozqV2Qy3YjTzFGj2xXOvznxaPCE_j3Fhst02QylxaUedF9OxRXxxUodm9igkYUVrFiq9hAyn5E-ktKeySD2f35RRaclvvMPpHz8PzuDy1Ck93AKfgPxw5WC4.FrqZ0joENNmRduDYE7-tNuS5qWPM63m8VQtvS0UiF_U&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744748303&amp;s=merchant-items&amp;sr=1-9&amp;xpid=tqkuqdh5H_SQg</t>
+          <t>https://www.amazon.com.br/Ring-Light-Polegadas-Tripe-Preto/dp/B0DKPV57Z8/ref=sr_1_9?dib=eyJ2IjoiMSJ9.an_1cY7E3LZNeVFRP4TQyz7_H4IYPNFkgGxEwby91AkKywokTOlb8c8SKWTmidMQySxXYjgIW_zxf9-tjXk7MPMZVY30GMRz8mmI4G4KkkrrgzByzMWpF5NtUA4A1GbvGj2xXOvznxaPCE_j3Fhst02QylxaUedF9OxRXxxUodmWq1v7F0_mvfeKst6WIkqLQAt0furxmrQjl4I1KCGhVsmIlF2fwcRAlVDBdXWXph0.xyzGpZQqjzPPzruWyiJkz3rESs-TLbTRHYcWmsH7v8c&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744891849&amp;s=merchant-items&amp;sr=1-9&amp;xpid=tqkuqdh5H_SQg</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1098,7 +1233,22 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
+          <t>Indisponível</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
           <t>https://www.amazon.com.br/Luzes-Selfie-Telefone-Celular/b/ref=dp_bc_6?ie=UTF8&amp;node=23658796011</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>WayTechBr</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>17/04/2025</t>
         </is>
       </c>
     </row>
@@ -1115,7 +1265,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Protetora-Kicktok-Samsung-Celular-Transparente/dp/B0777RX2H3/ref=sr_1_10?dib=eyJ2IjoiMSJ9.an_1cY7E3LZNeVFRP4TQy4D6XkRe91SyzHh0aA3HqqAYh13TYtkf28luLUpqKdKYxdilEX4ZBI9cODJTEig0luYmtM4qnUstiXEQ2BqvBB1prwSJR7EozqV2Qy3YjTzFGj2xXOvznxaPCE_j3Fhst02QylxaUedF9OxRXxxUodm9igkYUVrFiq9hAyn5E-ktKeySD2f35RRaclvvMPpHz8PzuDy1Ck93AKfgPxw5WC4.FrqZ0joENNmRduDYE7-tNuS5qWPM63m8VQtvS0UiF_U&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744748303&amp;s=merchant-items&amp;sr=1-10&amp;xpid=tqkuqdh5H_SQg</t>
+          <t>https://www.amazon.com.br/Protetora-Kicktok-Samsung-Celular-Transparente/dp/B0777RX2H3/ref=sr_1_10?dib=eyJ2IjoiMSJ9.an_1cY7E3LZNeVFRP4TQyz7_H4IYPNFkgGxEwby91AkKywokTOlb8c8SKWTmidMQySxXYjgIW_zxf9-tjXk7MPMZVY30GMRz8mmI4G4KkkrrgzByzMWpF5NtUA4A1GbvGj2xXOvznxaPCE_j3Fhst02QylxaUedF9OxRXxxUodmWq1v7F0_mvfeKst6WIkqLQAt0furxmrQjl4I1KCGhVsmIlF2fwcRAlVDBdXWXph0.xyzGpZQqjzPPzruWyiJkz3rESs-TLbTRHYcWmsH7v8c&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744891849&amp;s=merchant-items&amp;sr=1-10&amp;xpid=tqkuqdh5H_SQg</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1144,7 +1294,11 @@
       <c r="I11" t="n">
         <v>4</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>681x1443</t>
+        </is>
+      </c>
       <c r="K11" t="b">
         <v>0</v>
       </c>
@@ -1155,7 +1309,22 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
+          <t>13146</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
           <t>https://www.amazon.com.br/b/ref=dp_bc_5?ie=UTF8&amp;node=16244311011</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>WayTechBr</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>17/04/2025</t>
         </is>
       </c>
     </row>
@@ -1172,7 +1341,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Pel%C3%ADcula-Protetora-Motorola-Celular-Transparente/dp/B075DZL4X6/ref=sr_1_11?dib=eyJ2IjoiMSJ9.an_1cY7E3LZNeVFRP4TQy4D6XkRe91SyzHh0aA3HqqAYh13TYtkf28luLUpqKdKYxdilEX4ZBI9cODJTEig0luYmtM4qnUstiXEQ2BqvBB1prwSJR7EozqV2Qy3YjTzFGj2xXOvznxaPCE_j3Fhst02QylxaUedF9OxRXxxUodm9igkYUVrFiq9hAyn5E-ktKeySD2f35RRaclvvMPpHz8PzuDy1Ck93AKfgPxw5WC4.FrqZ0joENNmRduDYE7-tNuS5qWPM63m8VQtvS0UiF_U&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744748303&amp;s=merchant-items&amp;sr=1-11&amp;xpid=tqkuqdh5H_SQg</t>
+          <t>https://www.amazon.com.br/Pel%C3%ADcula-Protetora-Motorola-Celular-Transparente/dp/B075DZL4X6/ref=sr_1_11?dib=eyJ2IjoiMSJ9.an_1cY7E3LZNeVFRP4TQyz7_H4IYPNFkgGxEwby91AkKywokTOlb8c8SKWTmidMQySxXYjgIW_zxf9-tjXk7MPMZVY30GMRz8mmI4G4KkkrrgzByzMWpF5NtUA4A1GbvGj2xXOvznxaPCE_j3Fhst02QylxaUedF9OxRXxxUodmWq1v7F0_mvfeKst6WIkqLQAt0furxmrQjl4I1KCGhVsmIlF2fwcRAlVDBdXWXph0.xyzGpZQqjzPPzruWyiJkz3rESs-TLbTRHYcWmsH7v8c&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744891849&amp;s=merchant-items&amp;sr=1-11&amp;xpid=tqkuqdh5H_SQg</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1216,7 +1385,22 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
+          <t>6667</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
           <t>https://www.amazon.com.br/b/ref=dp_bc_5?ie=UTF8&amp;node=16244311011</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>WayTechBr</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>17/04/2025</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1417,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Pel%C3%ADcula-Protetora-Transparente-Motorola-Celular/dp/B07F6LKG2V/ref=sr_1_12?dib=eyJ2IjoiMSJ9.an_1cY7E3LZNeVFRP4TQy4D6XkRe91SyzHh0aA3HqqAYh13TYtkf28luLUpqKdKYxdilEX4ZBI9cODJTEig0luYmtM4qnUstiXEQ2BqvBB1prwSJR7EozqV2Qy3YjTzFGj2xXOvznxaPCE_j3Fhst02QylxaUedF9OxRXxxUodm9igkYUVrFiq9hAyn5E-ktKeySD2f35RRaclvvMPpHz8PzuDy1Ck93AKfgPxw5WC4.FrqZ0joENNmRduDYE7-tNuS5qWPM63m8VQtvS0UiF_U&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744748303&amp;s=merchant-items&amp;sr=1-12&amp;xpid=tqkuqdh5H_SQg</t>
+          <t>https://www.amazon.com.br/Pel%C3%ADcula-Protetora-Transparente-Motorola-Celular/dp/B07F6LKG2V/ref=sr_1_12?dib=eyJ2IjoiMSJ9.an_1cY7E3LZNeVFRP4TQyz7_H4IYPNFkgGxEwby91AkKywokTOlb8c8SKWTmidMQySxXYjgIW_zxf9-tjXk7MPMZVY30GMRz8mmI4G4KkkrrgzByzMWpF5NtUA4A1GbvGj2xXOvznxaPCE_j3Fhst02QylxaUedF9OxRXxxUodmWq1v7F0_mvfeKst6WIkqLQAt0furxmrQjl4I1KCGhVsmIlF2fwcRAlVDBdXWXph0.xyzGpZQqjzPPzruWyiJkz3rESs-TLbTRHYcWmsH7v8c&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744891849&amp;s=merchant-items&amp;sr=1-12&amp;xpid=tqkuqdh5H_SQg</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1277,55 +1461,70 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
+          <t>4976</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
           <t>https://www.amazon.com.br/Peliculas-Protetoras/b/ref=dp_bc_5?ie=UTF8&amp;node=16244091011</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>WayTechBr</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>17/04/2025</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Capa Protetora Cristal Bumper Transparente com Lateral Moto G7, Motorola, 4882.0, Preta</t>
+          <t>Capa Protetora Cristal Case Transparente Moto E5, Motorola, Capa com Proteção Completa (Carcaça+Tela), Transparente</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>R$45,40</t>
+          <t>R$14,90</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Protetora-Cristal-Transparente-Motorola-4882-0/dp/B07NDB5ZD9/ref=sr_1_13?dib=eyJ2IjoiMSJ9.an_1cY7E3LZNeVFRP4TQy4D6XkRe91SyzHh0aA3HqqAYh13TYtkf28luLUpqKdKYxdilEX4ZBI9cODJTEig0luYmtM4qnUstiXEQ2BqvBB1prwSJR7EozqV2Qy3YjTzFGj2xXOvznxaPCE_j3Fhst02QylxaUedF9OxRXxxUodm9igkYUVrFiq9hAyn5E-ktKeySD2f35RRaclvvMPpHz8PzuDy1Ck93AKfgPxw5WC4.FrqZ0joENNmRduDYE7-tNuS5qWPM63m8VQtvS0UiF_U&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744748303&amp;s=merchant-items&amp;sr=1-13&amp;ufe=app_do%3Aamzn1.fos.6d798eae-cadf-45de-946a-f477d47705b9&amp;xpid=tqkuqdh5H_SQg</t>
+          <t>https://www.amazon.com.br/Protetora-Transparente-Motorola-Prote%C3%A7%C3%A3o-Completa/dp/B07F7JXDVY/ref=sr_1_13?dib=eyJ2IjoiMSJ9.an_1cY7E3LZNeVFRP4TQyz7_H4IYPNFkgGxEwby91AkKywokTOlb8c8SKWTmidMQySxXYjgIW_zxf9-tjXk7MPMZVY30GMRz8mmI4G4KkkrrgzByzMWpF5NtUA4A1GbvGj2xXOvznxaPCE_j3Fhst02QylxaUedF9OxRXxxUodmWq1v7F0_mvfeKst6WIkqLQAt0furxmrQjl4I1KCGhVsmIlF2fwcRAlVDBdXWXph0.xyzGpZQqjzPPzruWyiJkz3rESs-TLbTRHYcWmsH7v8c&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744891849&amp;s=merchant-items&amp;sr=1-13&amp;xpid=tqkuqdh5H_SQg</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Protege seu smartphone na parte traseira e laterais, com abertura para acessórios como carregadores e fones. Para o uso de outros acessórios não precisa retirar a capa. Evite riscos e impactos que podem danificar seu aparelho. Com acabamento refinado, dá maior aderência e segurança quando o aparelho está em suas mãos.</t>
+          <t>Protege seu smartphone na parte traseira e laterais. com abertura para acessórios como carregadores e fones. Para o uso de outros acessórios não precisa retirar a capa. Evite riscos e impactos que podem danificar seu aparelho.</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5 de 5</t>
+          <t>3,2 de 5</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['Para o uso de outros acessórios não precisa retirar a capa', 'Evite riscos e impactos que podem danificar seu aparelho.', 'Com acabamento refinado, dá maior aderência e segurança quando o aparelho está em suas mãos.', 'País de Origem: CN']</t>
+          <t>['Protege seu smartphone na parte traseira e laterais. com abertura para acessórios como carregadores e fones', 'Para o uso de outros acessórios não precisa retirar a capa', 'Evite riscos e impactos que podem danificar seu aparelho', 'País de Origem: CN']</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/615aJ73lEBL._AC_SL1500_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/611KhH7BtTL._AC_SL1500_.jpg</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>638x1500</t>
+          <t>697x1433</t>
         </is>
       </c>
       <c r="K14" t="b">
@@ -1338,47 +1537,62 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
+          <t>7524</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
           <t>https://www.amazon.com.br/b/ref=dp_bc_5?ie=UTF8&amp;node=16244311011</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>WayTechBr</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>17/04/2025</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Carregador Veicular Hightech, Energizer, EZ-DCA2CUWH3I, Branca</t>
+          <t>Capa Protetora Cristal Bumper Transparente com Lateral Moto G7, Motorola, 4882.0, Preta</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>R$19,90</t>
+          <t>R$45,40</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Carregador-Veicular-Original-Energizer-Sa%C3%ADdas/dp/B0182JTL9G/ref=sr_1_14?dib=eyJ2IjoiMSJ9.an_1cY7E3LZNeVFRP4TQy4D6XkRe91SyzHh0aA3HqqAYh13TYtkf28luLUpqKdKYxdilEX4ZBI9cODJTEig0luYmtM4qnUstiXEQ2BqvBB1prwSJR7EozqV2Qy3YjTzFGj2xXOvznxaPCE_j3Fhst02QylxaUedF9OxRXxxUodm9igkYUVrFiq9hAyn5E-ktKeySD2f35RRaclvvMPpHz8PzuDy1Ck93AKfgPxw5WC4.FrqZ0joENNmRduDYE7-tNuS5qWPM63m8VQtvS0UiF_U&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744748303&amp;s=merchant-items&amp;sr=1-14&amp;xpid=tqkuqdh5H_SQg</t>
+          <t>https://www.amazon.com.br/Protetora-Cristal-Transparente-Motorola-4882-0/dp/B07NDB5ZD9/ref=sr_1_14?dib=eyJ2IjoiMSJ9.an_1cY7E3LZNeVFRP4TQyz7_H4IYPNFkgGxEwby91AkKywokTOlb8c8SKWTmidMQySxXYjgIW_zxf9-tjXk7MPMZVY30GMRz8mmI4G4KkkrrgzByzMWpF5NtUA4A1GbvGj2xXOvznxaPCE_j3Fhst02QylxaUedF9OxRXxxUodmWq1v7F0_mvfeKst6WIkqLQAt0furxmrQjl4I1KCGhVsmIlF2fwcRAlVDBdXWXph0.xyzGpZQqjzPPzruWyiJkz3rESs-TLbTRHYcWmsH7v8c&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744891849&amp;s=merchant-items&amp;sr=1-14&amp;ufe=app_do%3Aamzn1.fos.6d798eae-cadf-45de-946a-f477d47705b9&amp;xpid=tqkuqdh5H_SQg</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Carregue seus aparelhos enquanto está na rua ou na estrada. Com 3, 4 Amp potência de saída, este carregador Veicular Energizer com duas saídas USB, proporciona a carga rápida e segura de seus smartphones ou tablets.</t>
+          <t>Protege seu smartphone na parte traseira e laterais, com abertura para acessórios como carregadores e fones. Para o uso de outros acessórios não precisa retirar a capa. Evite riscos e impactos que podem danificar seu aparelho. Com acabamento refinado, dá maior aderência e segurança quando o aparelho está em suas mãos.</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4,5 de 5</t>
+          <t>5 de 5</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['Carregue dois aparelhos simultaneamente', 'Obs: Não acompanha cabo USB', 'Design elegante']</t>
+          <t>['Para o uso de outros acessórios não precisa retirar a capa', 'Evite riscos e impactos que podem danificar seu aparelho.', 'Com acabamento refinado, dá maior aderência e segurança quando o aparelho está em suas mãos.', 'País de Origem: CN']</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61t5kdNN+3L._AC_SL1500_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/615aJ73lEBL._AC_SL1500_.jpg</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -1386,7 +1600,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>1160x1248</t>
+          <t>638x1500</t>
         </is>
       </c>
       <c r="K15" t="b">
@@ -1394,60 +1608,75 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Carregadores Veiculares</t>
+          <t>Capas Laterais</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Carregadores-Veiculares/b/ref=dp_bc_5?ie=UTF8&amp;node=16244303011</t>
+          <t>22483</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/b/ref=dp_bc_5?ie=UTF8&amp;node=16244311011</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>WayTechBr</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>17/04/2025</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Capa Protetora Cristal Case Transparente Moto E5, Motorola, Capa com Proteção Completa (Carcaça+Tela), Transparente</t>
+          <t>Conj para Bar em Inox Stem 5 Pçs Prana Inox</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>R$14,90</t>
+          <t>R$199,90</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Protetora-Transparente-Motorola-Prote%C3%A7%C3%A3o-Completa/dp/B07F7JXDVY/ref=sr_1_15?dib=eyJ2IjoiMSJ9.an_1cY7E3LZNeVFRP4TQy4D6XkRe91SyzHh0aA3HqqAYh13TYtkf28luLUpqKdKYxdilEX4ZBI9cODJTEig0luYmtM4qnUstiXEQ2BqvBB1prwSJR7EozqV2Qy3YjTzFGj2xXOvznxaPCE_j3Fhst02QylxaUedF9OxRXxxUodm9igkYUVrFiq9hAyn5E-ktKeySD2f35RRaclvvMPpHz8PzuDy1Ck93AKfgPxw5WC4.FrqZ0joENNmRduDYE7-tNuS5qWPM63m8VQtvS0UiF_U&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744748303&amp;s=merchant-items&amp;sr=1-15&amp;xpid=tqkuqdh5H_SQg</t>
+          <t>https://www.amazon.com.br/CONJ-PARA-PRANA-Prana-000BS04008XXXNMS/dp/B07C1PYNZY/ref=sr_1_15?dib=eyJ2IjoiMSJ9.an_1cY7E3LZNeVFRP4TQyz7_H4IYPNFkgGxEwby91AkKywokTOlb8c8SKWTmidMQySxXYjgIW_zxf9-tjXk7MPMZVY30GMRz8mmI4G4KkkrrgzByzMWpF5NtUA4A1GbvGj2xXOvznxaPCE_j3Fhst02QylxaUedF9OxRXxxUodmWq1v7F0_mvfeKst6WIkqLQAt0furxmrQjl4I1KCGhVsmIlF2fwcRAlVDBdXWXph0.xyzGpZQqjzPPzruWyiJkz3rESs-TLbTRHYcWmsH7v8c&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744891849&amp;s=merchant-items&amp;sr=1-15&amp;ufe=app_do%3Aamzn1.fos.6121c6c4-c969-43ae-92f7-cc248fc6181d&amp;xpid=tqkuqdh5H_SQg</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Protege seu smartphone na parte traseira e laterais. com abertura para acessórios como carregadores e fones. Para o uso de outros acessórios não precisa retirar a capa. Evite riscos e impactos que podem danificar seu aparelho.</t>
+          <t>Conj. Bar stem em aço inox no modelo liso. Contém peneira, faca, dosador, pinça. Todo feito em inox polido, deixa o lugar sofisticado como decoração e muito útil no preparo de drinks e bebidas com tudo o que é preciso para um preparo rápido.</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3,2 de 5</t>
+          <t>Sem avaliação</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['Protege seu smartphone na parte traseira e laterais. com abertura para acessórios como carregadores e fones', 'Para o uso de outros acessórios não precisa retirar a capa', 'Evite riscos e impactos que podem danificar seu aparelho', 'País de Origem: CN']</t>
+          <t>['Com Design Limpo E Moderno, Trazendo Requinte E Sofisticação Para A Decoração De Seu Bar', 'Um Lindo Presente Para Homens Modernos Que Gostam De Preparar Seus Dinks Ou Receber Seus Convidados Com Elegncia', 'Em Aço Inox Polido, Prática De Limpar E Durável', 'País de Origem: CN']</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/611KhH7BtTL._AC_SL1500_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/51n-vWG4HIL._AC_SL1000_.jpg</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>697x1433</t>
+          <t>611x893</t>
         </is>
       </c>
       <c r="K16" t="b">
@@ -1455,60 +1684,75 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Capas Laterais</t>
+          <t>Kits para Bar</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/b/ref=dp_bc_5?ie=UTF8&amp;node=16244311011</t>
+          <t>532</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/b/ref=dp_bc_4?ie=UTF8&amp;node=17125148011</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>WayTechBr</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>17/04/2025</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Conj para Bar em Inox Stem 5 Pçs Prana Inox</t>
+          <t>Carregador Veicular Hightech, Energizer, EZ-DCA2CUWH3I, Branca</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>R$199,90</t>
+          <t>R$19,90</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/CONJ-PARA-PRANA-Prana-000BS04008XXXNMS/dp/B07C1PYNZY/ref=sr_1_16?dib=eyJ2IjoiMSJ9.an_1cY7E3LZNeVFRP4TQy4D6XkRe91SyzHh0aA3HqqAYh13TYtkf28luLUpqKdKYxdilEX4ZBI9cODJTEig0luYmtM4qnUstiXEQ2BqvBB1prwSJR7EozqV2Qy3YjTzFGj2xXOvznxaPCE_j3Fhst02QylxaUedF9OxRXxxUodm9igkYUVrFiq9hAyn5E-ktKeySD2f35RRaclvvMPpHz8PzuDy1Ck93AKfgPxw5WC4.FrqZ0joENNmRduDYE7-tNuS5qWPM63m8VQtvS0UiF_U&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744748303&amp;s=merchant-items&amp;sr=1-16&amp;ufe=app_do%3Aamzn1.fos.6121c6c4-c969-43ae-92f7-cc248fc6181d&amp;xpid=tqkuqdh5H_SQg</t>
+          <t>https://www.amazon.com.br/Carregador-Veicular-Original-Energizer-Sa%C3%ADdas/dp/B0182JTL9G/ref=sr_1_16?dib=eyJ2IjoiMSJ9.an_1cY7E3LZNeVFRP4TQyz7_H4IYPNFkgGxEwby91AkKywokTOlb8c8SKWTmidMQySxXYjgIW_zxf9-tjXk7MPMZVY30GMRz8mmI4G4KkkrrgzByzMWpF5NtUA4A1GbvGj2xXOvznxaPCE_j3Fhst02QylxaUedF9OxRXxxUodmWq1v7F0_mvfeKst6WIkqLQAt0furxmrQjl4I1KCGhVsmIlF2fwcRAlVDBdXWXph0.xyzGpZQqjzPPzruWyiJkz3rESs-TLbTRHYcWmsH7v8c&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744891849&amp;s=merchant-items&amp;sr=1-16&amp;xpid=tqkuqdh5H_SQg</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Conj. Bar stem em aço inox no modelo liso. Contém peneira, faca, dosador, pinça. Todo feito em inox polido, deixa o lugar sofisticado como decoração e muito útil no preparo de drinks e bebidas com tudo o que é preciso para um preparo rápido.</t>
+          <t>Carregue seus aparelhos enquanto está na rua ou na estrada. Com 3, 4 Amp potência de saída, este carregador Veicular Energizer com duas saídas USB, proporciona a carga rápida e segura de seus smartphones ou tablets.</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Sem avaliação</t>
+          <t>4,5 de 5</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['Com Design Limpo E Moderno, Trazendo Requinte E Sofisticação Para A Decoração De Seu Bar', 'Um Lindo Presente Para Homens Modernos Que Gostam De Preparar Seus Dinks Ou Receber Seus Convidados Com Elegncia', 'Em Aço Inox Polido, Prática De Limpar E Durável', 'País de Origem: CN']</t>
+          <t>['Carregue dois aparelhos simultaneamente', 'Obs: Não acompanha cabo USB', 'Design elegante']</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51n-vWG4HIL._AC_SL1000_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61t5kdNN+3L._AC_SL1500_.jpg</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>611x893</t>
+          <t>1160x1248</t>
         </is>
       </c>
       <c r="K17" t="b">
@@ -1516,12 +1760,27 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Kits para Bar</t>
+          <t>Carregadores Veiculares</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/b/ref=dp_bc_4?ie=UTF8&amp;node=17125148011</t>
+          <t>Indisponível</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Carregadores-Veiculares/b/ref=dp_bc_5?ie=UTF8&amp;node=16244303011</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>WayTechBr</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>17/04/2025</t>
         </is>
       </c>
     </row>
@@ -1538,7 +1797,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Moldura-Dobravel-Plastica-Crismop-Inox/dp/B07GFW29QF/ref=sr_1_17?dib=eyJ2IjoiMSJ9.nJUGtznzO1_mp8QWZsUFXw.U2CihjVDI-ycq8hPBej8kXlvKnB5OP9svp036lzUguc&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744748834&amp;s=merchant-items&amp;sr=1-17&amp;xpid=tqkuqdh5H_SQg</t>
+          <t>https://www.amazon.com.br/Moldura-Dobravel-Plastica-Crismop-Inox/dp/B07GFW29QF/ref=sr_1_17?dib=eyJ2IjoiMSJ9.nJUGtznzO1_mp8QWZsUFXw.HAGC4Jy5KfIrmQLSJRa2tFfbjVfXS14L05fwjak5YJg&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744892216&amp;s=merchant-items&amp;sr=1-17&amp;xpid=tqkuqdh5H_SQg</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1582,7 +1841,22 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
+          <t>2719</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
           <t>https://www.amazon.com.br/b/ref=dp_bc_5?ie=UTF8&amp;node=17100787011</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>WayTechBr</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>17/04/2025</t>
         </is>
       </c>
     </row>

--- a/arquivo_convertido.xlsx
+++ b/arquivo_convertido.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:P54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,159 +518,124 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Hub Usb 2.0 3 Portas + Leitor De Cartao Memoria SD Total 7portas</t>
+          <t>Fone de ouvido sem fio TWS Philips TAT1209BK/00 na cor preto, com bluetooth, microfone, tecnologia IPX4 e 18 horas de reprodução.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R$20,99</t>
+          <t>R$124,00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Portas-Leitor-Cartao-Memoria-7portas/dp/B0DGGW72LL/ref=sr_1_1?dib=eyJ2IjoiMSJ9.an_1cY7E3LZNeVFRP4TQyz7_H4IYPNFkgGxEwby91AkKywokTOlb8c8SKWTmidMQySxXYjgIW_zxf9-tjXk7MPMZVY30GMRz8mmI4G4KkkrrgzByzMWpF5NtUA4A1GbvGj2xXOvznxaPCE_j3Fhst02QylxaUedF9OxRXxxUodmWq1v7F0_mvfeKst6WIkqLQAt0furxmrQjl4I1KCGhVsmIlF2fwcRAlVDBdXWXph0.xyzGpZQqjzPPzruWyiJkz3rESs-TLbTRHYcWmsH7v8c&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744891849&amp;s=merchant-items&amp;sr=1-1&amp;xpid=tqkuqdh5H_SQg</t>
+          <t>https://www.amazon.com.br/TAT1209BK-00-bluetooth-tecnologia-reprodu%C3%A7%C3%A3o/dp/B0CS3RHBZQ/ref=sr_1_1?dib=eyJ2IjoiMSJ9.xoN_0BpgaenJjl7623eoCMMlx0L4QavI_k8wE25OYhkp-viSwD4YIS3E-EeL8vaWyMt-B3MkoVGbkPGZidwxudaY4UBq-RexZTN15oTQ0PnF4glscPQ11k-d74tjCVh0zaJJBGoPU1gm6D8tHU3PTJWDkSmDA2JJXuJ03dbmu9irjGai9nUHxe2FQUJFL9Hv2nDkZfeOPPwbiphHYRDMfSt9nlea9uCVRuIv_VZEEgA.eVaGf-ZtdkRl2NEFC114mGKwG1o0t9BpoYPaoWnpP-M&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745346178&amp;s=merchant-items&amp;sr=1-1&amp;ufe=app_do%3Aamzn1.fos.6d798eae-cadf-45de-946a-f477d47705b9&amp;xpid=m2HGw1-372EnG</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Características
-- HUB + Leitor de cartão universal
-- Portátil e fácil de carregar
-- Alta velocidade de transmissão
-- Plug &amp; Play
-Informações Técnicas
-- HUB com 3 portas USB 2.0
-- Transmissão de até 480Mb/s
-- Compatível com: Windows 98SE, 2000, XP, Vista, 7, MAC OS X 9.0, Windows 10 e ultima versão Linux 2,4
-- Suporta mais de 40 tipos de cartão Dentre Eles M2 / MS / MS PRO DUO / SD / MMC / Micro SD.
-Especificações Técnicas:
-- Altura (cm): 2
-- Comprimento (cm): 4.5
-- Largura (cm): 1.3
-- Ruído: 0
-Especificações:
-- HUB leitor de cartão universal
-- 3 portas USB 2.0, para conexão de pendrives ou cabos
-- Alta velocidade de transmissão: até 480MB/s
-- Portátil e fácil de carregar
-- Plugue &amp; Play: basta conectar e usar, não é preciso instalar nenhum driver
-- Luz LED indicadora do estado
-- Compatível com Windows 7, Vista, XP, 2000, 98SE, MAC OS X 9.0 e Linux 2.4 (última versão)
-- Suporta mais de 40 tipos de cartões
-- Dimensões aprox. do produto: 3,1 x 7,5 x 7,5cm
-Cartões Suportados:
-- Micro SD/MS/MS-MG/ MS-Pro-MG/HS-MS-Pro-MG/MS Duo 32MB/MS Duo-MG/MS Pro-Duo-MG/HS-MS Pro-Duo-MG
-- MS Pro-Duo-PSP/ MS Pro Duo-Gaming/SD/SD-ultra/SD-Compatible/SD-Pro/SD-ultra 11/SD-ultra 11 plus/SD-Pleomax
-- SD-Pro Compatible/ SD-Extreme 111/SD-Ultra X/SD-Tutbo/SD-Super/SD-Max/Mini SD/Mini SD Pro/Mini SD-Pleomax
-- MMC 1 GB/MMC-Pleomax/High Speed/ MMC/MMC-Plus(8 bit)/MMC-Plus Turbo/RS MMC/RS MMC-Pleomax
-- RS MMC-Speed/RS MMC-Max/MMC Pro/MMC Mobile/MMC/ Mobile-Pro</t>
+          <t>Fone de ouvido sem fio TWS bluetooth com microfone, IPX4 e energia para 18 horas totais na cor preto TAT1209BK/00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5 de 5</t>
+          <t>4,6 de 5</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>2007</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['Portatil e fácil de carregar', 'Alta velocidade de transmissão', 'Compatibilidade']</t>
+          <t>['o Tecnologia IPX4: Com classificação IPX4, os fones são resistentes a respingos, perfeito para um treino ao ar livre.', 'o 18 horas de muita reprodução: A bateria recarregável oferece até 6 horas de reprodução dos seus sons favoritos. As 12 horas adicionais, com o estojo de carregamento, mantém o fone pronto para ser usado o dia todo.', 'o Estojo de carregamento de bolso: O estojo de carregamento cabe facilmente no bolso, para que você possa manter seus fones de ouvido protegidos e carregando enquanto não estiver usando. Caso comece a ficar sem energia, uma carga rápida de 15 minutos manterá a música tocando por mais 1 hora!', 'o Liberdade sem fio. Som poderoso: A tecnologia Bluetooth oferece total mobilidade para você curtir músicas e vídeos, totalmente livre de fios, sem interrupções.', 'o Muito mais controle com um toque: Tenha mais liberdade e praticidade para controlar músicas e chamadas mesmo em movimento, com um simples toque.', 'o Chamadas mais cristalinas: O microfone embutido capta o som da sua voz, enquanto um algoritmo reduz o ruído externo, deixando a chamada muito mais nítida e os áudios sem qualquer interferência do ambiente que você estiver..', 'o Drivers de alto-falante de 10mm: Alcance seus objetivos com as músicas da sua playlist de treino. Com os drivers de 10mm, você aproveita um som de alta qualidade.']</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/31g-tls+1xL._AC_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/51yHf2TFfUL._AC_SL1000_.jpg</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>752x990</t>
+        </is>
+      </c>
       <c r="K2" t="b">
         <v>0</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Hubs USB</t>
+          <t>Fones de Ouvido</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>863</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Hubs-USB/b/ref=dp_bc_3?ie=UTF8&amp;node=23884302011</t>
+          <t>https://www.amazon.com.br/Fones-Ouvido/b/ref=dp_bc_3?ie=UTF8&amp;node=16244120011</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>WayTechBr</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>17/04/2025</t>
+          <t>22/04/2025</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Bermuda Masculina Térmica De Compressão Lupo I-Max</t>
+          <t>Nintendo, Console + Jogo, Switch OLED Branco, Jogo Digital Mario Kart 8 Deluxe, 3 Meses de Assinatura Nintendo Switch Online</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R$120,30</t>
+          <t>R$2.225,00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Bermuda-Masculina-T%C3%A9rmica-Compress%C3%A3o-I-Max/dp/B0DGQTCMC5/ref=sr_1_2?dib=eyJ2IjoiMSJ9.an_1cY7E3LZNeVFRP4TQyz7_H4IYPNFkgGxEwby91AkKywokTOlb8c8SKWTmidMQySxXYjgIW_zxf9-tjXk7MPMZVY30GMRz8mmI4G4KkkrrgzByzMWpF5NtUA4A1GbvGj2xXOvznxaPCE_j3Fhst02QylxaUedF9OxRXxxUodmWq1v7F0_mvfeKst6WIkqLQAt0furxmrQjl4I1KCGhVsmIlF2fwcRAlVDBdXWXph0.xyzGpZQqjzPPzruWyiJkz3rESs-TLbTRHYcWmsH7v8c&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744891849&amp;s=merchant-items&amp;sr=1-2&amp;ufe=app_do%3Aamzn1.fos.a492fd4a-f54d-4e8d-8c31-35e0a04ce61e&amp;xpid=tqkuqdh5H_SQg</t>
+          <t>https://www.amazon.com.br/Bundle-Nintendo-Switch-Assinatura-Online/dp/B0D9WTRLTB/ref=sr_1_2?dib=eyJ2IjoiMSJ9.xoN_0BpgaenJjl7623eoCMMlx0L4QavI_k8wE25OYhkp-viSwD4YIS3E-EeL8vaWyMt-B3MkoVGbkPGZidwxudaY4UBq-RexZTN15oTQ0PnF4glscPQ11k-d74tjCVh0zaJJBGoPU1gm6D8tHU3PTJWDkSmDA2JJXuJ03dbmu9irjGai9nUHxe2FQUJFL9Hv2nDkZfeOPPwbiphHYRDMfSt9nlea9uCVRuIv_VZEEgA.eVaGf-ZtdkRl2NEFC114mGKwG1o0t9BpoYPaoWnpP-M&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745346178&amp;s=merchant-items&amp;sr=1-2&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147&amp;xpid=m2HGw1-372EnG</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A Bermuda Lupo AM Térmica I-Max em azul marinho é a escolha ideal para quem busca alto desempenho e conforto durante treinos intensos e atividades físicas. Feita com a tecnologia I-Max, ela oferece uma excelente compressão, proporcionando suporte muscular que melhora a performance e reduz a fadiga. Seu tecido térmico mantém a temperatura corporal estável, garantindo conforto em climas frios ou quentes.
-Características:
-Tecnologia I-Max: compressão que auxilia na circulação sanguínea e aumenta a resistência durante o exercício.
-Tecido térmico: mantém o corpo na temperatura ideal em qualquer condição climática.
-Elasticidade: ajuste perfeito ao corpo, permitindo total liberdade de movimento.
-Design anatômico: molda-se ao corpo com um caimento perfeito, valorizando a silhueta.
-Cor azul marinho: sofisticada e fácil de combinar com outras peças esportivas.
-Costuras flat: evitam atrito e irritações na pele, garantindo máximo conforto durante o uso prolongado.
-Respirabilidade: tecido que facilita a ventilação e evita o acúmulo de suor.
-Essa bermuda é a opção certa para quem procura qualidade, desempenho e estilo em uma única peça. Seja para correr, malhar ou praticar esportes ao ar livre, a Bermuda Lupo AM Térmica I-Max é a sua companheira ideal.</t>
+          <t>Explore o mundo de Mario e amigos com este pacote incrível! O Nintendo Switch OLED Branco vem com controles Joy-Con e uma tela OLED de 7 polegadas para uma experiência de jogo vibrante, tanto em casa quanto em movimento. Este bundle inclui também o jogo digital Mario Kart 8 Deluxe, que traz 48 pistas do Reino Cogumelo e 42 personagens para corridas emocionantes e competitivas. Além disso, você receberá uma assinatura de 3 meses do Nintendo Switch Online, permitindo que jogue online com até 12 pessoas, acesse uma vasta biblioteca de jogos clássicos e aproveite ofertas exclusivas. Com armazenamento interno de 64 GB, áudio aprimorado e uma base com porta LAN, você está pronto para uma experiência de jogo imersiva e divertida. Não perca a chance de mergulhar em uma das melhores experiências de jogo que a Nintendo oferece!</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Sem avaliação</t>
+          <t>4,8 de 5</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>279</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['Elasticidade', 'Design anatômico', 'Respirabilidade', 'Tecido térmico']</t>
+          <t>['TELA OLED BRILHANTE PARA JOGOS IMPERDÍVEIS. Inclui o Nintendo Switch OLED branco com controles Joy-Con. Aproveite a tela OLED de 7 polegadas para cores vibrantes e uma experiência imersiva, seja no modo portátil ou conectado à TV.', 'MARIO KART 8 DELUXE DIGITAL INCLUÍDO. Ganhe o jogo digital Mario Kart 8 Deluxe e corra em 48 pistas emocionantes com 42 personagens. Desfrute de modos multijogador local, sem fio e online para competições rápidas e cheias de diversão.', '3 MESES DE NINTENDO SWITCH ONLINE GRÁTIS. Aproveite uma assinatura de 3 meses do Nintendo Switch Online e jogue com até 12 amigos online. Acesso a uma vasta biblioteca de jogos clássicos, ofertas exclusivas e muito mais.', 'ARMAZENAMENTO AMPLO E BASE COM LAN. O Nintendo Switch OLED oferece 64 GB de armazenamento interno para seus jogos e dados. A base com porta LAN integrada (cabo LAN vendido separadamente) proporciona uma conexão de internet estável.', 'MULTIJOGADOR LOCAL E ONLINE EM GRANDE ESTILO. No Mario Kart 8 Deluxe, até 4 jogadores podem competir localmente, 2 a 8 jogadores se conectam sem fio e até 12 jogam online. Desafie amigos e familiares em corridas emocionantes e cheias de adrenalina.']</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51Gb00LBw2L._AC_SL1200_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/714JQD0Av9L._AC_SL1500_.jpg</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>828x1013</t>
+          <t>1041x1346</t>
         </is>
       </c>
       <c r="K3" t="b">
@@ -678,7 +643,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Shorts e Bermudas</t>
+          <t>Consoles</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -688,65 +653,65 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/b/ref=dp_bc_5?ie=UTF8&amp;node=17682478011</t>
+          <t>https://www.amazon.com.br/b/ref=dp_bc_3?ie=UTF8&amp;node=16253310011</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>WayTechBr</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>17/04/2025</t>
+          <t>22/04/2025</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Capa Protetora Defender Preta Para Galaxy Tab III 7 Otterbox (Preto)</t>
+          <t>Processador AMD Ryzen 7 9800X3D (AM5/ 8 Cores/ 16 Threads/ 5.2 GHz/ 104Mb Cache/Radeon Graphics/Sem cooler)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R$28,89</t>
+          <t>R$3.599,00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Protetora-Defender-Preta-Galaxy-Otterbox/dp/B07QYV9KGQ/ref=sr_1_3?dib=eyJ2IjoiMSJ9.an_1cY7E3LZNeVFRP4TQyz7_H4IYPNFkgGxEwby91AkKywokTOlb8c8SKWTmidMQySxXYjgIW_zxf9-tjXk7MPMZVY30GMRz8mmI4G4KkkrrgzByzMWpF5NtUA4A1GbvGj2xXOvznxaPCE_j3Fhst02QylxaUedF9OxRXxxUodmWq1v7F0_mvfeKst6WIkqLQAt0furxmrQjl4I1KCGhVsmIlF2fwcRAlVDBdXWXph0.xyzGpZQqjzPPzruWyiJkz3rESs-TLbTRHYcWmsH7v8c&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744891849&amp;s=merchant-items&amp;sr=1-3&amp;xpid=tqkuqdh5H_SQg</t>
+          <t>https://www.amazon.com.br/Processador-AMD-Ryzen-9800X3D-Graphics/dp/B0DKFMSMYK/ref=sr_1_3?dib=eyJ2IjoiMSJ9.xoN_0BpgaenJjl7623eoCMMlx0L4QavI_k8wE25OYhkp-viSwD4YIS3E-EeL8vaWyMt-B3MkoVGbkPGZidwxudaY4UBq-RexZTN15oTQ0PnF4glscPQ11k-d74tjCVh0zaJJBGoPU1gm6D8tHU3PTJWDkSmDA2JJXuJ03dbmu9irjGai9nUHxe2FQUJFL9Hv2nDkZfeOPPwbiphHYRDMfSt9nlea9uCVRuIv_VZEEgA.eVaGf-ZtdkRl2NEFC114mGKwG1o0t9BpoYPaoWnpP-M&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745346178&amp;s=merchant-items&amp;sr=1-3&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147&amp;xpid=m2HGw1-372EnG</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Proteja seu Galaxy Tab III 7 com a Capa Protetora Defender da Otterbox, projetada para oferecer máxima segurança e funcionalidade. Esta capa é ideal para quem busca proteção robusta sem abrir mão do estilo. Características: - Proteção Superior: A tecnologia de absorção de impactos proporciona defesa contra quedas, arranhões e impactos, garantindo que seu dispositivo permaneça em perfeito estado. - Design Ergonômico: Com um encaixe seguro e confortável, a capa facilita o manuseio, permitindo que você utilize seu tablet com facilidade. - Acesso Total: A Capa Defender mantém todas as portas e botões acessíveis, permitindo o uso total das funcionalidades do seu Galaxy Tab III 7, sem a necessidade de remover a capa. - Material de Alta Qualidade: Fabricada com materiais duráveis, resistentes à abrasão e ao desgaste, garantindo longa vida útil. - Instalação Simples: A capa é fácil de instalar e remover, permitindo que você troque de acessório conforme suas necessidades. Dimensões e Peso: - Compatível com Galaxy Tab III 7. - Peso leve, ideal para transporte. Cores Disponíveis: - Preto clássico, que combina com qualquer estilo. Cuidados e Manutenção: - Limpeza com pano úmido. - Evitar contato com produtos químicos agressivos. Garanta a proteção que seu Galaxy Tab III 7 merece com a Capa Protetora Defender Preta da Otterbox. Perfeita para uso diário, viagens ou qualquer situação em que seu tablet esteja exposto a riscos.</t>
+          <t>O processador AMD Ryzen 7 9800X3D é sinônimo de poder e tecnologia de última geração. Com arquitetura AM5, possui 8 núcleos e 16 threads, oferecendo desempenho incrível em multitarefas e aplicações exigentes. A frequência máxima de 5.2 GHz e um cache impressionante de 104MB garantem rapidez e eficiência. Integrado com Radeon Graphics, entrega uma experiência visual excepcional. Sem cooler incluso, você pode personalizar o sistema de resfriamento ideal. Performance inigualável para elevar seus projetos ao próximo nível.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Sem avaliação</t>
+          <t>4,7 de 5</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1137</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['Proteção em Camadas: A capa possui três camadas de proteção, incluindo uma camada interna de policarbonato rígido que absorve impactos e uma camada externa emborrachada que oferece resistência adicional contra quedas e arranhões.', 'Design Resistente: A capa é projetada para suportar ambientes desafiadores e testes rigorosos, protegendo o dispositivo de quedas de até 2 metros', 'Acesso Total: Apesar da proteção, a capa permite fácil acesso a todos os botões, portas e funcionalidades do tablet, incluindo câmera e conector de carregamento, sem precisar remover a capa.', 'Material e Dimensões: A capa é feita de policarbonato e silicone emborrachado, leve e projetada para se ajustar perfeitamente ao Galaxy Tab III 7".']</t>
+          <t>["O processador de jogos mais rápido do mundo, construído com tecnologia AMD 'Zen5' e V-Cache 3D de próxima geração.", '8 núcleos e 16 threads, proporcionando elevação de +~ 16% de IPC e ótima eficiência de energia', 'Cache L3 de 96 MB com melhor desempenho térmico em comparação com a geração anterior e permitindo velocidades de clock mais altas, até 5,2 GHz', 'Pronto para entrega para infraestrutura comprovada de soquete AM5', 'Cooler não incluído']</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/41Vc49XdKZL._AC_SL1200_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71aHvYUgX1L._AC_SL1500_.jpg</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>498x1148</t>
+          <t>1331x1500</t>
         </is>
       </c>
       <c r="K4" t="b">
@@ -754,88 +719,84 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Capas, Bolsas e Estojos</t>
+          <t>CPUs</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Indisponível</t>
+          <t>11</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/b/ref=dp_bc_4?ie=UTF8&amp;node=16364864011</t>
+          <t>https://www.amazon.com.br/b/ref=dp_bc_3?ie=UTF8&amp;node=16364803011</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>WayTechBr</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>17/04/2025</t>
+          <t>22/04/2025</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Kit 2 Cuecas Boxer Mash Preto/Preto Listrado</t>
+          <t>Caixa de Som Boombox Plus AIWA BBS-01-B 200W Bluetooth 30H IP66 USB Preto</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R$52,90</t>
+          <t>R$1.694,00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Cuecas-Boxer-Mash-Preto-Listrado/dp/B0DGXZJ3TZ/ref=sr_1_4?dib=eyJ2IjoiMSJ9.an_1cY7E3LZNeVFRP4TQyz7_H4IYPNFkgGxEwby91AkKywokTOlb8c8SKWTmidMQySxXYjgIW_zxf9-tjXk7MPMZVY30GMRz8mmI4G4KkkrrgzByzMWpF5NtUA4A1GbvGj2xXOvznxaPCE_j3Fhst02QylxaUedF9OxRXxxUodmWq1v7F0_mvfeKst6WIkqLQAt0furxmrQjl4I1KCGhVsmIlF2fwcRAlVDBdXWXph0.xyzGpZQqjzPPzruWyiJkz3rESs-TLbTRHYcWmsH7v8c&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744891849&amp;s=merchant-items&amp;sr=1-4&amp;ufe=app_do%3Aamzn1.fos.6d798eae-cadf-45de-946a-f477d47705b9&amp;xpid=tqkuqdh5H_SQg</t>
+          <t>https://www.amazon.com.br/Caixa-Boombox-BBS-01-B-Bluetooth-Preto/dp/B0D7W6Q7L9/ref=sr_1_4?dib=eyJ2IjoiMSJ9.xoN_0BpgaenJjl7623eoCMMlx0L4QavI_k8wE25OYhkp-viSwD4YIS3E-EeL8vaWyMt-B3MkoVGbkPGZidwxudaY4UBq-RexZTN15oTQ0PnF4glscPQ11k-d74tjCVh0zaJJBGoPU1gm6D8tHU3PTJWDkSmDA2JJXuJ03dbmu9irjGai9nUHxe2FQUJFL9Hv2nDkZfeOPPwbiphHYRDMfSt9nlea9uCVRuIv_VZEEgA.eVaGf-ZtdkRl2NEFC114mGKwG1o0t9BpoYPaoWnpP-M&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745346178&amp;s=merchant-items&amp;sr=1-4&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147&amp;xpid=m2HGw1-372EnG</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Eleve o conforto do seu dia a dia com o Kit Boxer Microfibra 2 Peças da Mash, ideal para quem busca qualidade e praticidade em roupas íntimas. Este conjunto é perfeito para uso diário, proporcionando o máximo de conforto e durabilidade.
-Características principais:
-Material: Fabricado em microfibra leve e macia, que garante uma sensação suave ao toque e mantém o corpo fresco durante todo o dia.
-Modelagem anatômica: As boxers se ajustam perfeitamente ao corpo, oferecendo liberdade de movimento e suporte nas áreas essenciais.
-Cintura elástica: O cós elástico possui o logo da Mash, proporcionando um ajuste seguro sem apertar.
-Sem costura lateral: Tecnologia que evita marcas e irritações na pele, garantindo ainda mais conforto.
-Respirabilidade: A microfibra possui alta capacidade de ventilação, ideal para atividades físicas ou longas horas de uso.
-Kit com 2 peças: Ótima opção de custo-benefício, oferecendo duas boxers para uso rotativo.
-Dimensões e tamanhos:
-Disponível nos tamanhos P, M, G e GG, com excelente ajuste para diferentes tipos de corpo.
-Cuidados:
-Lavagem: Recomendado lavar à mão ou em ciclo delicado na máquina, evitando o uso de alvejantes.
-Secagem: Secar à sombra para preservar a elasticidade e durabilidade da peça.
-O Kit Boxer Microfibra 2 Peças da Mash é a escolha perfeita para quem preza por qualidade, conforto e estilo no dia a dia!</t>
+          <t>Reunir nossa família e amigos e desfrutar de uma boa música é um dos prazeres da vida, né? Curta um som potente e de alta definição com a Boombox Plus AIWA AWS-BBS-01-B! A caixa de som portátil foi projetada com sistema de som de 3 vias - 1 subwoofer, 2 midrange e 2 tweeters -, além de ter dois radiadores passivos laterais, 200W RMS de potência e o DNA japonês da marca AIWA. Com o certificado IP66, você e sua turma podem ouvir sua playlist favorita na beira da piscina ou na praia sem preocupação, já que a Boombox é resistente a jatos potentes de água e tem proteção total contra poeira. Incrível, né? Saiba mais sobre a AWS-BBS-01-B:
+SOM DE ALTA DEFINIÇÃO COM 3 VIAS: Preencha o ambiente com um som AIWA potente! Projetado com o sistema de som de 3 vias (3-Way Speaker System), a Boombox Plus AWS-BBS-01-B possui 1 subwoofer, 2 midrange e 2 tweeters, além de 3 amplificadores de áudio, um para cada canal (grave, médio e agudo), e com resposta de frequência dinâmica de 20Hz - 20KHz. O resultado? Uma experiência sonora com a pureza do DNA japonês AIWA®! Garantia de vocais claros e nitidez nos detalhes, assegurando um som perfeito e sem distorções.
+200W RMS DE POTÊNCIA: Sinta a experiência sonora impactante com os 200W RMS de potência da caixa portátil AIWA. Você será levado pela música com graves mais profundos e som potente. E, com a tecnologia Energy Saving, você mantém os 200W de potência até ouvindo música na bateria (fora da tomada).
+RADIADORES PASSIVOS: A Boombox conta com dois radiadores passivos laterais, que atuam em conjunto com os alto-falantes para aprimorar a propagação do som.
+PROTEÇÃO IP66: RESISTENTE A POEIRA + ÁGUA: Caixa de som duplamente protegida: check! Você pode fazer uma festa na beira da piscina ou curtir uma música à beira-mar, que sua boombox estará protegida! O certificado IP66 garante resistência a jatos potentes de água e resistência total contra poeira.
+ATÉ 30 HORAS DE BATERIA: Divirta-se em todos os momentos com as músicas que você ama: do treino matinal até uma noite com os amigos. Com até 30 horas* de bateria, você pode ouvir suas playlists o dia todo e ainda noite adentro, sem precisar recarregar.
+(*) 30 horas com 50% do volume. A duração real da bateria varia conforme as condições de uso.
+FUNÇÃO TWS: DUPLIQUE SUA EXPERIÊNCIA: Com a tecnologia TWS (True Wireless Sound), você sincroniza duas Boombox AWS -BBS-01 e duplica a potência sonora.
+BLUETOOTH 5.3: Faça o pareamento da caixa de som portátil com seu smartphone via Bluetooth e curta suas playlists! Com a versão 5.3, a conexão é mais rápida e estável e o consumo de bateria é menor.
+LEVE PARA QUALQUER LUGAR: Com a alça de transporte, fica fácil levar suas músicas favoritas com você para onde quiser.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Sem avaliação</t>
+          <t>4,5 de 5</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['Modelagem anatômica', 'Cintura elástica', 'Sem costura lateral', 'Respirabilidade', 'Kit com 2 peças']</t>
+          <t>['SOM DE ALTA DEFINIÇÃO COM 3 VIAS: Projetado com o sistema de som de 3 vias, a Boombox possui 1 subwoofer, 2 midrange e 2 tweeters, além de 3 amplificadores de áudio um para cada canal (grave, médio e agudo);', 'POTÊNCIA: Sinta a experiência sonora impactante com os 200W RMS de potência da caixa de som portátil AIWA;', 'RADIADORES PASSIVOS: A Boombox conta com dois radiadores passivos laterais, que atuam em conjunto com os alto-falantes para aprimorar a propagação do som;', 'PROTEÇÃO IP66: Caixa de som duplamente protegida: check! O certificado IP66 garante resistência a jatos potentes de água e resistência total contra poeira;', 'ATÉ 30 HORAS DE BATERIA: Com até 30 horas de bateria, você pode ouvir suas playlists o dia todo e ainda noite adentro, sem precisar recarregar;']</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51WYmEtPS1L._AC_SL1200_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/81EM7NWp2fL._AC_SL1500_.jpg</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>833x1137</t>
+          <t>1500x870</t>
         </is>
       </c>
       <c r="K5" t="b">
@@ -843,75 +804,75 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Cuecas Samba-Canção</t>
+          <t>Caixas de Som Portáteis Bluetooth</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Indisponível</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/b/ref=dp_bc_5?ie=UTF8&amp;node=17682497011</t>
+          <t>https://www.amazon.com.br/b/ref=dp_bc_5?ie=UTF8&amp;node=16244291011</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>WayTechBr</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>17/04/2025</t>
+          <t>22/04/2025</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Cabo Displayport 4k Blindado Macho X Macho 1,8m 1.1 E 1.2 (preto)</t>
+          <t>JBL, Par de Microfone Sem Fio, JBL PartyBox Wireless Mic - Preto</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R$31,90</t>
+          <t>R$504,00</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Cabo-Displayport-Blindado-Macho-preto/dp/B0DKPHT6SJ/ref=sr_1_5?dib=eyJ2IjoiMSJ9.an_1cY7E3LZNeVFRP4TQyz7_H4IYPNFkgGxEwby91AkKywokTOlb8c8SKWTmidMQySxXYjgIW_zxf9-tjXk7MPMZVY30GMRz8mmI4G4KkkrrgzByzMWpF5NtUA4A1GbvGj2xXOvznxaPCE_j3Fhst02QylxaUedF9OxRXxxUodmWq1v7F0_mvfeKst6WIkqLQAt0furxmrQjl4I1KCGhVsmIlF2fwcRAlVDBdXWXph0.xyzGpZQqjzPPzruWyiJkz3rESs-TLbTRHYcWmsH7v8c&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744891849&amp;s=merchant-items&amp;sr=1-5&amp;xpid=tqkuqdh5H_SQg</t>
+          <t>https://www.amazon.com.br/JBL-Par-Microfone-PartyBox-Wireless/dp/B0CY5PBPJD/ref=sr_1_5?dib=eyJ2IjoiMSJ9.xoN_0BpgaenJjl7623eoCMMlx0L4QavI_k8wE25OYhkp-viSwD4YIS3E-EeL8vaWyMt-B3MkoVGbkPGZidwxudaY4UBq-RexZTN15oTQ0PnF4glscPQ11k-d74tjCVh0zaJJBGoPU1gm6D8tHU3PTJWDkSmDA2JJXuJ03dbmu9irjGai9nUHxe2FQUJFL9Hv2nDkZfeOPPwbiphHYRDMfSt9nlea9uCVRuIv_VZEEgA.eVaGf-ZtdkRl2NEFC114mGKwG1o0t9BpoYPaoWnpP-M&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745346178&amp;s=merchant-items&amp;sr=1-5&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147&amp;xpid=m2HGw1-372EnG</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>O Cabo DisplayPort 4K Blindado de 1,8 metros oferece qualidade de transmissão superior para quem busca desempenho e durabilidade. Com conectores banhados a ouro e blindagem reforçada, ele proporciona máxima proteção contra interferências e uma conexão estável. Ideal para quem exige alta definição em resoluções de até 4K, este cabo é perfeito para conectar notebooks, tablets, TVs, monitores e projetores com suporte DisplayPort. Características do Produto: Marca: F3 Modelo: JC-DP1.8 Resolução Suportada: 480i, 576i/p, 720i/p, 1080i/p, até 2160p (4K) Conectores: 2 x DisplayPort (Macho) com conectores banhados a ouro Padrões Compatíveis: DisplayPort 1.1 e 1.2 Comprimento do Cabo: 1,8 metro Cor: Preto Com trava de segurança, garantindo uma conexão firme e confiável. Garantia do vendedor: 90 dias</t>
+          <t>PERFORMANCE VOCAL. Experimente uma voz clara e cativante com os microfones JBL PartyBox Wireless Mic, projetados com padrão de captação cardióide para um som vocal poderoso e nítido em qualquer ambiente de festa.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Sem avaliação</t>
+          <t>4,8 de 5</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>691</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['Alta Resolução: Suporta resoluções de até 4K (2160p), proporcionando imagens nítidas e detalhadas, ideal para gamers e profissionais que exigem qualidade visual superior.', 'Blindagem Reforçada: A blindagem avançada do cabo protege contra interferências eletromagnéticas, minimizando perda de sinal e garantindo uma conexão de alta qualidade.', 'Conectores Banhados a Ouro: Os conectores banhados a ouro garantem uma excelente condutividade e resistência à corrosão, assegurando uma transmissão de sinal mais estável e confiável.', 'Trava de Segurança: Equipado com uma trava de segurança, o cabo assegura uma conexão firme e confiável, evitando desconexões acidentais durante o uso.', 'Comprimento Ideal: Com 1,8 metros de comprimento, o cabo oferece flexibilidade e conveniência para conectar dispositivos em diferentes configurações sem comprometer a qualidade do sinal.']</t>
+          <t>['REDUÇÃO DE RUÍDO. Minimize sons de respiração e ruídos durante suas performances com o sistema de suporte antichoque e filtro integrado dos microfones, garantindo uma experiência vocal limpa e profissional.', 'FACILIDADE DE USO. Conecte e comece a cantar sem complicações com os microfones JBL PartyBox Wireless Mic, que são fáceis de usar, permitindo que você se concentre na diversão sem preocupações técnicas.', 'COMPATIBILIDADE UNIVERSAL. Os microfones são compatíveis com todas as caixas de som JBL PartyBox, garantindo que sua voz seja ouvida em qualquer festa.']</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51-3+Xs2w-L._AC_SL1200_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/617cuZjLqUL._AC_SL1500_.jpg</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>1200x1091</t>
+          <t>1264x1376</t>
         </is>
       </c>
       <c r="K6" t="b">
@@ -919,80 +880,75 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Cabos DisplayPort</t>
+          <t>Dinâmico</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Indisponível</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/b/ref=dp_bc_5?ie=UTF8&amp;node=16364884011</t>
+          <t>https://www.amazon.com.br/b/ref=dp_bc_3?ie=UTF8&amp;node=20972539011</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>WayTechBr</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>17/04/2025</t>
+          <t>22/04/2025</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Biquíni Aviação Estampado Sem Bojo Conforto e Estilo</t>
+          <t>Controle sem fio DualSense Edge™</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R$44,99</t>
+          <t>R$1.319,00</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Biqu%C3%ADni-Avia%C3%A7%C3%A3o-Estampado-Conforto-Estilo/dp/B0DKQY7HWC/ref=sr_1_6?dib=eyJ2IjoiMSJ9.an_1cY7E3LZNeVFRP4TQyz7_H4IYPNFkgGxEwby91AkKywokTOlb8c8SKWTmidMQySxXYjgIW_zxf9-tjXk7MPMZVY30GMRz8mmI4G4KkkrrgzByzMWpF5NtUA4A1GbvGj2xXOvznxaPCE_j3Fhst02QylxaUedF9OxRXxxUodmWq1v7F0_mvfeKst6WIkqLQAt0furxmrQjl4I1KCGhVsmIlF2fwcRAlVDBdXWXph0.xyzGpZQqjzPPzruWyiJkz3rESs-TLbTRHYcWmsH7v8c&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744891849&amp;s=merchant-items&amp;sr=1-6&amp;ufe=app_do%3Aamzn1.fos.6d798eae-cadf-45de-946a-f477d47705b9&amp;xpid=tqkuqdh5H_SQg</t>
+          <t>https://www.amazon.com.br/Controle-sem-fio-DualSense-EdgeTM/dp/B0BMB8R1K6/ref=sr_1_6?dib=eyJ2IjoiMSJ9.xoN_0BpgaenJjl7623eoCMMlx0L4QavI_k8wE25OYhkp-viSwD4YIS3E-EeL8vaWyMt-B3MkoVGbkPGZidwxudaY4UBq-RexZTN15oTQ0PnF4glscPQ11k-d74tjCVh0zaJJBGoPU1gm6D8tHU3PTJWDkSmDA2JJXuJ03dbmu9irjGai9nUHxe2FQUJFL9Hv2nDkZfeOPPwbiphHYRDMfSt9nlea9uCVRuIv_VZEEgA.eVaGf-ZtdkRl2NEFC114mGKwG1o0t9BpoYPaoWnpP-M&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745346178&amp;s=merchant-items&amp;sr=1-6&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147&amp;xpid=m2HGw1-372EnG</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Transforme seu Verão com o Biquíni Aviação com Estampa Pimenta
-Prepare-se para brilhar neste verão com o Biquíni Aviação com Estampa Pimenta. Com um design vibrante e ousado, este biquíni é perfeito para quem deseja se destacar à beira da piscina ou na praia. A estampa de pimenta traz um toque de personalidade e modernidade, tornando cada momento ainda mais especial.
-Estampa Exclusiva: A estampa de pimenta não só adiciona um charme único e vibrante ao seu visual, mas também reflete seu estilo arrojado e confiante.
-Conforto Sem Bojo: A ausência de bojo garante um ajuste leve e confortável, ideal para dias ensolarados de diversão e relaxamento. Você pode se mover livremente, sem abrir mão da elegância.
-Design Estiloso: Com um corte que valoriza as curvas, este biquíni é ideal para quem busca um look ousado e contemporâneo. Combine-o com seus acessórios favoritos e esteja pronta para arrasar!
-Transforme suas experiências de verão em momentos inesquecíveis com o Biquíni Aviação. Sinta-se confiante, estilosa e confortável em qualquer ocasião!</t>
+          <t>- Controle sem fio DualSense Edge | Aprimore Seu Jogo - Tenha vantagem no jogo ao criar controles personalizados que se adaptam ao seu estilo de jogo. - Desenvolvido com base no alto desempenho e na personalização, o controle sem fio DualSense Edge™ convida você a criar a sua própria experiência para jogar do seu jeito. - Controles ultrapersonalizáveis: As capas para controle analógico, os botões de comandos e as configurações altamente personalizáveis tornam seu controle sem fio DualSense Edge™ exclusivamente seu. - Afine sua mira ajustando a sensibilidade do controle analógico e as áreas neutras, configure a profundidade dos gatilhos para comandos mais rápidos e alterne rapidamente entre os perfis para a melhor experiência em todos os seus jogos. - Botões traseiros personalizáveis: Os botões traseiros podem ser configurados para qualquer outro comando de botão, garantindo que você tenha sempre ações importantes e controles essenciais ao seu alcance. E com dois estilos diferentes de botão, você pode escolher o mais adequado para o jogo do momento. - Recursos integrados do controle sem fio DualSense™: Aproveite todos os recursos imersivos e o conforto exclusivo do nosso controle sem fio DualSense™. Sinta a força e tensão variadas na ponta dos dedos com os gatilhos adaptáveis e sinta suas ações e ambiente no jogo simulados por meio da resposta tátil. - Módulo e capas para controle analógico substituíveis: Mire e se mova com precisão ao trocar o módulo do controle analógico* por um novo para a máxima jogabilidade. Além disso, três tipos de capas para controle analógico personalizáveis oferecem mais conforto no jogo sem sacrificar a aderência ou a estabilidade. - Botões traseiros personalizáveis: Os dois conjuntos de botões traseiros substituíveis podem ser configurados para qualquer outro comando de botão, garantindo que você tenha sempre ações importantes e controles essenciais ao seu alcance. - Profundidade de gatilho ajustável: Configure manualmente a profundidade dos seus gatilhos esquerdo e direito para ter a melhor experiência em todos os seus jogos. Um FPS rápido? Configure uma profundidade menor para atirar mais rápido. Corrida competitiva? Configure uma profundidade maior para ter um controle preciso do acelerador na pista. - Botões reconfiguráveis: Reconfigure ou até mesmo desative comandos de botões específicos para criar um perfil de controle totalmente personalizado, ideal para o jogo que você estiver jogando. Sensibilidade do controle analógico, áreas neutras do controle e intensidade da vibração ajustáveis Configure a sensibilidade do controle analógico e as áreas neutras do controle e dos gatilhos para garantir comandos otimizados. Defina até mesmo a intensidade da vibração para ter uma experiência de jogo totalmente personalizada. -Troca rápida de perfis de controle: Depois de definir suas configurações ideais de controle, você pode salvá-las em perfis exclusivos e alternar entre eles rapidamente, ficando preparado para qualquer situação de jogo. - Interface de usuário no controle: Alterne rapidamente entre seus perfis de controle predefinidos e ajuste o volume do jogo e do chat**, tudo a partir do botão de função dedicado do controle sem fio DualSense Edge™, permitindo que você ajuste facilmente sua configuração enquanto mantém o foco na ação do jogo. Ao usar o botão Fn, você tem acesso instantâneo ao menu de configurações do controle para configurar e testar com facilidade novos estilos de controle. - Recursos integrados do controle sem fio DualSense™: Aproveite todos os recursos imersivos e o conforto exclusivo do controle sem fio DualSense™, incluindo resposta tátil, gatilhos adaptáveis**, microfone embutido, controles de movimento e muito mais em títulos compatíveis. - Conforto exclusivo e empunhadura interna antiderrapante: Desfrute do mesmo conforto exclusivo do controle sem fio DualSense™ original, agora aprimorado com empunhadura interna antiderrapante. É ideal para longas sessões de jogos para um jogador e para oferecer maior conforto durante jogos competitivos intensos. - Módulo do controle analógico substituível: Jogue por mais tempo com o módulo do controle substituível, disponível para compra separadamente. - Pronto para jogos intensos: Jogue com uma conexão confiável usando o cabo USB trançado Type-C® incluso, com um compartimento de conector que trava seu USB no lugar, diminuindo as chances de o cabo escapar em um momento crucial. - Desenvolvido com a contribuição de desenvolvedores e de jogadores profissionais: Criado em conjunto com jogadores profissionais e desenvolvedores de jogos, o controle sem fio DualSense Edge™ aproveitou insights poderosos para oferecer novas opções táticas e aprimoramentos para seus jogos favoritos. - Estojo para transporte: Mantenha seu controle sem fio DualSense Edge™ e seus componentes bem organizados no estojo incluso. Você pode até carregar o controle com a conexão USB enquanto estiver armazenado no estojo, garantindo que ele esteja sempre a postos para sua próxima sessão de jogo.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Sem avaliação</t>
+          <t>4,7 de 5</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1440</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['Detalhes da estampa de pimenta e seu charme único', 'Conforto durante atividades', 'Valoriza as curvas e complementa o visual', 'Design Vibrante e Ousado']</t>
+          <t>['Controle sem fio DualSense Edge | Aprimore Seu Jogo - Desenvolvido com a contribuição de desenvolvedores e de jogadores profissionais Criado em conjunto com jogadores profissionais e desenvolvedores de jogos, o controle sem fio DualSense Edge aproveitou insights poderosos para oferecer novas opções táticas e aprimoramentos para seus jogos favoritos.', 'Controle sem fio DualSense Edge - Cabo USB trançado - Capas para controle analógico Tipo padrão (anexadas) - 2 capas para controle analógico Tipo arredondada alta - 2 capas para controle analógico Tipo arredondada baixa - 2 botões traseiros – Tipo alavanca - 2 botões traseiros – Tipo meio arredondado - Compartimento do conector - Estojo para transporte - Manual de instruções']</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61jwBveWy3L._AC_SL1200_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/51juZsrpdLL._AC_SL1000_.jpg</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>797x1034</t>
+          <t>892x648</t>
         </is>
       </c>
       <c r="K7" t="b">
@@ -1000,7 +956,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Conjuntos</t>
+          <t>Controles</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1010,65 +966,65 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/b/ref=dp_bc_6?ie=UTF8&amp;node=17682696011</t>
+          <t>https://www.amazon.com.br/b/ref=dp_bc_4?ie=UTF8&amp;node=20971502011</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>WayTechBr</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>17/04/2025</t>
+          <t>22/04/2025</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Carregador Viagem USB-A Preto 15W Sem Cabo (Preto)</t>
+          <t>Kit de Garrafas de Tinta Original Epson EcoTank T544 - Magenta, Amarelo, Ciano, Preto</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>R$39,99</t>
+          <t>R$175,90</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Carregador-Viagem-USB-Preto-Cabo/dp/B0DKPHB587/ref=sr_1_7?dib=eyJ2IjoiMSJ9.an_1cY7E3LZNeVFRP4TQyz7_H4IYPNFkgGxEwby91AkKywokTOlb8c8SKWTmidMQySxXYjgIW_zxf9-tjXk7MPMZVY30GMRz8mmI4G4KkkrrgzByzMWpF5NtUA4A1GbvGj2xXOvznxaPCE_j3Fhst02QylxaUedF9OxRXxxUodmWq1v7F0_mvfeKst6WIkqLQAt0furxmrQjl4I1KCGhVsmIlF2fwcRAlVDBdXWXph0.xyzGpZQqjzPPzruWyiJkz3rESs-TLbTRHYcWmsH7v8c&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744891849&amp;s=merchant-items&amp;sr=1-7&amp;xpid=tqkuqdh5H_SQg</t>
+          <t>https://www.amazon.com.br/Garrafas-Tinta-Original-Epson-EcoTank/dp/B09JKXGSLG/ref=sr_1_7?dib=eyJ2IjoiMSJ9.xoN_0BpgaenJjl7623eoCMMlx0L4QavI_k8wE25OYhkp-viSwD4YIS3E-EeL8vaWyMt-B3MkoVGbkPGZidwxudaY4UBq-RexZTN15oTQ0PnF4glscPQ11k-d74tjCVh0zaJJBGoPU1gm6D8tHU3PTJWDkSmDA2JJXuJ03dbmu9irjGai9nUHxe2FQUJFL9Hv2nDkZfeOPPwbiphHYRDMfSt9nlea9uCVRuIv_VZEEgA.eVaGf-ZtdkRl2NEFC114mGKwG1o0t9BpoYPaoWnpP-M&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745346178&amp;s=merchant-items&amp;sr=1-7&amp;ufe=app_do%3Aamzn1.fos.6121c6c4-c969-43ae-92f7-cc248fc6181d&amp;xpid=m2HGw1-372EnG</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Carregue seus dispositivos com rapidez e segurança onde quer que esteja com o Carregador Viagem USB-A Preto 15W. Ideal para quem está sempre em movimento, este carregador oferece potência e eficiência em um design compacto e fácil de transportar. Potência de 15W: Com uma saída de 15 watts, este carregador garante um carregamento rápido e eficiente para smartphones, tablets, fones de ouvido, e outros dispositivos USB-A, permitindo que você recupere energia de forma ágil, sem perder tempo. Design compacto e leve: Projetado para ser discreto e fácil de levar em bolsas, mochilas ou malas de viagem, ele é perfeito para acompanhar o seu ritmo, seja em viagens a trabalho ou lazer. USB-A universal: A porta USB-A oferece compatibilidade com uma ampla gama de cabos e dispositivos, garantindo flexibilidade para carregar praticamente qualquer gadget, desde que você tenha o cabo adequado. Sem cabo incluído: Este modelo não vem com cabo, oferecendo a liberdade de utilizar o cabo de sua escolha, seja para Android, iPhone ou outros dispositivos com diferentes entradas. Proteção integrada: Equipado com recursos de proteção contra superaquecimento, sobrecarga e curtos-circuitos, este carregador garante segurança durante o uso, protegendo seus dispositivos e você. Compatível com tensão global: Ideal para viajantes, o carregador pode ser utilizado em diferentes partes do mundo, adaptando-se a tensões de 100-240V, basta ter o adaptador de tomada correto. Dimensões: Compacto, fácil de guardar e transportar, pesando aproximadamente 50g. Leve com você o Carregador Viagem USB-A Preto 15W e garanta energia confiável para seus dispositivos em qualquer lugar Garantia do vendedor: 90 dias</t>
+          <t>As tintas originais Epson são projetadas para trabalhar em perfeita sintonia com nossas impressoras, gerando impressões de alta qualidade. O kit de tintas originais Epson t544 oferece ainda mais economia nas impressões em sua Ecotank, reduzindo em pelo menos 10% o custo por página impressa. É muita conveniência! O kit original Epson contém as 04 cores necessárias para o melhor funcionamento da sua Ecotank, mantendo e qualidade e garantia Epson. Contém 01 garrafa original preta com 65ml, 01 garrafa original ciano com 65ml, 01 garrafa original magenta com 65ml e 01 garrafa original amarelo t544 com 65ml. Leve mais e pague menos!</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Sem avaliação</t>
+          <t>4,8 de 5</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>3870</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['Eficiência de Carregamento: Com potência de 15W, o carregador oferece carregamento rápido e eficiente para uma variedade de dispositivos, incluindo smartphones e tablets.', 'Portabilidade e Design Compacto: O design leve e discreto facilita o transporte em bolsas e mochilas, tornando-o ideal para quem está sempre em movimento.', 'Compatibilidade Universal: A porta USB-A permite a conexão com uma ampla gama de dispositivos, garantindo flexibilidade no carregamento.', 'Segurança Avançada: Equipado com proteção contra superaquecimento, sobrecarga e curtos-circuitos, assegura um uso seguro para os dispositivos.', 'Compatibilidade Global: Funciona em tensões de 100-240V, sendo ideal para viajantes que necessitam de um carregador confiável em diferentes regiões do mundo.']</t>
+          <t>['Cada garrafa de tinta possui 65ml', 'Kit com capacidade de impressão de 7500 páginas em cores e 4500 páginas em preto', 'Tintas originais Epson']</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/41ybhWt-6iL._AC_SL1200_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71J6JbK1DWL._AC_SL1500_.jpg</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>595x1185</t>
+          <t>1319x1500</t>
         </is>
       </c>
       <c r="K8" t="b">
@@ -1076,75 +1032,75 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Carregadores de Parede</t>
+          <t>Recarga e Kits de Tinta para Jato de Tinta</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Indisponível</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/b/ref=dp_bc_5?ie=UTF8&amp;node=16244307011</t>
+          <t>https://www.amazon.com.br/Recargas-e-Kits-Tinta-para-Impressoras-Jato/b/ref=dp_bc_5?ie=UTF8&amp;node=24428254011</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>WayTechBr</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>17/04/2025</t>
+          <t>22/04/2025</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Shorts Jeans Stillage Confortável com Barras Dobradas Estilo Casual</t>
+          <t>Epson EcoTank L3250 - Multifuncional, Tanque de Tinta Colorida, Wi-Fi Direct, USB, Bivolt, Preto</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>R$47,90</t>
+          <t>R$1.189,00</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Shorts-Stillage-Confort%C3%A1vel-Barras-Dobradas/dp/B0DGXZDBPY/ref=sr_1_8?dib=eyJ2IjoiMSJ9.an_1cY7E3LZNeVFRP4TQyz7_H4IYPNFkgGxEwby91AkKywokTOlb8c8SKWTmidMQySxXYjgIW_zxf9-tjXk7MPMZVY30GMRz8mmI4G4KkkrrgzByzMWpF5NtUA4A1GbvGj2xXOvznxaPCE_j3Fhst02QylxaUedF9OxRXxxUodmWq1v7F0_mvfeKst6WIkqLQAt0furxmrQjl4I1KCGhVsmIlF2fwcRAlVDBdXWXph0.xyzGpZQqjzPPzruWyiJkz3rESs-TLbTRHYcWmsH7v8c&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744891849&amp;s=merchant-items&amp;sr=1-8&amp;ufe=app_do%3Aamzn1.fos.6d798eae-cadf-45de-946a-f477d47705b9&amp;xpid=tqkuqdh5H_SQg</t>
+          <t>https://www.amazon.com.br/Multifuncional-Epson-EcoTank-L3250-Colorida/dp/B098YHFT9S/ref=sr_1_8?dib=eyJ2IjoiMSJ9.xoN_0BpgaenJjl7623eoCMMlx0L4QavI_k8wE25OYhkp-viSwD4YIS3E-EeL8vaWyMt-B3MkoVGbkPGZidwxudaY4UBq-RexZTN15oTQ0PnF4glscPQ11k-d74tjCVh0zaJJBGoPU1gm6D8tHU3PTJWDkSmDA2JJXuJ03dbmu9irjGai9nUHxe2FQUJFL9Hv2nDkZfeOPPwbiphHYRDMfSt9nlea9uCVRuIv_VZEEgA.eVaGf-ZtdkRl2NEFC114mGKwG1o0t9BpoYPaoWnpP-M&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745346178&amp;s=merchant-items&amp;sr=1-8&amp;ufe=app_do%3Aamzn1.fos.a492fd4a-f54d-4e8d-8c31-35e0a04ce61e&amp;xpid=m2HGw1-372EnG</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Descubra o shorts perfeito para os dias quentes com o Shorts Jeans Stillage. Feito em jeans de alta qualidade, este modelo oferece o equilíbrio ideal entre conforto e estilo. Com barras dobradas que trazem um toque moderno e despojado, ele é a escolha ideal para compor looks casuais e frescos. Versátil, combina facilmente com blusas, camisetas ou regatas, sendo perfeito para passeios ou momentos descontraídos. Além disso, o corte ajustado valoriza a silhueta, proporcionando liberdade de movimento sem abrir mão do estilo.</t>
+          <t>Multifuncional Epson EcoTank L3250 - Tanque de Tinta Colorida, Wi-Fi Direct, USB, Bivolt</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Sem avaliação</t>
+          <t>4,8 de 5</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>23565</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['Conforto Superior', 'Barras Dobradas', 'Corte Casual', 'Detalhes de Acabamento', 'Fácil de Combinar']</t>
+          <t>['Menor custo de impressão: Imprima até 4.500 páginas em preto e 7.500 páginas coloridas com cada kit de tintas de reposição original', 'Tecnologia Heat-Free da Epson que evita altos custos de impressão e desperdício, garante qualidade às impressões, além de conferir longa vida e alta performance ao equipamento', 'Controle sua impressora a partir de dispositivos móveis através do novo aplicativo Smart Panel', 'Conectividade avançada: impressão wireless e Wi-Fi Direct3 integrado, imprima sem fios diretamente do seu smartphone, tablet ou PC', 'Sistemas operacionais: Windows Vista / 7 / 8 / 8.1 /10 ou mais recente (32 bit, 64 bit); Windows Server 2003 (SP2) ou mais recente; Mac OS X 10.5.8 ou mais recente; Mac OS 11 ou mais recente', 'USB 2.0, Wi-Fi IEEE 802.11b/g/n, Wi-Fi Direct']</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61mjwNm8C5L._AC_SL1200_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/51T-6cdhyaL._AC_SL1000_.jpg</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>1116x811</t>
+          <t>876x517</t>
         </is>
       </c>
       <c r="K9" t="b">
@@ -1152,75 +1108,75 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Shorts e Bermudas</t>
+          <t>Impressoras de tanque de tinta</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Indisponível</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/b/ref=dp_bc_4?ie=UTF8&amp;node=17682127011</t>
+          <t>https://www.amazon.com.br/Impressoras-tanque-tinta/b/ref=dp_bc_5?ie=UTF8&amp;node=48723806011</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>WayTechBr</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>17/04/2025</t>
+          <t>22/04/2025</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Ring Light 6 Polegadas 14cm com Mini Tripe (Preto)</t>
+          <t>AMD Ryzen 5 5600GT 6-Core, 24-Thread Processador Desktop</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R$30,90</t>
+          <t>R$889,00</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Ring-Light-Polegadas-Tripe-Preto/dp/B0DKPV57Z8/ref=sr_1_9?dib=eyJ2IjoiMSJ9.an_1cY7E3LZNeVFRP4TQyz7_H4IYPNFkgGxEwby91AkKywokTOlb8c8SKWTmidMQySxXYjgIW_zxf9-tjXk7MPMZVY30GMRz8mmI4G4KkkrrgzByzMWpF5NtUA4A1GbvGj2xXOvznxaPCE_j3Fhst02QylxaUedF9OxRXxxUodmWq1v7F0_mvfeKst6WIkqLQAt0furxmrQjl4I1KCGhVsmIlF2fwcRAlVDBdXWXph0.xyzGpZQqjzPPzruWyiJkz3rESs-TLbTRHYcWmsH7v8c&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744891849&amp;s=merchant-items&amp;sr=1-9&amp;xpid=tqkuqdh5H_SQg</t>
+          <t>https://www.amazon.com.br/Processador-AMD-Ryzen-5600GT-Threads/dp/B0CQ4DTJYX/ref=sr_1_9?dib=eyJ2IjoiMSJ9.xoN_0BpgaenJjl7623eoCMMlx0L4QavI_k8wE25OYhkp-viSwD4YIS3E-EeL8vaWyMt-B3MkoVGbkPGZidwxudaY4UBq-RexZTN15oTQ0PnF4glscPQ11k-d74tjCVh0zaJJBGoPU1gm6D8tHU3PTJWDkSmDA2JJXuJ03dbmu9irjGai9nUHxe2FQUJFL9Hv2nDkZfeOPPwbiphHYRDMfSt9nlea9uCVRuIv_VZEEgA.eVaGf-ZtdkRl2NEFC114mGKwG1o0t9BpoYPaoWnpP-M&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745346178&amp;s=merchant-items&amp;sr=1-9&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147&amp;xpid=m2HGw1-372EnG</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Ring Light 6 Polegadas (14cm) com Mini Tripé! Ideal para criadores de conteúdo, maquiadores, youtubers e influenciadores, essa iluminação prática e eficiente é o segredo para resultados profissionais. Com seu design compacto e 3 opções de temperatura de cor (branca, neutra e quente), você terá o controle perfeito da luz, ajustando-a conforme o ambiente e o estilo de gravação. O mini tripé garante estabilidade e facilidade de uso em qualquer superfície, oferecendo ângulos ideais para selfies, gravações e videochamadas. Compacto, portátil e extremamente versátil, o Ring Light de 14cm é a escolha perfeita para destacar seus melhores momentos, melhorar a qualidade visual do seu conteúdo e proporcionar aquele brilho único que faz toda a diferença. Destaques: 3 modos de iluminação para ajuste perfeito; Mini tripé estável para qualquer superfície; Ideal para vídeos, fotos, lives e tutoriais; Compacto e leve, fácil de transportar.</t>
+          <t>PROCESSADOR AM4 RYZEN 5 5600GT</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Sem avaliação</t>
+          <t>4,8 de 5</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>929</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['Versatilidade de Iluminação: Com três opções de temperatura de cor (branca, neutra e quente), o Ring Light permite que você ajuste a iluminação conforme o ambiente e o estilo de gravação, garantindo resultados sempre profissionais.', 'Portabilidade e Design Compacto: Seu tamanho reduzido e leveza tornam este ring light extremamente fácil de transportar, ideal para criadores de conteúdo em movimento, maquiadores e influenciadores que precisam de uma solução prática.', 'Mini Tripé Estável: O mini tripé proporciona estabilidade em qualquer superfície, permitindo ângulos ideais para selfies, gravações e videochamadas, sem comprometer a qualidade da imagem.', 'Ideal para Múltiplas Aplicações: Perfeito para vídeos, fotos, transmissões ao vivo e tutoriais, o Ring Light é uma ferramenta essencial para quem deseja elevar a qualidade visual do seu conteúdo.', 'Facilidade de Uso: A combinação de um design intuitivo com a funcionalidade do tripé torna este ring light fácil de usar, proporcionando uma experiência sem complicações para todos os criadores de conteúdo, independentemente do nível de experiência.']</t>
+          <t>['O potente processador de jogos multifuncional', '6 núcleos e 12 threads de processamento, com gráficos avançados AMD Radeon integrados', 'Max Boost de 4,6 GHz, desbloqueado para overclock, suporte DDR4', 'Para a comprovada plataforma AMD Socket AM4, com capacidade de atualização comprovada', 'AMD Refrigerador Wraith Stealth incluído']</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/516F0uDJazL._AC_SL1200_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61c6fimxtXL._AC_SL1500_.jpg</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>1200x1133</t>
+          <t>1402x1495</t>
         </is>
       </c>
       <c r="K10" t="b">
@@ -1228,151 +1184,147 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Luzes de Selfie</t>
+          <t>CPUs</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Indisponível</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Luzes-Selfie-Telefone-Celular/b/ref=dp_bc_6?ie=UTF8&amp;node=23658796011</t>
+          <t>https://www.amazon.com.br/b/ref=dp_bc_3?ie=UTF8&amp;node=16364803011</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>WayTechBr</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>17/04/2025</t>
+          <t>22/04/2025</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Capa Protetora Kicktok para Galaxy S8 Plus, Samsung, Capa Protetora para Celular, Transparente</t>
+          <t>MSI Placa-mãe B650M GAMING WIFI, mATX - Suporta processadores AMD Ryzen série 7000, AM5 - DDR5 Memory Boost 7800+ MHz/OC, PCIe 4.0 x16, M.2 Gen4, Wi-Fi 6E</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>R$31,23</t>
+          <t>R$1.149,90</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Protetora-Kicktok-Samsung-Celular-Transparente/dp/B0777RX2H3/ref=sr_1_10?dib=eyJ2IjoiMSJ9.an_1cY7E3LZNeVFRP4TQyz7_H4IYPNFkgGxEwby91AkKywokTOlb8c8SKWTmidMQySxXYjgIW_zxf9-tjXk7MPMZVY30GMRz8mmI4G4KkkrrgzByzMWpF5NtUA4A1GbvGj2xXOvznxaPCE_j3Fhst02QylxaUedF9OxRXxxUodmWq1v7F0_mvfeKst6WIkqLQAt0furxmrQjl4I1KCGhVsmIlF2fwcRAlVDBdXWXph0.xyzGpZQqjzPPzruWyiJkz3rESs-TLbTRHYcWmsH7v8c&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744891849&amp;s=merchant-items&amp;sr=1-10&amp;xpid=tqkuqdh5H_SQg</t>
+          <t>https://www.amazon.com.br/MSI-Placa-m%C3%A3e-B650M-GAMING-WIFI/dp/B0CRKR3HXN/ref=sr_1_10?dib=eyJ2IjoiMSJ9.xoN_0BpgaenJjl7623eoCMMlx0L4QavI_k8wE25OYhkp-viSwD4YIS3E-EeL8vaWyMt-B3MkoVGbkPGZidwxudaY4UBq-RexZTN15oTQ0PnF4glscPQ11k-d74tjCVh0zaJJBGoPU1gm6D8tHU3PTJWDkSmDA2JJXuJ03dbmu9irjGai9nUHxe2FQUJFL9Hv2nDkZfeOPPwbiphHYRDMfSt9nlea9uCVRuIv_VZEEgA.eVaGf-ZtdkRl2NEFC114mGKwG1o0t9BpoYPaoWnpP-M&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745346178&amp;s=merchant-items&amp;sr=1-10&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147&amp;xpid=m2HGw1-372EnG</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>A capa S8 kicktok protege o Galaxy S8 plus realçando o design do smartphone. A capa serve também como apoio permitindo uma posição confortável para visualização da tela ou para digitação além de permitir acesso rápido e fácil a todos os botões e conexões.</t>
+          <t>B650M GAMING WIFI: vença a concorrência Projetada para jogos no chipset AMD B650 (série Ryzen 7000 suportada, AM5), a placa-mãe MSI B650M GAMING WIFI inclui suporte de GPU premium com PCIe 4.0 x16, suporte de memória DDR5 melhorado (7800+MHz/OC) e armazenamento M.2 duplo (Gen4) opções (1 com M. 2 Shield Frozr). Para alimentar processadores de desktop Ryzen série 7000, o B650M GAMING WIFI possui um Core Boost e um conector de alimentação de CPU de 8 pinos, aumentado com vários recursos de resfriamento passivo. As placas-mãe para jogos MSI B650 apresentam um PCB durável de 6 camadas com 6 gramas de cobre espesso e armadura de aço PCIe para suportar o slot principal da placa gráfica. A conectividade inclui tecnologia AMD Wi-Fi 6E e Bluetooth 5.3, Realtek 2.5G LAN, USB 3.2 Gen 1 Tipo-C (5Gbps), suporte de tela 4K/60Hz e áudio HD 7.1. Para jogadores que procuram uma placa-mãe da série Ryzen 7000 que une arquitetura de placa gráfica PCIe 4.0 x16, suporte de memória DDR5 aprimorado e duas opções de armazenamento M.2 (Gen4) em um design elegante, a placa-mãe para jogos MSI B650M GAMING WIFI é a escolha perfeita.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3,8 de 5</t>
+          <t>4,2 de 5</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['Estilo e elegância', 'Proteção completa contra riscos e quedas', 'Suporte embutido para assistir a vídeos com as mãos livres', 'País de Origem: VN']</t>
+          <t>['Ryzen 7000 PRONTO, ALTO DESEMPENHO - O B650M GAMING WIFI (mATX) equipado com chipset AMD B650 (AM5, Ryzen 7000 pronto); O VRM possui tecnologia MSI Core Boost para melhor desempenho e estabilidade da CPU', 'REFRIGERAÇÃO INTEGRADA - O resfriamento VRM possui almofadas térmicas MOSFET 7W/mK e um dissipador de calor estendido; inclui dissipador de calor chipset, M.2 Shield Frozr, um cabeçote de resfriamento dedicado para ventilador de bomba e PCB de 6 camadas com cobre espesso de 56,7 g', 'Memória DDR5, PCIe 4.0 x16 SLOT - 2 x slots DIMM DDR5 com circuito isolado Memory Boost para overclocking (1DPC 1R, 7800+ MHz); slot PCIe x16 primário suporta PCIe 4.0 (64Gbps) e inclui armadura de aço, slot PCIe x1 secundário suporta PCIe 3.0', 'Conectores M.2 duplos – As opções de armazenamento incluem 2 x slots M.2 Gen4 de 64 Gbps para evitar o estrangulamento térmico durante o acesso SSD hiperrápido', 'CONECTIVIDADE WI-FI 6E - O hardware de rede inclui um módulo AMD Wi-Fi 6E com Bluetooth 5.3 e LAN de 2,5 Gbps; as portas traseiras incluem USB 3.2 Gen 1 Tipo-C (5Gbps), HDMI 2.1, DisplayPort 1.4 e áudio HD 7.1 com reforço de áudio']</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51jZ4MDpKBL._AC_SL1499_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/51ZDK86KO-L._AC_SX679_.jpg</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>681x1443</t>
-        </is>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="b">
         <v>0</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Capas Laterais</t>
+          <t>Placas-Mãe</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>13146</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/b/ref=dp_bc_5?ie=UTF8&amp;node=16244311011</t>
+          <t>https://www.amazon.com.br/Placas-maes/b/ref=dp_bc_3?ie=UTF8&amp;node=16364815011</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>WayTechBr</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>17/04/2025</t>
+          <t>22/04/2025</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Película Protetora de Vidro para Tela de Celular, para Motorola E4, Transparente</t>
+          <t>Headphone Philips bluetooth on-ear com microfone e energia para 15 horas na cor preto TAH1108BK/55</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>R$19,09</t>
+          <t>R$117,00</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Pel%C3%ADcula-Protetora-Motorola-Celular-Transparente/dp/B075DZL4X6/ref=sr_1_11?dib=eyJ2IjoiMSJ9.an_1cY7E3LZNeVFRP4TQyz7_H4IYPNFkgGxEwby91AkKywokTOlb8c8SKWTmidMQySxXYjgIW_zxf9-tjXk7MPMZVY30GMRz8mmI4G4KkkrrgzByzMWpF5NtUA4A1GbvGj2xXOvznxaPCE_j3Fhst02QylxaUedF9OxRXxxUodmWq1v7F0_mvfeKst6WIkqLQAt0furxmrQjl4I1KCGhVsmIlF2fwcRAlVDBdXWXph0.xyzGpZQqjzPPzruWyiJkz3rESs-TLbTRHYcWmsH7v8c&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744891849&amp;s=merchant-items&amp;sr=1-11&amp;xpid=tqkuqdh5H_SQg</t>
+          <t>https://www.amazon.com.br/Headphone-bluetooth-microfone-TAH1108BK-55/dp/B0CCB1DDLF/ref=sr_1_11?dib=eyJ2IjoiMSJ9.xoN_0BpgaenJjl7623eoCMMlx0L4QavI_k8wE25OYhkp-viSwD4YIS3E-EeL8vaWyMt-B3MkoVGbkPGZidwxudaY4UBq-RexZTN15oTQ0PnF4glscPQ11k-d74tjCVh0zaJJBGoPU1gm6D8tHU3PTJWDkSmDA2JJXuJ03dbmu9irjGai9nUHxe2FQUJFL9Hv2nDkZfeOPPwbiphHYRDMfSt9nlea9uCVRuIv_VZEEgA.eVaGf-ZtdkRl2NEFC114mGKwG1o0t9BpoYPaoWnpP-M&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745346178&amp;s=merchant-items&amp;sr=1-11&amp;ufe=app_do%3Aamzn1.fos.a492fd4a-f54d-4e8d-8c31-35e0a04ce61e&amp;xpid=m2HGw1-372EnG</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Proteção além da sua expectativa. As películas são compostas de um vidro temperado especial, não atrapalha o touch do seu smartphone, mas protege muito mais contra riscos, arranhões e impactos de menor grau sobre a tela do aparelho.</t>
+          <t>Headphone Philips bluetooth on-ear com microfone e energia para 15 horas na cor preto TAH1108BK/55</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4,3 de 5</t>
+          <t>4,7 de 5</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>31</v>
+        <v>14517</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['Proteção além da sua expectativa', 'As películas são compostas de um vidro temperado especial, não atrapalha o touch do seu smartphone', 'Protege muito mais contra riscos, arranhões e impactos de menor grau sobre a tela do aparelho', 'Para Motorola E4']</t>
+          <t>['Tenha a experiência sonora Philips. Curta cada minuto de suas músicas e conteúdos com um som nítido e com todas as frequências aguda, média e grave bem definidas', 'Tecnologia Bluetooth para maior mobilidade. Fique livre de fios e conecte seu fone em qualquer dispositivo bluetooth', 'Bateria Recarregável para 15 horas de autonomia de energia', 'Atenda e encerra ligações de maneira fácil e simples.', 'Com almofadas auriculares acolchoadas proporcionam um nível extra de conforto ao longo da reprodução']</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61HJECjobtL._AC_SL1000_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/91iWZmXLOAL._AC_SL1500_.jpg</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>790x812</t>
+          <t>1500x837</t>
         </is>
       </c>
       <c r="K12" t="b">
@@ -1380,75 +1332,86 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Capas Laterais</t>
+          <t>Fones de Ouvido</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>6667</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/b/ref=dp_bc_5?ie=UTF8&amp;node=16244311011</t>
+          <t>https://www.amazon.com.br/Fones-Ouvido/b/ref=dp_bc_3?ie=UTF8&amp;node=16244120011</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>WayTechBr</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>17/04/2025</t>
+          <t>22/04/2025</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Película Protetora de Vidro Moto E5, Motorola, Transparente</t>
+          <t>Aparador de Pelos Super Groom 10, Mondial, Preto/Azul, 6W, Bivolt - BG-03</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>R$14,44</t>
+          <t>R$123,90</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Pel%C3%ADcula-Protetora-Transparente-Motorola-Celular/dp/B07F6LKG2V/ref=sr_1_12?dib=eyJ2IjoiMSJ9.an_1cY7E3LZNeVFRP4TQyz7_H4IYPNFkgGxEwby91AkKywokTOlb8c8SKWTmidMQySxXYjgIW_zxf9-tjXk7MPMZVY30GMRz8mmI4G4KkkrrgzByzMWpF5NtUA4A1GbvGj2xXOvznxaPCE_j3Fhst02QylxaUedF9OxRXxxUodmWq1v7F0_mvfeKst6WIkqLQAt0furxmrQjl4I1KCGhVsmIlF2fwcRAlVDBdXWXph0.xyzGpZQqjzPPzruWyiJkz3rESs-TLbTRHYcWmsH7v8c&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744891849&amp;s=merchant-items&amp;sr=1-12&amp;xpid=tqkuqdh5H_SQg</t>
+          <t>https://www.amazon.com.br/Aparador-Bivolt-Mondial-BG-03-Pequeno/dp/B07DP2S4PC/ref=sr_1_12?dib=eyJ2IjoiMSJ9.xoN_0BpgaenJjl7623eoCMMlx0L4QavI_k8wE25OYhkp-viSwD4YIS3E-EeL8vaWyMt-B3MkoVGbkPGZidwxudaY4UBq-RexZTN15oTQ0PnF4glscPQ11k-d74tjCVh0zaJJBGoPU1gm6D8tHU3PTJWDkSmDA2JJXuJ03dbmu9irjGai9nUHxe2FQUJFL9Hv2nDkZfeOPPwbiphHYRDMfSt9nlea9uCVRuIv_VZEEgA.eVaGf-ZtdkRl2NEFC114mGKwG1o0t9BpoYPaoWnpP-M&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745346178&amp;s=merchant-items&amp;sr=1-12&amp;ufe=app_do%3Aamzn1.fos.a492fd4a-f54d-4e8d-8c31-35e0a04ce61e&amp;xpid=m2HGw1-372EnG</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Proteção além da sua expectativa! As películas são compostas de um vidro temperado especial, não atrapalha o touch do seu smartphone, mas protege muito mais contra riscos, arranhões e impactos de menor grau sobre a tela do aparelho.</t>
+          <t>O Aparador de Pelos SuperGroom Mondial possui a funcionalidade de 10 produtos em apenas 1! Conta com 5 aparadores para cabelo, rosto e corpo, 4 pentes de corte com guias de 3, 6, 9 e 12mm, além de pente ajustável para a remoção dos pelos no comprimento que preferir. Suas lâminas em aço inox oferece alto desempenho para um corte rente, preciso e suave. Saiba mais sobre o BG-03 da Mondial:
+10 EM 1 - MÚLTIPLAS FUNÇÕES: O aparador de pelos da Mondial vem com 10 acessórios: são 5 tipos de aparadores de alto desempenho e 5 pentes de corte com diferentes opções de altura para aparar e remover os pelos do rosto e do corpo inteiro. Você pode ter uma aparência impecável sem sair de casa!
+PENTES DE CORTE + PENTE AJUSTÁVEL: Acompanha 4 pentes de corte com 3mm, 6mm, 9mm e 12mm, além de pente ajustável com 16 níveis de altura, para aparar os pelos no comprimento que preferir.
+APARADOR DE CABELO: Ideal para aparar os pelos do rosto, pescoço e corpo com total praticidade. Garante o corte rente à pele quando usado sem pente de corte.
+APARADOR DE BARBA E BIGODE + PRECISÃO: Os aparadores são perfeitos para aparar com precisão a barba e áreas menores, como pequenas linhas e detalhes.
+APARADOR PARA NARIZ E ORELHA: Remove os pelos do nariz e orelhas com total conforto e praticidade.
+MICROBARBEADOR: Sistema exclusivo para aparar e raspar com suavidade os pelos rente à pele.
+LÂMINAS EM AÇO INOX: As lâminas em aço inox asseguram um corte rente, preciso e suave. Além disso, garantem maior durabilidade ao produto.
+MAIS TEMPO DE USO: A bateria recarregável de Ion Lithium garante até 90 minutos de uso sem fio. Além disso, o produto é bivolt, perfeito para usar em qualquer lugar!
+BASE ORGANIZADORA: Além de organizar os acessórios adequadamente, evitando que fiquem soltos e espalhados, também pode ser utilizada como base para carregamento.
+LUZ INDICADORA: Indica o nível da bateria para carregamento.
+UM ANO DE GARANTIA MONDIAL: A Mondial é a escolha de milhões de consumidores. Mondial, a escolha inteligente!</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3,4 de 5</t>
+          <t>4,7 de 5</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>20</v>
+        <v>39149</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['Adesivo de silicone', 'Fina e forte', 'Alta sensibilidade', 'A tela do seu aparelho sempre nova']</t>
+          <t>['PENTES DE CORTE + PENTE AJUSTÁVEL: 4 pentes de corte com 3mm, 6mm, 9mm e 12mm, além de pente ajustável com 16 níveis de altura, para aparar os pelos no comprimento que preferir;', 'APARADOR DE CABELO: Ideal para aparar os pelos do rosto, pescoço e corpo com total praticidade;', 'APARADOR DE BARBA E BIGODE + PRECISÃO: Os aparadores são perfeitos para aparar com precisão a barba e áreas menores, como pequenas linhas e detalhes;', 'APARADOR PARA NARIZ E ORELHA: Remove os pelos do nariz e orelhas com total conforto e praticidade;', 'MICROBARBEADOR: Sistema exclusivo para aparar e raspar com suavidade os pelos rente à pele.']</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71UPRh4y2oL._AC_SL1500_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/81kx+9NwrNL._AC_SL1500_.jpg</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>724x1500</t>
+          <t>1350x1500</t>
         </is>
       </c>
       <c r="K13" t="b">
@@ -1456,75 +1419,75 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Protetores de Tela</t>
+          <t>Aparadores de Pelo</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>4976</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Peliculas-Protetoras/b/ref=dp_bc_5?ie=UTF8&amp;node=16244091011</t>
+          <t>https://www.amazon.com.br/Aparadores-Pelo-para-Homens/b/ref=dp_bc_5?ie=UTF8&amp;node=16770364011</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>WayTechBr</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>17/04/2025</t>
+          <t>22/04/2025</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Capa Protetora Cristal Case Transparente Moto E5, Motorola, Capa com Proteção Completa (Carcaça+Tela), Transparente</t>
+          <t>Headset Sem Fio Logitech G Astro A30 LIGHTSPEED com Conexão Bluetooth ou 3,5 mm, Microfone Destacável, Até 27h de Bateria, para Áudio 3D/Dolby Atmos, Xbox, Nintendo Switch, PC, Android - Branco</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>R$14,90</t>
+          <t>R$1.639,00</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Protetora-Transparente-Motorola-Prote%C3%A7%C3%A3o-Completa/dp/B07F7JXDVY/ref=sr_1_13?dib=eyJ2IjoiMSJ9.an_1cY7E3LZNeVFRP4TQyz7_H4IYPNFkgGxEwby91AkKywokTOlb8c8SKWTmidMQySxXYjgIW_zxf9-tjXk7MPMZVY30GMRz8mmI4G4KkkrrgzByzMWpF5NtUA4A1GbvGj2xXOvznxaPCE_j3Fhst02QylxaUedF9OxRXxxUodmWq1v7F0_mvfeKst6WIkqLQAt0furxmrQjl4I1KCGhVsmIlF2fwcRAlVDBdXWXph0.xyzGpZQqjzPPzruWyiJkz3rESs-TLbTRHYcWmsH7v8c&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744891849&amp;s=merchant-items&amp;sr=1-13&amp;xpid=tqkuqdh5H_SQg</t>
+          <t>https://www.amazon.com.br/Astro-A30-LIGHTSPEED-Bluetooth-Destac%C3%A1vel/dp/B0BN6WP6YW/ref=sr_1_13?dib=eyJ2IjoiMSJ9.xoN_0BpgaenJjl7623eoCMMlx0L4QavI_k8wE25OYhkp-viSwD4YIS3E-EeL8vaWyMt-B3MkoVGbkPGZidwxudaY4UBq-RexZTN15oTQ0PnF4glscPQ11k-d74tjCVh0zaJJBGoPU1gm6D8tHU3PTJWDkSmDA2JJXuJ03dbmu9irjGai9nUHxe2FQUJFL9Hv2nDkZfeOPPwbiphHYRDMfSt9nlea9uCVRuIv_VZEEgA.eVaGf-ZtdkRl2NEFC114mGKwG1o0t9BpoYPaoWnpP-M&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745346178&amp;s=merchant-items&amp;sr=1-13&amp;ufe=app_do%3Aamzn1.fos.a492fd4a-f54d-4e8d-8c31-35e0a04ce61e&amp;xpid=m2HGw1-372EnG</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Protege seu smartphone na parte traseira e laterais. com abertura para acessórios como carregadores e fones. Para o uso de outros acessórios não precisa retirar a capa. Evite riscos e impactos que podem danificar seu aparelho.</t>
+          <t>Amplifique o seu tempo de jogo com um headset que funciona em qualquer dispositivo. O headset sem fio para jogos A30 pode ser levado para qualquer lugar e permite que você jogue em qualquer plataforma, graças à sua construção de qualidade Astro e funcionalidade sem fio com conexão bluetooth. Leve-o para onde ou relaxe em casa curtindo um som claro e nítido por meio da conectividade LIGHTSPEED pro-grade e 2,4 Ghz, desse jeito a festa nunca acaba. Ajuste e equilibre o áudio em vários dispositivos simultaneamente com o aplicativo Logitech G para iOS e Android. O Astro A30 conta com uma bateria que dura até 27 horas em um formato compacto e elegante que dá a você mais liberdade de movimento com a funcionalidade sem fio inclusa. Os drivers de 40 mm garantem que você receba sons potentes. A sua escolha entre dois microfones, um embutido e um destacável, fazem com que a sua voz fique clara e nítida para o seu time e os seus seguidores. Almofadas acolchoadas, espuma com memória e design confortável são sinônimos de longas sessões de uso e conforto. O A30 pode ser personalizado como você quiser com as tags de fone Astro. Escolha entre uma variedade de designs disponíveis ou envie sua própria arte. Misture e ajuste de acordo com a sua vibe e mostre ao mundo a sua marca pessoal.</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3,2 de 5</t>
+          <t>4,3 de 5</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['Protege seu smartphone na parte traseira e laterais. com abertura para acessórios como carregadores e fones', 'Para o uso de outros acessórios não precisa retirar a capa', 'Evite riscos e impactos que podem danificar seu aparelho', 'País de Origem: CN']</t>
+          <t>['Bluetooth LIGHTSPEED.', 'Entrada USB-C.', 'Alcance sem fio de até 15 m.', 'Microfone destacável.', 'Frequência sem fio de 2,4 Ghz.']</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/611KhH7BtTL._AC_SL1500_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61JDYBJMvWL._AC_SL1500_.jpg</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>697x1433</t>
+          <t>1298x1500</t>
         </is>
       </c>
       <c r="K14" t="b">
@@ -1532,75 +1495,75 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Capas Laterais</t>
+          <t>Fones para Jogos</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>7524</t>
+          <t>202</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/b/ref=dp_bc_5?ie=UTF8&amp;node=16244311011</t>
+          <t>https://www.amazon.com.br/b/ref=dp_bc_4?ie=UTF8&amp;node=16253414011</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>WayTechBr</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>17/04/2025</t>
+          <t>22/04/2025</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Capa Protetora Cristal Bumper Transparente com Lateral Moto G7, Motorola, 4882.0, Preta</t>
+          <t>PROCESSADOR AMD RYZEN 5 5500 3.6GHz (TURBO 4.2GHz) 16MB CACHE AM4 100-100000457BOX</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>R$45,40</t>
+          <t>R$608,00</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Protetora-Cristal-Transparente-Motorola-4882-0/dp/B07NDB5ZD9/ref=sr_1_14?dib=eyJ2IjoiMSJ9.an_1cY7E3LZNeVFRP4TQyz7_H4IYPNFkgGxEwby91AkKywokTOlb8c8SKWTmidMQySxXYjgIW_zxf9-tjXk7MPMZVY30GMRz8mmI4G4KkkrrgzByzMWpF5NtUA4A1GbvGj2xXOvznxaPCE_j3Fhst02QylxaUedF9OxRXxxUodmWq1v7F0_mvfeKst6WIkqLQAt0furxmrQjl4I1KCGhVsmIlF2fwcRAlVDBdXWXph0.xyzGpZQqjzPPzruWyiJkz3rESs-TLbTRHYcWmsH7v8c&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744891849&amp;s=merchant-items&amp;sr=1-14&amp;ufe=app_do%3Aamzn1.fos.6d798eae-cadf-45de-946a-f477d47705b9&amp;xpid=tqkuqdh5H_SQg</t>
+          <t>https://www.amazon.com.br/Processador-AMD-Ryzen-5500-100100000457BOX/dp/B09VCJ171S/ref=sr_1_14?dib=eyJ2IjoiMSJ9.xoN_0BpgaenJjl7623eoCMMlx0L4QavI_k8wE25OYhkp-viSwD4YIS3E-EeL8vaWyMt-B3MkoVGbkPGZidwxudaY4UBq-RexZTN15oTQ0PnF4glscPQ11k-d74tjCVh0zaJJBGoPU1gm6D8tHU3PTJWDkSmDA2JJXuJ03dbmu9irjGai9nUHxe2FQUJFL9Hv2nDkZfeOPPwbiphHYRDMfSt9nlea9uCVRuIv_VZEEgA.eVaGf-ZtdkRl2NEFC114mGKwG1o0t9BpoYPaoWnpP-M&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745346178&amp;s=merchant-items&amp;sr=1-14&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147&amp;xpid=m2HGw1-372EnG</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Protege seu smartphone na parte traseira e laterais, com abertura para acessórios como carregadores e fones. Para o uso de outros acessórios não precisa retirar a capa. Evite riscos e impactos que podem danificar seu aparelho. Com acabamento refinado, dá maior aderência e segurança quando o aparelho está em suas mãos.</t>
+          <t>PROCESSADOR AMD RYZEN 5 5500 3.6GHz (TURBO 4.2GHz) 16MB CACHE AM4 100-100000457BOX</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5 de 5</t>
+          <t>4,7 de 5</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3</v>
+        <v>6284</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['Para o uso de outros acessórios não precisa retirar a capa', 'Evite riscos e impactos que podem danificar seu aparelho.', 'Com acabamento refinado, dá maior aderência e segurança quando o aparelho está em suas mãos.', 'País de Origem: CN']</t>
+          <t>['Pode proporcionar desempenho rápido de mais de 100 FPS nos jogos mais populares do mundo, placa gráfica discreta necessária', '6 núcleos e 12 fios de processamento, juntamente com o refrigerador AMD Wraith Stealth', '4,2 GHz Max Boost, desbloqueado para overclocking, cache de 19 MB, suporte a DDR4-3200', 'Para a plataforma avançada Socket AM4']</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/615aJ73lEBL._AC_SL1500_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/51So7GoGvxL._AC_SL1384_.jpg</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>638x1500</t>
+          <t>864x926</t>
         </is>
       </c>
       <c r="K15" t="b">
@@ -1608,67 +1571,67 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Capas Laterais</t>
+          <t>CPUs</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>22483</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/b/ref=dp_bc_5?ie=UTF8&amp;node=16244311011</t>
+          <t>https://www.amazon.com.br/b/ref=dp_bc_3?ie=UTF8&amp;node=16364803011</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>WayTechBr</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>17/04/2025</t>
+          <t>22/04/2025</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Conj para Bar em Inox Stem 5 Pçs Prana Inox</t>
+          <t>Notebook Acer Aspire 5 A515-45-R0XR AMD Ryzen 7 5700U Tela 15.6" RAM 8 GB 256 GB SSD Linux Prata</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>R$199,90</t>
+          <t>R$2.899,90</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/CONJ-PARA-PRANA-Prana-000BS04008XXXNMS/dp/B07C1PYNZY/ref=sr_1_15?dib=eyJ2IjoiMSJ9.an_1cY7E3LZNeVFRP4TQyz7_H4IYPNFkgGxEwby91AkKywokTOlb8c8SKWTmidMQySxXYjgIW_zxf9-tjXk7MPMZVY30GMRz8mmI4G4KkkrrgzByzMWpF5NtUA4A1GbvGj2xXOvznxaPCE_j3Fhst02QylxaUedF9OxRXxxUodmWq1v7F0_mvfeKst6WIkqLQAt0furxmrQjl4I1KCGhVsmIlF2fwcRAlVDBdXWXph0.xyzGpZQqjzPPzruWyiJkz3rESs-TLbTRHYcWmsH7v8c&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744891849&amp;s=merchant-items&amp;sr=1-15&amp;ufe=app_do%3Aamzn1.fos.6121c6c4-c969-43ae-92f7-cc248fc6181d&amp;xpid=tqkuqdh5H_SQg</t>
+          <t>https://www.amazon.com.br/Notebook-Aspire-A515-45-R0XR-Ryzen-5700U/dp/B0DSWK7DN1/ref=sr_1_15?dib=eyJ2IjoiMSJ9.xoN_0BpgaenJjl7623eoCMMlx0L4QavI_k8wE25OYhkp-viSwD4YIS3E-EeL8vaWyMt-B3MkoVGbkPGZidwxudaY4UBq-RexZTN15oTQ0PnF4glscPQ11k-d74tjCVh0zaJJBGoPU1gm6D8tHU3PTJWDkSmDA2JJXuJ03dbmu9irjGai9nUHxe2FQUJFL9Hv2nDkZfeOPPwbiphHYRDMfSt9nlea9uCVRuIv_VZEEgA.eVaGf-ZtdkRl2NEFC114mGKwG1o0t9BpoYPaoWnpP-M&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745346178&amp;s=merchant-items&amp;sr=1-15&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147&amp;xpid=m2HGw1-372EnG</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Conj. Bar stem em aço inox no modelo liso. Contém peneira, faca, dosador, pinça. Todo feito em inox polido, deixa o lugar sofisticado como decoração e muito útil no preparo de drinks e bebidas com tudo o que é preciso para um preparo rápido.</t>
+          <t>Marca: Acer Modelo: A515-45-ROXR Especificações: Processador e Desempenho: - Modelo: AMD Ryzen 7 5700U - Núcleos e Threads: 8 núcleos e 16 threads - Frequência Máxima: Até 4.3 GHz - Cache L3: 8MB Tela - Tamanho: 15.6” LED IPS Full HD (1920 x 1080) - Proporção: 16:9 - Brilho: 250 nits - Taxa de Atualização: 60 Hz - Contraste: 800:1 - Tecnologia: Anti-reflexo Acer ComfyView, 45% NTSC Memória - Capacidade: 8 GB DDR4 (3200 MHz) - Expansível: Até 24 GB com slot SO-DIMM adicional (com capacidade para até 16 GB) Armazenamento - Unidade Primária: 256 GB SSD NVMe PCIe 3.0 x4 (M.2 2280) Expansão: - Slot SATA 3 para HD ou SSD de 2.5” até 2 TB - Compatível com SSD PCIe de até 512 GB Gráficos - Placa de Vídeo: AMD Radeon Graphics com memória compartilhada Áudio e Comunicação - Áudio: 2 alto-falantes estéreo (2W cada) com tecnologia Acer TrueHarmony Gen 2 - Microfones: 2 microfones com Acer Purified Voice - Webcam: Resolução HD (720p) Conectividade: - Wi-Fi 6 (802.11 a/b/g/n/ac R2 + ax, MU-MIMO 2x2) - Bluetooth 5.0 - Ethernet Gigabit com suporte a Wake-on-LAN Conexões e Portas - 2x USB 3.2 Gen 1 - 1x USB Tipo-C 3.2 Gen 1 - 1x USB 2.0 - Vídeo: Porta HDMI 2.0 - Rede: RJ-45 para cabo Ethernet Áudio:49.8 - Entrada combo para fones e microfone Segurança: - Trava Kensington Design e Construção Material: - Tampa superior em alumínio Teclado: - ABNT 2 com teclado numérico - Touchpad: Certificado Microsoft Precision com suporte multitoque Dimensões e Peso: - Dimensões (sem embalagem): 363.4 x 250.5 x 17.95 mm - Peso: 1.76 kg Alimentação Bateria: - Íon de lítio de 3 células (4343 mAh, 48 Wh) com até 8 horas de autonomia Fonte: - Externa de 45W Sistema Operacional - Linux Gutta 64-bits: leve, rápido e otimizado para uma experiência fluida. Conteúdo da Embalagem: - Notebook Acer Aspire 5 A515-45-R0XR - Certificado de Garantia - Manual do Usuário Garantia: 12 meses de Garantia</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Sem avaliação</t>
+          <t>4,2 de 5</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['Com Design Limpo E Moderno, Trazendo Requinte E Sofisticação Para A Decoração De Seu Bar', 'Um Lindo Presente Para Homens Modernos Que Gostam De Preparar Seus Dinks Ou Receber Seus Convidados Com Elegncia', 'Em Aço Inox Polido, Prática De Limpar E Durável', 'País de Origem: CN']</t>
+          <t>['Processador: Modelo: AMD Ryzen 7 5700U / Núcleos e Threads: 8 núcleos e 16 threads / Frequência Máxima: Até 4.3 GHz / - Cache L3: 8MB', 'Tela: 15.6” LED IPS Full HD (1920 x 1080) / Proporção: 16:9 / Brilho: 250 nits / Taxa de Atualização: 60 Hz / Contraste: 800:1 / Tecnologia: Anti-reflexo Acer ComfyView, 45% NTSC', 'Memória: Capacidade: 8 GB DDR4 (3200 MHz) / Expansível: Até 24 GB com slot SO-DIMM adicional (com capacidade para até 16 GB)', 'Armazenamento: Unidade Primária: 256 GB SSD NVMe PCIe 3.0 x4 (M.2 2280)', 'Expansão: Slot SATA 3 para HD ou SSD de 2.5” até 2 TB / Compatível com SSD PCIe de até 512 GB', 'Placa de Vídeo: AMD Radeon Graphics com memória compartilhada', 'Áudio e Comunicação: 2 alto-falantes estéreo (2W cada) com tecnologia Acer TrueHarmony Gen 2 / Microfones: 2 microfones com Acer Purified Voice / Webcam: Resolução HD (720p)']</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51n-vWG4HIL._AC_SL1000_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/51d951scg-L._AC_SL1000_.jpg</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -1676,7 +1639,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>611x893</t>
+          <t>917x661</t>
         </is>
       </c>
       <c r="K16" t="b">
@@ -1684,75 +1647,105 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Kits para Bar</t>
+          <t>Laptops Tradicionais</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>532</t>
+          <t>44</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/b/ref=dp_bc_4?ie=UTF8&amp;node=17125148011</t>
+          <t>https://www.amazon.com.br/Laptops-Tradicionais/b/ref=dp_bc_3?ie=UTF8&amp;node=24088200011</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>WayTechBr</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>17/04/2025</t>
+          <t>22/04/2025</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Carregador Veicular Hightech, Energizer, EZ-DCA2CUWH3I, Branca</t>
+          <t>ZOTAC GAMING GEFORCE RTX 3060 12GB GDDR6 ZT-A30600P-10M</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>R$19,90</t>
+          <t>R$2.098,00</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Carregador-Veicular-Original-Energizer-Sa%C3%ADdas/dp/B0182JTL9G/ref=sr_1_16?dib=eyJ2IjoiMSJ9.an_1cY7E3LZNeVFRP4TQyz7_H4IYPNFkgGxEwby91AkKywokTOlb8c8SKWTmidMQySxXYjgIW_zxf9-tjXk7MPMZVY30GMRz8mmI4G4KkkrrgzByzMWpF5NtUA4A1GbvGj2xXOvznxaPCE_j3Fhst02QylxaUedF9OxRXxxUodmWq1v7F0_mvfeKst6WIkqLQAt0furxmrQjl4I1KCGhVsmIlF2fwcRAlVDBdXWXph0.xyzGpZQqjzPPzruWyiJkz3rESs-TLbTRHYcWmsH7v8c&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744891849&amp;s=merchant-items&amp;sr=1-16&amp;xpid=tqkuqdh5H_SQg</t>
+          <t>https://www.amazon.com.br/ZOTAC-GAMING-GEFORCE-GDDR6-ZT-A30600P-10M/dp/B0CZXYG7RC/ref=sr_1_16?dib=eyJ2IjoiMSJ9.xoN_0BpgaenJjl7623eoCMMlx0L4QavI_k8wE25OYhkp-viSwD4YIS3E-EeL8vaWyMt-B3MkoVGbkPGZidwxudaY4UBq-RexZTN15oTQ0PnF4glscPQ11k-d74tjCVh0zaJJBGoPU1gm6D8tHU3PTJWDkSmDA2JJXuJ03dbmu9irjGai9nUHxe2FQUJFL9Hv2nDkZfeOPPwbiphHYRDMfSt9nlea9uCVRuIv_VZEEgA.eVaGf-ZtdkRl2NEFC114mGKwG1o0t9BpoYPaoWnpP-M&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745346178&amp;s=merchant-items&amp;sr=1-16&amp;ufe=app_do%3Aamzn1.fos.a492fd4a-f54d-4e8d-8c31-35e0a04ce61e&amp;xpid=m2HGw1-372EnG</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Carregue seus aparelhos enquanto está na rua ou na estrada. Com 3, 4 Amp potência de saída, este carregador Veicular Energizer com duas saídas USB, proporciona a carga rápida e segura de seus smartphones ou tablets.</t>
+          <t>A ZOTAC GAMING GeForce RTX 30 Series, baseada na arquitetura NVIDIA Ampere. Construída com RT Cores e Tensor Cores aprimorados, novos multiprocessadores de streaming e memória GDDR6 de alta velocidade, a ZOTAC GAMING GeForce RTX 3060 12GB GDDR6 dá origem a jogos amplificados com alta fidelidade.
+Principais características:
+- Design Compacto;
+- 2ª Geração de RT Cores;
+- 3ª Geração de Tensor Cores;
+- Controle Ativo de Ventilador com Parada de Ventilador FREEZE;
+- Pronto para VR;
+Especificações técnicas:
+GPU: GeForce RTX 3060;
+Núcleos CUDA: 3584;
+Memória de Vídeo: 12GB GDDR6;
+Barramento de memória: 192-bit;
+Relógio de motor: Boost: 1777 MHz;
+Relógio de memória: 15 Gbps;
+PCI Express: 4.0 16x;
+Saídas de vídeo: 3 x DisplayPort 1.4a (up to 7680x4320@60Hz);
+1 x HDMI®? Connector*;
+*Supports 4K 120Hz HDR, 8K 60Hz HDR, and Variable Refresh Rate as specified in the HDMI 2.1 Specification;
+*Ultra High Speed HDMI Cable is required to support 8K/60FPS or 4K/120FPS;
+Suporte HDCP: 2.3;
+Capacidade de Multi Display: Quad Display;
+Fonte de alimentação recomendada: 600W;
+Consumo de energia: 170W;
+Entrada de energia: 8-pin;
+DirectX: 12 Ultimate;
+OpenGL: 4.6;
+Resfriamento: 2 x 90mm Fans;
+Tamanho de slot: Dual Slot;
+SLI: Not Supported;
+OS Suportado: Windows 11 / 10 (64-bit, v1809 November 2018 or later);
+Comprimento de cartão: 220mm x 118mm x 43mm / 8.7" x 4.6" x 1.7"</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4,5 de 5</t>
+          <t>5 de 5</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['Carregue dois aparelhos simultaneamente', 'Obs: Não acompanha cabo USB', 'Design elegante']</t>
+          <t>['Design Compacto', '2ª Geração de RT Cores', '3ª Geração de Tensor Cores', 'Controle Ativo de Ventilador com Parada de Ventilador FREEZE', 'Pronto para VR']</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61t5kdNN+3L._AC_SL1500_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/613dBQcJ1aL._AC_SL1350_.jpg</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>1160x1248</t>
+          <t>1246x860</t>
         </is>
       </c>
       <c r="K17" t="b">
@@ -1760,103 +1753,2867 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Carregadores Veiculares</t>
+          <t>Placas de Vídeo</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Indisponível</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Carregadores-Veiculares/b/ref=dp_bc_5?ie=UTF8&amp;node=16244303011</t>
+          <t>https://www.amazon.com.br/Placas-Video/b/ref=dp_bc_3?ie=UTF8&amp;node=16364811011</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>WayTechBr</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>17/04/2025</t>
+          <t>22/04/2025</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Moldura Dobravel Plastica Crismop Inox</t>
+          <t>KG251Q P3biip 24.5H FHD 180HZ Gamer</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>R$14,90</t>
+          <t>R$799,90</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Moldura-Dobravel-Plastica-Crismop-Inox/dp/B07GFW29QF/ref=sr_1_17?dib=eyJ2IjoiMSJ9.nJUGtznzO1_mp8QWZsUFXw.HAGC4Jy5KfIrmQLSJRa2tFfbjVfXS14L05fwjak5YJg&amp;dib_tag=se&amp;m=A2ZYQFB9FA7MU3&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1744892216&amp;s=merchant-items&amp;sr=1-17&amp;xpid=tqkuqdh5H_SQg</t>
+          <t>https://www.amazon.com.br/KG251Q-P3biip-24-5H-180HZ-Gamer/dp/B0BK9DXLJ2/ref=sr_1_17?dib=eyJ2IjoiMSJ9.4lxg96fImPbYWYX0dQ2FG64fDMwvIfKolDQxNmifPPr-xjF5Tz1DwzgafF2uliMbmRbtBEjJ9DVCpwqAsL-7PTg2NuKabvnL9D390Mpug4_mHyiYMKiEH6nueCyEeuOgBUB7tdQr9PJsZb-vZeVVF1lFrxQkV-ZJTh2EV9R1o9zrenOQtjhQ4xK_CfcSUg3YJ1fCQObgitjlWGVtSSwAYEcZc9-7z44WjPbVk78Jh8Y.Ezoytsmjp-vCfd7pJGmZ3Jq5jZCW2iTiHuRANUHH4qc&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745346670&amp;s=merchant-items&amp;sr=1-17&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147&amp;xpid=m2HGw1-372EnG</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Suporte para Mop Pó Dobrável, prático e leve, ideal para ser usado com o refil mop algodão ou microfibra com 45cm, sua casa sem pó. Muito mais praticidade e rapidez na limpeza de sua casa ou apartamento.</t>
+          <t>Monitor Gamer Nitro Series KG251Q P3biip Alcance seu potencial máximo O primeiro lugar te aguarda! Jogue mais e melhor com tempo de resposta ultra veloz de até 1ms, design ZeroFrame™ e a tecnologia AMD® FreeSync ™ que ajuda a eliminar distorções de imagem. Campo de visão privilegiado As 24,5” da tela Full HD funcionam como uma verdadeira janela para lugares fantásticos. Seus jogos vão rodar com detalhes cristalinos e cores incríveis. De olho em cada frame A taxa de atualização de até 180Hz leva a renderização dos seus jogos a outro nível, e tempo de resposta de até 1ms que acelera as transições e não trava sua ação. AMD Free Sync™ Com o AMD FreeSync™, a taxa de quadros do jogo é determinada pela sua placa de vídeo, não pela taxa de atualização fixa do monitor. Isso significa que os quadros do monitor são sincronizados com os quadros da placa gráfica, o que elimina a tela quebrada e oferece experiências de jogo muito suaves. Uma verdadeira imersão no jogo Com tecnologia HDR10, a tela cria níveis mais profundos de contraste preto e branco. Conte com mais imersão no jogo por meio da recriação de imagens realistas. A tela de 24,5” Full HD potencializa seu poder de imersão nas batalhas.</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
+          <t>4,7 de 5</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>18</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>['Painel LED VA de 24.5”', 'Resolução Full HD de 1920 x 1080', 'Taxa de atualização de até 180 HZ', 'Tempo de resposta 1ms VRB Visual Response Boost', 'Design de tela Zero Frame']</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51WibY8avzL._AC_SL1000_.jpg</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>6</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>679x716</t>
+        </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Monitores</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Monitores/b/ref=dp_bc_2?ie=UTF8&amp;node=16364756011</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>PC Gamer ITX Arena, Ryzen 5 5500, NVídia GeForce RTX 4060, 16GB RAM, SSD 500GB, Gabinete RGB</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>R$5.199,00</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Gamer-ITX-NV%C3%ADdia-GeForce-Gabinete/dp/B0D7QMTVHF/ref=sr_1_18?dib=eyJ2IjoiMSJ9.4lxg96fImPbYWYX0dQ2FG64fDMwvIfKolDQxNmifPPr-xjF5Tz1DwzgafF2uliMbmRbtBEjJ9DVCpwqAsL-7PTg2NuKabvnL9D390Mpug4_mHyiYMKiEH6nueCyEeuOgBUB7tdQr9PJsZb-vZeVVF1lFrxQkV-ZJTh2EV9R1o9zrenOQtjhQ4xK_CfcSUg3YJ1fCQObgitjlWGVtSSwAYEcZc9-7z44WjPbVk78Jh8Y.Ezoytsmjp-vCfd7pJGmZ3Jq5jZCW2iTiHuRANUHH4qc&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745346670&amp;s=merchant-items&amp;sr=1-18&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147&amp;xpid=m2HGw1-372EnG</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Descrição vazia</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>4,4 de 5</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>12</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>['5500', 'RTX 4060']</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51ynDbSOCxL._AC_SX679_.jpg</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>3</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>CPUs</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/b/ref=dp_bc_3?ie=UTF8&amp;node=16364819011</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Placa Mãe Gigabyte B650M Gaming WiFi, Chipset B650, AMD AM5, mATX, DDR5</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>R$999,90</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Placa-Gigabyte-B650M-Gaming-Chipset/dp/B0D5NM5184/ref=sr_1_19?dib=eyJ2IjoiMSJ9.4lxg96fImPbYWYX0dQ2FG64fDMwvIfKolDQxNmifPPr-xjF5Tz1DwzgafF2uliMbmRbtBEjJ9DVCpwqAsL-7PTg2NuKabvnL9D390Mpug4_mHyiYMKiEH6nueCyEeuOgBUB7tdQr9PJsZb-vZeVVF1lFrxQkV-ZJTh2EV9R1o9zrenOQtjhQ4xK_CfcSUg3YJ1fCQObgitjlWGVtSSwAYEcZc9-7z44WjPbVk78Jh8Y.Ezoytsmjp-vCfd7pJGmZ3Jq5jZCW2iTiHuRANUHH4qc&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745346670&amp;s=merchant-items&amp;sr=1-19&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147&amp;xpid=m2HGw1-372EnG</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>CPU AMD Socket AM5, suporte para: Processadores AMD Ryzen™ 7000 / Ryzen™ série 8000 (acesse o site da GIGABYTE para obter a lista de suporte de CPU mais recente.) Chipset AMD B650 Memória Suporte para módulos de memória DDR5 6400 (OC) / 6200 (OC) / 6000 (OC) / 5600 (OC) / 5200 / 4800 / 4400 MT/s 2 soquetes DIMM DDR5 com suporte para até 96 GB (capacidade DIMM única de 48 GB) de memória do sistema Arquitetura de memória de canal duplo Suporte para módulos de memória DIMM 1Rx8/2Rx8/1Rx16 sem buffer não ECC Suporte para módulos de memória AMD EXtended Profiles for Overclocking (AMD EXPO™) e Extreme Memory Profile (XMP) (a configuração da CPU e da memória pode afetar os tipos de memória suportados, taxa de dados (velocidade) e número de módulos DRAM, consulte a "Lista de suporte de memória" no site da GIGABYTE para obter mais informações.) Gráficos a bordo Processador gráfico integrado com suporte a gráficos AMD Radeon™: - 1 porta D-Sub, com suporte para resolução máxima de 1920x1200@60 Hz - 1 porta HDMI, com suporte para resolução máxima de 4096x2160@60 Hz * Suporte para versão HDMI 2.1 e HDCP 2.3. ** Suporte para portas nativas compatíveis com HDMI 2.1 TMDS. (As especificações gráficas podem variar dependendo do suporte da CPU.) Áudio Realtek® Audio CODEC Áudio de alta definição 2/4/5.1/7.1 canais * Você pode alterar a funcionalidade de uma tomada de áudio usando o software de áudio. Para configurar o áudio de 7.1 canais, acesse o software de áudio para configurações de áudio. LAN Chip LAN Realtek® 2,5 GbE (2,5 Gbps/1 Gbps/100 Mbps) Módulo de comunicação sem fio AzureWave Wi-Fi AW-CB304NF (Realtek® RTL8821CE) - WIFI 802.11 a, b, g, n, ac, com suporte para banda dupla de 2,4/5 GHz - BLUETOOTH 4.2 - Suporte para padrão sem fio 11ac (a taxa de dados real pode variar dependendo ambiente e equipamentos.) Slots de Expansão 1 x slot PCI Express x16 (PCIEX16), integrado na CPU: - Processadores AMD Ryzen™ Série 7000 suportam modo PCIe 4.0 x16 - Processadores AMD Ryzen™ Série 8000-Phoenix 1 suportam modo PCIe 4.0 x8 - AMD Ryzen™ Série 8000-Phoenix 2 Os processadores suportam o modo PCIe 4.0 x4 * Para um desempenho ideal, se apenas uma placa gráfica PCI Express for instalada, certifique-se de instalá-la no slot PCIEX16. Chipset: 1 x slot PCI Express x1, suportando PCIe 3.0 e rodando em x1 Interface de armazenamento 1 x conector M.2, integrado na CPU, com suporte para SSDs Socket 3, chave M, tipo 2580/2280: - Processadores AMD Ryzen™ série 7000 com suporte para SSDs PCIe 4.0 x4/x2 - Suporte para processadores AMD Ryzen™ série 8000-Phoenix 1 SSDs PCIe 4.0 x4/x2 - Processadores AMD Ryzen™ Série 8000-Phoenix 2 suportam SSDs PCIe 4.0 x4/x2 4 conectores SATA 6 Gb/s Suporte a RAID 0, RAID 1 e RAID 10 para dispositivos de armazenamento SSD NVMe RAID 0, RAID 1 e suporte RAID 10 para dispositivos de armazenamento SATA USB CPU: - 2 portas USB 3.2 Gen 1 no painel traseiro - 1 porta USB 2.0/1.1 no painel traseiro Chipset: - 2 portas USB 3.2 Gen 1 disponíveis através do conector USB interno - 5 portas USB 2.0/1.1 (3 portas no painel traseiro, 2 portas disponíveis através do conector USB interno) Chipset+Hub USB 2.0: 2 x portas USB 2.0/1.1 disponíveis através do conector USB interno Conectores Internos I/O 1 x conector de alimentação principal ATX de 24 pinos 1 x conector de alimentação ATX 12V de 8 pinos 1 x cabeçote de ventilador de CPU 2 x cabeçotes de ventilador de sistema 2 x cabeçotes de faixa de LED endereçáveis ??1 x cabeçote de tira de LED RGB 1 x soquete M.2 3 conector 4 x Conectores SATA 6 Gb/s 1 x conector do painel frontal 1 x conector de áudio do painel frontal 1 x conector USB 3.2 Gen 1 2 x conectores USB 2.0/1.1 1 x conector Trusted Platform Module (para GC-TPM2.0 SPI/GC-TPM2. 0 SPI 2.0/ GC-TPM2.0 somente módulo SPI V2) 1 x jumper CMOS transparente Conectores Painel Traseiro 4 x portas USB 2.0/1.1 1 x porta PS/2 para teclado/mouse 1 x porta D-Sub 1 x botão Q-Flash Plus 2 x portas USB 3.2 Gen 1 1 x porta HDMI 1 x porta RJ-45 Š 3 x áudio valetes Controlador E/S Chip controlador de E/S iTE® Monitoramento H/W Detecção de tensão Detecção de temperatura Detecção de velocidade do ventilador Detecção de vazão de resfriamento de água Aviso de falha do ventilador Controle de velocidade do ventilador * O suporte da função de controle de velocidade do ventilador dependerá do ventilador que você instalar. BIOS 1 x flash de 256 Mbit Uso de AMI UEFI BIOS licenciado PnP 1.0a, DMI 2.7, WfM 2.0, SM BIOS 2.7, ACPI 5.0 Características Exclusivas Suporte para GIGABYTE Control Center (GCC) * Os aplicativos disponíveis no GCC podem variar de acordo com o modelo da placa-mãe. As funções suportadas de cada aplicativo também podem variar dependendo das especificações da placa-mãe. Suporte para Q-Flash Suporte para Q-Flash Plus Pacote de software Norton® Internet Security (versão OEM) Software de gerenciamento de largura de banda LAN Sistema Operacional Suporte para Windows 11 de 64 bits Suporte para Windows 10 de 64 bits Fator de forma Fator de forma Micro ATX; 24,0 cm x 22,5 cm</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>4,3 de 5</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>38</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>['CPU: Processadores AMD Ryzen Série 7000 / Ryzen 8000 - Chipset: AMD B650 - Memória: Suporte para módulos de memória de até DDR5 6400 (OC) - 2 soquetes DIMM DDR5 com suporte para até 96 GB (capacidade DIMM única de 48 GB) de memória do sistema', 'Gráficos: Processador gráfico integrado com suporte para gráficos AMD Radeon - 1 porta D Sub, suportando uma resolução máxima de 1920x1200 a 60 Hz - 1 x porta HDMI, suportando uma resolução máxima de 4096x2160@60 Hz - Suporte para versão HDMI 2.1 e HDCP 2.3. - Suporte para portas nativas compatíveis com HDMI 2.1 TMDS. - Áudio: CODEC de áudio Realtek - Áudio de alta definição - 2/4/5.1/7.1 canais', 'Conectores Painel Traseiro: 4 portas USB 2.0/1.1 - 1 x porta de teclado/mouse PS/2 - 1 x porta D-Sub - 1 x botão Q-Flash Plus - 2 x portas USB 3.2 Gen 1 - 1 x porta HDMI - 1 porta RJ-45 - 3 x tomadas de áudio', '1 flash de 256 Mbits - Uso de BIOS UEFI AMI licenciado - PnP 1.0a, DMI 2.7, WfM 2.0, SM BIOS 2.7, ACPI 5.0 - Características Exclusivas: - Suporte para Centro de Controle GIGABYTE (GCC) - Suporte para Q Flash - Suporte para Q-Flash Plus', 'Pacote de software: Norton Internet Security (versão OEM) - Software de gerenciamento de largura de banda LAN - Suporte para Windows 11 de 64 bits - Suporte para Windows 10 de 64 bits - Fator de forma Micro ATX; 24,0 cm x 22,5 cm']</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/61bqSMeAWGL._AC_SL1280_.jpg</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>5</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>1218x748</t>
+        </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Placas-Mãe</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Placas-maes/b/ref=dp_bc_3?ie=UTF8&amp;node=16364815011</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Placa Mãe Gigabyte B550M AORUS Elite, Chipset B550, AMD AM4, mATX, DDR4</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>R$863,00</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/PLACA-GIGABYTE-B550M-AORUS-ELITE/dp/B08BN8VD23/ref=sr_1_20?dib=eyJ2IjoiMSJ9.4lxg96fImPbYWYX0dQ2FG64fDMwvIfKolDQxNmifPPr-xjF5Tz1DwzgafF2uliMbmRbtBEjJ9DVCpwqAsL-7PTg2NuKabvnL9D390Mpug4_mHyiYMKiEH6nueCyEeuOgBUB7tdQr9PJsZb-vZeVVF1lFrxQkV-ZJTh2EV9R1o9zrenOQtjhQ4xK_CfcSUg3YJ1fCQObgitjlWGVtSSwAYEcZc9-7z44WjPbVk78Jh8Y.Ezoytsmjp-vCfd7pJGmZ3Jq5jZCW2iTiHuRANUHH4qc&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745346670&amp;s=merchant-items&amp;sr=1-20&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147&amp;xpid=m2HGw1-372EnG</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Marca: Aorus Modelo: B550M Aorus Elite CPU: AMD Socket AM4, suporte para: processadores AMD Ryzen de 3ª geração / AMD Ryzen de 3ª geração com processadores gráficos Radeon TDP: 1?05W * Consulte "Lista de suporte da CPU" para obter mais informações. Chipset: AMD B550 Memória: 4 soquetes DDR4 DIMM que suportam até 128 GB (capacidade DIMM única de 32 GB) de memória do sistema Processadores AMD Ryzen de 3ª geração: Suporte para módulos de memória DDR4 4000 (OC) / 3600 (OC) / 3333 (OC) / 3200/2933/2667/2400/2133 MHz Nova geração de processadores AMD Ryzen com Radeon Graphics: Suporte para DDR4 4733 (OC) / 4600 (OC) / 4400 (OC) / 4000 (OC) / 3600 (OC) / 3333 (OC) / 3200/2933/2667 / Módulos de memória 2400/2133 MHz Arquitetura de memória de canal duplo Suporte para módulos de memória ECC sem buffer DIMM 1Rx8 / 2Rx8 Suporte para módulos de memória DIMM 1Rx8 / 2Rx8 / 1Rx16 sem buffer ECC Suporte para módulos de memória Extreme Memory Profile (XMP) * Consulte "Lista de suporte de memória" para obter mais informações. Gráficos Onboard: Integrado na 3ª geração de processadores AMD Ryzen com Radeon Graphics: 1 porta DVI-D, com resolução máxima de 1920x1200 a 60 Hz * A porta DVI-D não suporta conexão D-Sub por adaptador. 1 x porta HDMI, suportando uma resolução máxima de 4096x2160 a 60 Hz * Suporte para a versão HDMI 2.1, HDCP 2.3 e HDR. * Memória compartilhada máxima de 16 GB Áudio: Codec Realtek ® ALC887 Áudio de alta definição 2/4 / 5.1 / 7.1 canais * Para configurar o áudio de 7.1 canais, abra o software de áudio e selecione Configurações avançadas do dispositivo&gt; Dispositivo de reprodução para alterar primeiro a configuração padrão. Por favor, visite o site da GIGABYTE para obter detalhes sobre a configuração do software de áudio. LAN: Chip LAN Realtek ® GbE (1000 Mbit / 100 Mbit) Slots de expansão: 1 slot PCI Express x16 (PCIEX16), integrado na CPU: Os processadores AMD Ryzen de 3ª geração suportam o modo PCIe 4.0 x16 Os processadores AMD Ryzen de terceira geração com gráficos Radeon suportam o modo PCIe 3.0 x16 * Para um desempenho ideal, se apenas uma placa de vídeo PCI Express for instalada, instale-a no slot PCIEX16. 1 slot PCI Express x16 (PCIEX4), integrado no chipset: Suporte ao modo PCIe 3.0 x4 1 slot PCI Express x1 (PCIEX1), integrado no chipset: Suporte ao modo PCIe 3.0 x1 Interface de Armazenamento: 1 x conector M.2 (M2A_CPU), integrado na CPU, suportando SSDs do soquete 3, chave M, tipo 2242/2260/2280/22110: Os processadores AMD Ryzen de 3ª geração suportam SSDs SATA e PCIe 4.0 x4 / x2 Os processadores AMD Ryzen de terceira geração com gráficos Radeon suportam SSDs SATA e PCIe 3.0 x4 / x2 1 conector M.2 (M2B_SB), integrado no chipset, que suporta SSDs do soquete 3, chave M, tipo 2242/2260/2280: Suporte para SSDs SATA e PCIe 3.0 x2 4 conectores SATA de 6 Gb / s, integrados no chipset: Suporte para RAID 0, RAID 1 e RAID 10 USB: CPU: 4 portas USB 3.2 Gen 1 no painel traseiro Chipset: 2 portas USB 3.2 Gen 1 disponíveis através do conector USB interno 6 x portas USB 2.0 / 1.1 (4 portas no painel traseiro, 2 portas disponíveis através do conector USB interno) Conectores Internos I/O: 1 x conector de alimentação principal ATX de 24 pinos 1 x conector de alimentação ATX 12V de 8 pinos 1 x header de cooler da CPU 2 x header de cooler do sistema 2 x header de fita LED endereçáveis 2 x header de faixa de LED RGB 1 x resfriador de faixa de LED CPU / Faixa de LED RGB 2 x soquete M.2 3 conectores 4 x conectores SATA de 6 Gb / s 1 x header do painel frontal 1 x conector de áudio no painel frontal 1 x conector USB 3.2 Gen 1 1 x conector USB 2.0 / 1.1 1 x header Trusted Platform Module (TPM) (2x6 pinos, apenas para o módulo GC-TPM2.0_S) 1 x header de porta serial 1 x jumper clear CMOS 1 x botão Q-Flash Plus Conectores Painel Traseiro: 1 porta de teclado / mouse PS / 2 1 x porta DVI-D 1 x porta HDMI 4 x portas USB 3.2 Gen 1 4 x portas USB 2.0 / 1.1 1 x porta RJ-45 3 x tomadas de áudio Controlador I/O: iTE® I/O Controller Chip Monitoramento H/W: Detecção de tensão Detecção de temperatura Detecção de velocidade do cooler Aviso de superaquecimento Aviso de falha do cooler Controle de velocidade do cooler * Se a função de controle de velocidade do cooler é suportada, depende do cooler instalado. BIOS: 1 x 256 Mbit de flash Uso do BIOS AMI UEFI licenciado PnP 1.0a, DMI 2.7, WfM 2.0, SM BIOS 2.7, ACPI 5.0 Características Exclusivas: Suporte para o APP Center * Os aplicativos disponíveis no APP Center podem variar de acordo com o modelo da placa-mãe. As funções suportadas de cada aplicativo também podem variar, dependendo das especificações da placa-mãe. @BIOS EasyTune Fast Boot Game Boost ON/OFF Charge RGB Fusion Smart Backup System Information Viewer Suporte para Q-Flash Plus Suporte para Q-Flash Suporte para instalação do Xpress Sistema Operacional: Suporte para Windows 10 de 64 bits Fator de forma: Fator de forma Micro ATX; 24.4cm x 24.4cm</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>4,7 de 5</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>3616</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>['As placas-mãe GIGABYTE B550 maximizam o potencial do seu PC com a tecnologia AMD StoreMI. StireMI acelera tradicional dispositivos de armazenamento para reduzir os tempos de inicialização e aprimorar a experiência geral do usuário.', 'As placas-mãe da série GIGABYTE AORUS usam um design PWM digital puro de 5+3 fases + MOSFETs Low RDS(on) para suportar as CPUs AMD Ryzen de 3ª geração, oferecendo uma precisão incrível no fornecimento de energia para os componentes mais exigentes e sensíveis à energia da placa-mãe, além de oferecer desempenho aprimorado do sistema e escalabilidade de hardware final.', 'Com conectores NVMe PCIe 4.0*/3.0 x4 e PCIe 3.0 x2 M.2 integrados, as placas-mãe GIGABYTE levam os usuários a experimentar a conectividade do modo NVMe ou SATA para dispositivos SSD M.2. Oferecendo velocidade de transferência de dados de até 64 Gb/s, o design de conectores M.2 duplos oferece uma solução de armazenamento ideal, além de oferecer suporte aos modos RAID.', 'Com o Smart Fan 5, os usuários podem garantir que seu PC possa manter seu desempenho enquanto permanece frio. O Smart Fan 5 permite que os usuários troquem seus cabeçalhos de ventilador para refletir diferentes sensores térmicos em diferentes locais da placa-mãe. Além disso, com o Smart Fan 5, mais conectores de ventoinha híbridos que suportam os modos PWM e Voltage foram introduzidos para tornar a placa-mãe mais amigável ao resfriamento líquido.']</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/81QyMksmunL._AC_SL1500_.jpg</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>5</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>1500x1000</t>
+        </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Placas-Mãe</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Placas-maes/b/ref=dp_bc_3?ie=UTF8&amp;node=16364815011</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>PROCESSADOR AMD RYZEN 5 8500G 3.5GHZ (MAX TURBO 5.0GHZ) 22MB CACHE AM5 100-100000931BOX</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>R$1.019,00</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Processador-AMD-Ryzen5-8500G-100100000931BOX/dp/B0CQ4JV8D5/ref=sr_1_21?dib=eyJ2IjoiMSJ9.4lxg96fImPbYWYX0dQ2FG64fDMwvIfKolDQxNmifPPr-xjF5Tz1DwzgafF2uliMbmRbtBEjJ9DVCpwqAsL-7PTg2NuKabvnL9D390Mpug4_mHyiYMKiEH6nueCyEeuOgBUB7tdQr9PJsZb-vZeVVF1lFrxQkV-ZJTh2EV9R1o9zrenOQtjhQ4xK_CfcSUg3YJ1fCQObgitjlWGVtSSwAYEcZc9-7z44WjPbVk78Jh8Y.Ezoytsmjp-vCfd7pJGmZ3Jq5jZCW2iTiHuRANUHH4qc&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745346670&amp;s=merchant-items&amp;sr=1-21&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147&amp;xpid=m2HGw1-372EnG</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>processador ryzen 5 8500g amd 6 cores 12 threads 5.0ghz sem cooler - 100-100000931box o processador ryzen 5 possui desempenho impressionante e características avançadas, com o encaixe am5, ele oferece uma arquitetura eficiente que permite uma experiência eficaz. Possui uma velocidade de clock impressionante de 3.5ghz, que pode ser impulsionada para até 5.0ghz, o ryzen 5 8500g proporciona uma execução ágil de tarefas, garantindo rapidez e responsividade em diversas aplicações. o cache de 22mb contribui para uma operação eficiente de dados, acelerando a resposta do processador às demandas do sistema. Equipado com 6 núcleos de cpu e 12 threads, o ryzen 5 8500g oferece um desempenho de multitarefa excepcional, permitindo a execução simultânea de várias aplicações de forma suave e eficiente. A tecnologia pcie 4.0 proporciona largura de banda superior para transferência de dados mais rápida entre o processador e outros componentes do sistema, otimizando o desempenho global. características processador amd ryzen 5 8500g 5.0ghz am5 6 cores 12 threads sem cooler - marca: amd - modelo: 100-100000931box</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>4,5 de 5</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>467</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>['Processador AMD Ryzen 5 8500G Box (AM5/6 Cores/12 Threads/5.0GHz/22MB Cache/Wraith Stealth / AMD Radeon 740M)']</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/61RDXIvWNML._AC_SL1500_.jpg</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>7</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>1391x1500</t>
+        </is>
+      </c>
+      <c r="K22" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>CPUs</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/b/ref=dp_bc_3?ie=UTF8&amp;node=16364803011</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Microondas R1 BRANCO PORTA PRETA 20L MRAS21/MRAS22 (127)</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>R$519,90</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Microondas-BRANCO-PORTA-MRAS21-MRAS22/dp/B09329F4J6/ref=sr_1_22?dib=eyJ2IjoiMSJ9.4lxg96fImPbYWYX0dQ2FG64fDMwvIfKolDQxNmifPPr-xjF5Tz1DwzgafF2uliMbmRbtBEjJ9DVCpwqAsL-7PTg2NuKabvnL9D390Mpug4_mHyiYMKiEH6nueCyEeuOgBUB7tdQr9PJsZb-vZeVVF1lFrxQkV-ZJTh2EV9R1o9zrenOQtjhQ4xK_CfcSUg3YJ1fCQObgitjlWGVtSSwAYEcZc9-7z44WjPbVk78Jh8Y.Ezoytsmjp-vCfd7pJGmZ3Jq5jZCW2iTiHuRANUHH4qc&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745346670&amp;s=merchant-items&amp;sr=1-22&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147&amp;xpid=m2HGw1-372EnG</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>O Micro-ondas 20L Midea veio para ser seu novo aliado na cozinha. Seu painel conta com o Minuto Fácil que proporciona acesso rápido com teclas de 1,2 ou 3 minutos para facilitar ainda mais o seu dia a dia. Possui diversas opções de Receitas Pré Programadas,Menu Descongelar e Menu Preferido, que deixa salvo o programa e o tempo de suas receitas prediletas.Com baixo consumo de energia, o micro-ondas 20L Midea tem a função Eco, que proporciona economia com o visor desligado. Além da função Tira Odor, que remove os cheiros com apenas um clic, possui a Função Aquecer e Tecla Ligar/+30 segundos.Aproveite da comodidade e da praticidade da linha de micro-ondas Midea.</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>4,6 de 5</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>9694</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>['[Fácil de Usar] Painel de controle de fácil leitura para aquecimento e descongelamento diário.', '[Múltiplasreceitas Pré-programadas] Aquecimento ideal de alimentos diversos como arroz, batata, pipoca, brigadeiro, pudim e outros.', '[Função Preferido] Deixe salvo o programa e o tempo de suas receitas prediletas.', '[Trava de Segurança Eletrônica de Bloqueio do Painel] Impede o acionamento não intencional do painel.', '[Função Tira Odor] Ameniza os odores do seu aparelho.', '[Baixo Consumo De Energia] Classe de eficiência energética A, mais economia para o seu bolso.', '[Grande Capacidade] 20L de capacidade. Deixe um espaço mínimo de 20 cm acima e na lateral esquerda do micro-ondas e 10 cm nas demais faces. Esse espaço é necessário para a saída de ar.']</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/41kh2TI9f0L._AC_SL1000_.jpg</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>6</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>976x538</t>
+        </is>
+      </c>
+      <c r="K23" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Fornos de Micro-Ondas</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/b/ref=dp_bc_3?ie=UTF8&amp;node=17124786011</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>PROCESSADOR AMD RYZEN 7 5700G 3.8GHz (MAX TURBO 4.6GHz) 16MB CACHE AM4 100-100000263BOX</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>R$1.178,00</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Processador-AMD-Ryzen-5700G-Stealth/dp/B091J3NYVF/ref=sr_1_23?dib=eyJ2IjoiMSJ9.4lxg96fImPbYWYX0dQ2FG64fDMwvIfKolDQxNmifPPr-xjF5Tz1DwzgafF2uliMbmRbtBEjJ9DVCpwqAsL-7PTg2NuKabvnL9D390Mpug4_mHyiYMKiEH6nueCyEeuOgBUB7tdQr9PJsZb-vZeVVF1lFrxQkV-ZJTh2EV9R1o9zrenOQtjhQ4xK_CfcSUg3YJ1fCQObgitjlWGVtSSwAYEcZc9-7z44WjPbVk78Jh8Y.Ezoytsmjp-vCfd7pJGmZ3Jq5jZCW2iTiHuRANUHH4qc&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745346670&amp;s=merchant-items&amp;sr=1-23&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147&amp;xpid=m2HGw1-372EnG</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>PROCESSADOR AMD RYZEN 7 5700G 3.8GHz (MAX TURBO 4.6GHz) 16MB CACHE AM4 100-100000263BOX</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>4,8 de 5</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>8277</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>['Processador AMD Ryzen 7 5700G 3.8 até 4.6GHZ 20MB AM4 Wraith Stealth Radeon - PN:100-100000263BOX', 'Um produto de verdadeiro desempenho', 'Produtos com garantia de qualidade', 'Descubra produtos úteis para você']</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51D3DrDmwkL._AC_SL1000_.jpg</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>6</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>829x888</t>
+        </is>
+      </c>
+      <c r="K24" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>CPUs</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/b/ref=dp_bc_3?ie=UTF8&amp;node=16364803011</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Headset Gamer Sem Fio Logitech G435 LIGHTSPEED, Conexão USB e Bluetooth, Design Leve e Confortável, Microfone Embutido, Bateria de até 18h - Compatível com Dolby Atmos, PC, PS4, PS5, Mobile – Preto</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>R$499,00</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Headset-est%C3%A9reo-conex%C3%A3o-Bluetooth-Logitech/dp/B08R8DT7X6/ref=sr_1_24?dib=eyJ2IjoiMSJ9.4lxg96fImPbYWYX0dQ2FG64fDMwvIfKolDQxNmifPPr-xjF5Tz1DwzgafF2uliMbmRbtBEjJ9DVCpwqAsL-7PTg2NuKabvnL9D390Mpug4_mHyiYMKiEH6nueCyEeuOgBUB7tdQr9PJsZb-vZeVVF1lFrxQkV-ZJTh2EV9R1o9zrenOQtjhQ4xK_CfcSUg3YJ1fCQObgitjlWGVtSSwAYEcZc9-7z44WjPbVk78Jh8Y.Ezoytsmjp-vCfd7pJGmZ3Jq5jZCW2iTiHuRANUHH4qc&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745346670&amp;s=merchant-items&amp;sr=1-24&amp;ufe=app_do%3Aamzn1.fos.4bddec23-2dcf-4403-8597-e1a02442043d&amp;xpid=m2HGw1-372EnG</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>O jogo nunca acaba. Você joga, reproduz músicas e se diverte com amigos. É quem você é. Sempre. Por isso desenvolvemos o headset gamer G435 para todos os aspectos da sua vida. A combinação do LIGHTSPEED sem fio e do Bluetooth proporciona a você a liberdade de se conectar sem fio ao PC, mobile e outros dispositivos. Os drivers de 40 mm oferecem som incrível enquanto os microfones com formação de feixe eliminam o ruído de fundo e do braço do microfone. Também tem a certificação CarbonNeutral e foi desenvolvido com mínimo de 22% de plástico reciclado. O jogo nunca acaba com o G435.</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>4,5 de 5</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>14111</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>['Versátil: O G435 é o primeiro headset gamer com conexão sem fio LIGHTSPEED e Bluetooth de baixa latência, oferecendo mais liberdade de jogo no PC, celular e dispositivos de jogos PlayStation.', 'Leve: Com uma construção leve, este headset gamer sem fio pesa apenas 165 g, tornando-o confortável de usar durante o dia todo.', 'Qualidade de voz superior: Seja ouvido em alto e bom som graças aos microfones integrados de formação de feixe duplo que eliminam a necessidade de um braço de microfone e reduzem o ruído de fundo.', 'Som envolvente: Este headset moderno e colorido oferece áudio de alta fidelidade balanceado com drivers de 40 mm, compatibilidade com Dolby Atmos e Windows Sonic para uma experiência de som envolvente.', 'Bateria de longa duração: Não precisa interromper os jogos para recarregar graças à bateria de até 18h do G435, permitindo que você continue jogando, conversando com amigos e ouvindo música.']</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/81bQEkMevBL._AC_SL1500_.jpg</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>6</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>1356x1500</t>
+        </is>
+      </c>
+      <c r="K25" t="b">
+        <v>0</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Fones de Ouvido para Computador</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Fones-Ouvido-Computador/b/ref=dp_bc_4?ie=UTF8&amp;node=16364845011</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Intel Core i5-13400F 2.5GHz (4.6 Turbo) 10 Core LGA 1700 Processador para Desktop (Raptor Lake)</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>R$1.107,00</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Intel-i5-13400F-2-5GHz-Processador-Desktop/dp/B0BN61LYFB/ref=sr_1_25?dib=eyJ2IjoiMSJ9.4lxg96fImPbYWYX0dQ2FG64fDMwvIfKolDQxNmifPPr-xjF5Tz1DwzgafF2uliMbmRbtBEjJ9DVCpwqAsL-7PTg2NuKabvnL9D390Mpug4_mHyiYMKiEH6nueCyEeuOgBUB7tdQr9PJsZb-vZeVVF1lFrxQkV-ZJTh2EV9R1o9zrenOQtjhQ4xK_CfcSUg3YJ1fCQObgitjlWGVtSSwAYEcZc9-7z44WjPbVk78Jh8Y.Ezoytsmjp-vCfd7pJGmZ3Jq5jZCW2iTiHuRANUHH4qc&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745346670&amp;s=merchant-items&amp;sr=1-25&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147&amp;xpid=m2HGw1-372EnG</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>PROCESSADOR INTEL CORE I5-13400F 2.50GHZ 20MB DDR4/5 FCLGA1700 BX8071513400F-99C6TV</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>4,7 de 5</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>699</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>['2.5GHz Frequência de operação, LGA 1700 Soquete', 'Série Raptor Lake', 'CPU de desktop in a box Intel', 'Core i5-13400F com cache de 20MB', '10 núcleos / 16 threads']</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51wQQ9WWa7L._AC_SL1080_.jpg</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>3</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>722x775</t>
+        </is>
+      </c>
+      <c r="K26" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>CPUs</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/b/ref=dp_bc_3?ie=UTF8&amp;node=16364803011</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Kingston KF552C40BB-16 - Módulo de memória de 16GB DDR5 5200Mhz FURY Beast Black 1,25V 1Rx8 288 pinos para desktop/gamers</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>R$423,90</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Kingston-KF552C40BB-16-mem%C3%B3ria-5200Mhz-desktop/dp/B09KCM59ZK/ref=sr_1_26?dib=eyJ2IjoiMSJ9.4lxg96fImPbYWYX0dQ2FG64fDMwvIfKolDQxNmifPPr-xjF5Tz1DwzgafF2uliMbmRbtBEjJ9DVCpwqAsL-7PTg2NuKabvnL9D390Mpug4_mHyiYMKiEH6nueCyEeuOgBUB7tdQr9PJsZb-vZeVVF1lFrxQkV-ZJTh2EV9R1o9zrenOQtjhQ4xK_CfcSUg3YJ1fCQObgitjlWGVtSSwAYEcZc9-7z44WjPbVk78Jh8Y.Ezoytsmjp-vCfd7pJGmZ3Jq5jZCW2iTiHuRANUHH4qc&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745346670&amp;s=merchant-items&amp;sr=1-26&amp;ufe=app_do%3Aamzn1.fos.e05b01e0-91a7-477e-a514-15a32325a6d6&amp;xpid=m2HGw1-372EnG</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Módulo de memória de 16GB DDR5 5200Mhz FURY Beast Black 1,25V 1Rx8 288 pinos para desktop / gamers</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>4,7 de 5</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>206</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>['Módulo de memória de 16GB DDR5 5200Mhz FURY Beast Black 1,25V 1Rx8 288 pinos para desktop / gamers', 'Fonte de alimentação: Energia elétrica', 'Descubra produtos úteis para você.', 'Os produtos foram projetados com o usuário em mente querendo cumprir os desejos']</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/611n3F+AQJL._AC_SL1500_.jpg</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>6</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>1500x814</t>
+        </is>
+      </c>
+      <c r="K27" t="b">
+        <v>0</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Memória</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/b/ref=dp_bc_3?ie=UTF8&amp;node=16364809011</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>SSD M.2 2280 512GB PCIe Gen 3x4 NVMe Hikvision - HKM512P81A</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>R$279,90</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/2280-512GB-PCIe-NVMe-Hikvision/dp/B0DK7M5SJ9/ref=sr_1_27?dib=eyJ2IjoiMSJ9.4lxg96fImPbYWYX0dQ2FG64fDMwvIfKolDQxNmifPPr-xjF5Tz1DwzgafF2uliMbmRbtBEjJ9DVCpwqAsL-7PTg2NuKabvnL9D390Mpug4_mHyiYMKiEH6nueCyEeuOgBUB7tdQr9PJsZb-vZeVVF1lFrxQkV-ZJTh2EV9R1o9zrenOQtjhQ4xK_CfcSUg3YJ1fCQObgitjlWGVtSSwAYEcZc9-7z44WjPbVk78Jh8Y.Ezoytsmjp-vCfd7pJGmZ3Jq5jZCW2iTiHuRANUHH4qc&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745346670&amp;s=merchant-items&amp;sr=1-27&amp;ufe=app_do%3Aamzn1.fos.a492fd4a-f54d-4e8d-8c31-35e0a04ce61e&amp;xpid=m2HGw1-372EnG</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Aprimore o Desempenho do Seu Sistema com o SSD Hikvision E3000 512GB M.2 PCIe NVMe!
+Leve sua capacidade de multitarefa a outro nível com o SSD Hikvision E3000 512GB. Utilizando a avançada tecnologia PCIe Gen 3x4 NVMe, este SSD oferece velocidades de leitura de até 3650MB/s e gravação de 2850MB/s. Ideal para profissionais e entusiastas que precisam de desempenho confiável para aplicativos exigentes, como edição de fotos, modelagem 3D e jogos, o Hikvision E3000 proporciona tempos de carregamento mais rápidos e maior capacidade de resposta do sistema.
+Com a confiança da marca Hikvision (Hiksemi), em parceria com o Grupo Multi S.A., distribuidor oficial e fabricante de SSDs no Brasil, você adquire um produto de alta qualidade com os benefícios do PPB (Processo Produtivo Brasileiro), incluindo assistência técnica e suporte local. Seu formato M.2 2280 garante um upgrade rápido e fácil para qualquer laptop ou desktop compatível.
+Garanta o seu SSD Hikvision E3000 512GB M.2 PCIe NVMe hoje mesmo e melhore seu sistema com velocidade e eficiência superiores!
+Ficha Técnica:</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
           <t>5 de 5</t>
         </is>
       </c>
-      <c r="F18" t="n">
+      <c r="F28" t="n">
         <v>2</v>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>['Ideal para limpar e tirar o pó na sala no quarto ou no seu escritório', 'Dobrável em aço e plástico com 45 cm', 'Material pp e aço inox', 'Fabricado com muito cuidado e atenção aos detalhes']</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>https://m.media-amazon.com/images/I/41n99saqHAL._AC_SL1000_.jpg</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>['Desempenho excepcional: Aumente a velocidade de sua máquina até 30x, com leitura de até 3500MB/s e gravação de até 1800MB/s sequencial, proporcionando um armazenamento ultra-rápido.', 'Tecnologia NVMe: O NVMe (Non-Volatile Memory Express) oferece comunicação mais rápida entre o SSD e o sistema, aprimorando a capacidade de multitarefa e garantindo acesso instantâneo aos dados.', 'Operação silenciosa: Funciona de forma silenciosa, sem ruídos, oferecendo uma experiência tranquila durante o uso.', 'Suporte técnico e qualidade garantidos: Produto com PPB (Processo Produtivo Básico), com assistência técnica local e suporte especializado no Brasil.']</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/41YEv+zNAEL._AC_SL1000_.jpg</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>3</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>235x844</t>
+        </is>
+      </c>
+      <c r="K28" t="b">
+        <v>0</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Unidades Internas SSD</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/b/ref=dp_bc_4?ie=UTF8&amp;node=16364782011</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>GAINWARD Placa gráfica RTX 5070Ti Phoenix 16GB GDDR7 256bit 3-DP HDMI NE7507T019T2-GB2031X VD9016</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>R$7.959,00</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/GAINWARD-gr%C3%A1fica-5070Ti-Phoenix-NE7507T019T2-GB2031X/dp/B0DYBQLVXK/ref=sr_1_28?dib=eyJ2IjoiMSJ9.4lxg96fImPbYWYX0dQ2FG64fDMwvIfKolDQxNmifPPr-xjF5Tz1DwzgafF2uliMbmRbtBEjJ9DVCpwqAsL-7PTg2NuKabvnL9D390Mpug4_mHyiYMKiEH6nueCyEeuOgBUB7tdQr9PJsZb-vZeVVF1lFrxQkV-ZJTh2EV9R1o9zrenOQtjhQ4xK_CfcSUg3YJ1fCQObgitjlWGVtSSwAYEcZc9-7z44WjPbVk78Jh8Y.Ezoytsmjp-vCfd7pJGmZ3Jq5jZCW2iTiHuRANUHH4qc&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745346670&amp;s=merchant-items&amp;sr=1-28&amp;ufe=app_do%3Aamzn1.fos.a492fd4a-f54d-4e8d-8c31-35e0a04ce61e&amp;xpid=m2HGw1-372EnG</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>GPU NV RTX5070TI 16GB PHOENIX GDDR7 256BITS GAINWARD NE7507T019T2-GB2031X</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Sem avaliação</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>['GPU NV RTX5070TI 16GB PHOENIX GDDR7 256BITS GAINWARD NE7507T019T2-GB2031X']</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/81WmBmtlaQL._AC_SL1500_.jpg</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>7</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>1500x993</t>
+        </is>
+      </c>
+      <c r="K29" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Placas de Vídeo</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Placas-Video/b/ref=dp_bc_3?ie=UTF8&amp;node=16364811011</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>ZOTAC Placa gráfica para jogos GeForce RTX 5080 Solid OC DLSS 4 16GB GDDR7 256-bit 30 Gbps PCIE 5.0 Gaming, IceStorm 3.0 Advanced Cooling, Spectra 2.0 ARGB Lighting, ZT-B50800J-10P</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>R$11.699,90</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/ZOTAC-IceStorm-Advanced-Lighting-ZT-B50800J-10P/dp/B0DTZ48TCY/ref=sr_1_29?dib=eyJ2IjoiMSJ9.4lxg96fImPbYWYX0dQ2FG64fDMwvIfKolDQxNmifPPr-xjF5Tz1DwzgafF2uliMbmRbtBEjJ9DVCpwqAsL-7PTg2NuKabvnL9D390Mpug4_mHyiYMKiEH6nueCyEeuOgBUB7tdQr9PJsZb-vZeVVF1lFrxQkV-ZJTh2EV9R1o9zrenOQtjhQ4xK_CfcSUg3YJ1fCQObgitjlWGVtSSwAYEcZc9-7z44WjPbVk78Jh8Y.Ezoytsmjp-vCfd7pJGmZ3Jq5jZCW2iTiHuRANUHH4qc&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745346670&amp;s=merchant-items&amp;sr=1-29&amp;ufe=app_do%3Aamzn1.fos.a492fd4a-f54d-4e8d-8c31-35e0a04ce61e&amp;xpid=m2HGw1-372EnG</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Comece a jogar com as novas placas gráficas ZOTAC GAMING GeForce baseadas na arquitetura NVIDIA Blackwell integrada com tecnologias de próxima geração, largura de banda inovadora e memória gráfica ultrarrápida para acelerar o desempenho para o além. Inspirado por um espírito sem frescuras, o SOLID OC combina estética furtiva, forte durabilidade e dinâmica de fluxo de ar simplificada para aqueles que exigem desempenho poderoso, resfriamento e durabilidade robusta. Características: - Alimentado pela arquitetura NVIDIA Blackwell e DLSS 4 - Iluminação SPECTRA 2.0 ARGB, SPECTRA Link - Resfriamento avançado IceStorm 3.0 com um dissipador de calor maciço + câmara de vapor + combo de tubo de calor composto, fluxo de ar de passagem - 3 ventoinhas BladeLink de 100 mm - Parada de ventilador congelante - Controle ativo do ventilador - Bios duplos - Placa traseira de metal - Estrutura de estrutura reforçada ture para maior durabilidade - Suporte de GPU incluído - VR Ready</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>4,6 de 5</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>7</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>['Alimentado pela arquitetura NVIDIA Blackwell e DLSS 4', '16GB GDDR7, 256-bit, 30 Gbps, PCIE 5.0, Boost Clock 2640 MHz', 'Refrigeração avançada IceStorm 3.0, 3 ventiladores BladeLink de 100 mm, câmara de vapor, tubos de calor compostos, design de fluxo de ar pass-thru, parada do ventilador FREEZE, controle ativo do ventilador', 'Placa traseira de metal, estrutura de estrutura reforçada, BIOS duplo, iluminação SPECTRA 2.0 ARGB, link Spectra, suporte de GPU incluído', '3 DisplayPort 2.1b, 1 HDMI 2.1b, 8K Ready, 4 Display Ready, HDCP 2.3, VR Ready']</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/712Rf0rWAjL._AC_SL1500_.jpg</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>7</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>1500x1002</t>
+        </is>
+      </c>
+      <c r="K30" t="b">
+        <v>0</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Placas de Vídeo</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Placas-Video/b/ref=dp_bc_3?ie=UTF8&amp;node=16364811011</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Placa Mãe MSI PRO H610M-G (LGA1700 /2xDDR4/HDMI/VGA/DP/M.2/USB 3.2)</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>R$577,90</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/MSI-PRO-H610M-G-LGA1700-2xDDR4/dp/B09P45FMWW/ref=sr_1_30?dib=eyJ2IjoiMSJ9.4lxg96fImPbYWYX0dQ2FG64fDMwvIfKolDQxNmifPPr-xjF5Tz1DwzgafF2uliMbmRbtBEjJ9DVCpwqAsL-7PTg2NuKabvnL9D390Mpug4_mHyiYMKiEH6nueCyEeuOgBUB7tdQr9PJsZb-vZeVVF1lFrxQkV-ZJTh2EV9R1o9zrenOQtjhQ4xK_CfcSUg3YJ1fCQObgitjlWGVtSSwAYEcZc9-7z44WjPbVk78Jh8Y.Ezoytsmjp-vCfd7pJGmZ3Jq5jZCW2iTiHuRANUHH4qc&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745346670&amp;s=merchant-items&amp;sr=1-30&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147&amp;xpid=m2HGw1-372EnG</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>MSI PRO H610M-G: Simplicidade eficiente. Com suporte para DDR4 e portas HDMI, VGA e DP, esta placa-mãe LGA1700 é ideal para montagens básicas. 💻🔗</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>4,5 de 5</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>259</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>['MSI PRO H610M-G: Simplicidade eficiente. Com suporte para DDR4 e portas HDMI, VGA e DP, esta placa-mãe LGA1700 é ideal para montagens básicas. 💻🔗']</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/81xOFoT4ERL._AC_SL1500_.jpg</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>7</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>1500x887</t>
+        </is>
+      </c>
+      <c r="K31" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Placas-Mãe</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Placas-maes/b/ref=dp_bc_3?ie=UTF8&amp;node=16364815011</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>PC Gamer ITX Arena, Ryzen 5 5600G, Radeon™ Graphics Vega 7, 16GB Ram, SSD 480GB, Gabinete RGB</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>R$2.699,00</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Gamer-ITX-RadeonTM-Graphics-Gabinete/dp/B0B1ZLNWGD/ref=sr_1_31?dib=eyJ2IjoiMSJ9.4lxg96fImPbYWYX0dQ2FG64fDMwvIfKolDQxNmifPPr-xjF5Tz1DwzgafF2uliMbmRbtBEjJ9DVCpwqAsL-7PTg2NuKabvnL9D390Mpug4_mHyiYMKiEH6nueCyEeuOgBUB7tdQr9PJsZb-vZeVVF1lFrxQkV-ZJTh2EV9R1o9zrenOQtjhQ4xK_CfcSUg3YJ1fCQObgitjlWGVtSSwAYEcZc9-7z44WjPbVk78Jh8Y.Ezoytsmjp-vCfd7pJGmZ3Jq5jZCW2iTiHuRANUHH4qc&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745346670&amp;s=merchant-items&amp;sr=1-31&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147&amp;xpid=m2HGw1-372EnG</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Descrição vazia</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>4,4 de 5</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>695</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>['Com os Computadores Gamer com a marca ITX GAMER, você pode confiar, produzidos com o melhores componentes!', 'AMD Ryzen 5 5600G 3.9GHz, o melhor custo benefício do mercado!', 'Placa mãe AM4 A520', 'SSD 480GB 2.5" SATA III, Velocidade garantida para máxima performance!', 'Memória 16GB (2x8GB) DDR4 2666 Mhz']</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/514ovUqe33L._AC_SL1080_.jpg</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>3</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>665x821</t>
+        </is>
+      </c>
+      <c r="K32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>CPUs</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/b/ref=dp_bc_3?ie=UTF8&amp;node=16364819011</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Memória Patriot Viper Elite II 8GB 3200MHz Vermelho - PVE248G320C8.</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>R$169,90</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/M%C3%B3dulo-mem%C3%B3ria-%C3%BAnico-Patriot-Viper/dp/B0957WWDS1/ref=sr_1_32?dib=eyJ2IjoiMSJ9.4lxg96fImPbYWYX0dQ2FG64fDMwvIfKolDQxNmifPPr-xjF5Tz1DwzgafF2uliMbmRbtBEjJ9DVCpwqAsL-7PTg2NuKabvnL9D390Mpug4_mHyiYMKiEH6nueCyEeuOgBUB7tdQr9PJsZb-vZeVVF1lFrxQkV-ZJTh2EV9R1o9zrenOQtjhQ4xK_CfcSUg3YJ1fCQObgitjlWGVtSSwAYEcZc9-7z44WjPbVk78Jh8Y.Ezoytsmjp-vCfd7pJGmZ3Jq5jZCW2iTiHuRANUHH4qc&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745346670&amp;s=merchant-items&amp;sr=1-32&amp;ufe=app_do%3Aamzn1.fos.6121c6c4-c969-43ae-92f7-cc248fc6181d&amp;xpid=m2HGw1-372EnG</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Descrição vazia</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>4,6 de 5</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>1038</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>['Características - Marca: PATRIOT - Linha: Viper Elite II - Modelo: PVE248G320C8. Especificação Técnica - Memória 8Gb - DDR4 3200Mhz - Capacidade total: 8gb - Tecnologia: DDR4 - Formato: UDIMM - Velocidade: 3200MHz - Aplicação: Computador Desktop - Gamer: Sim - Compatível com Intel e AMD mais recentes - Pronto para as últimas tecnologias XMP - Dissipador com Desempenho Parrudo e de Alta Qualidade - Dimensões: Altura: 0,6 cm Largura: 0,05 cm Comprimento: 0,16 cm']</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/519ZfQB0NSS._AC_SL1200_.jpg</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>7</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>1124x334</t>
+        </is>
+      </c>
+      <c r="K33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Memória</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/b/ref=dp_bc_3?ie=UTF8&amp;node=16364809011</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>SSD ALLTEK 512GB SATA III</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>R$229,90</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/SSD-ALLTEK-512GB-SATA-III/dp/B0D4YCWVX6/ref=sr_1_33?dib=eyJ2IjoiMSJ9.kgs3n90sVq_6APEZig8Wo_LAdd-bHEsSZ3_cj0Q0jWABB5w4fkAS0lnXHoo3eadI57u47sQp1Kg7AUth0a6zDi2ObhxAsMJVK9iWnFb5M-0gIsJnvSdi03K18I-bGwQQx1xwK6o8JubdQAbdEUV2zndplPJYrY3-LsjNAd6yBqC5O6L1wCt3UXVQJ9ug4cFwa4P7L7MgI0ibkKkucb7fUivDOt-iCElScpjpkQckcWE.Ge3JORU9zvnjq2FAg3YiY1JbGtohgGf4tGH6xVLx7H8&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745347140&amp;s=merchant-items&amp;sr=1-33&amp;ufe=app_do%3Aamzn1.fos.a492fd4a-f54d-4e8d-8c31-35e0a04ce61e&amp;xpid=m2HGw1-372EnG</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Deixe seu laptop ou PC antigo atualizado com a unidade de estado sólido (SSD) SSD ALLTEK 2.5 SATA III (6 Gbs). Você poderá aproveitar o dia a dia com velocidades rápidas de até 550 MB / s de leitura, 500MB / s de gravação, tempos de resposta de aplicativos e melhor desempenho geral para jogos, edição de fotos e vídeos ou outros aplicativos multimídia.</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>5 de 5</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>5</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>['Interface: SATA III', 'Leitura: 550MB/s', 'Gravação: 500MB/s']</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/61ghf7XM+rL._AC_SL1000_.jpg</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>7</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>902x640</t>
+        </is>
+      </c>
+      <c r="K34" t="b">
+        <v>0</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Unidades Internas SSD</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/b/ref=dp_bc_4?ie=UTF8&amp;node=16364782011</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Processador Intel Core i5-12400 2.5 GHz (Turbo 4.4 GHZ) Cache 18MB 6 Núcleos 12 Threads 12ª GER LGA 1700 BX8071512400 - Intel</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>R$1.097,00</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Processador-Intel-i5-12400-N%C3%BAcleos-BX8071512400/dp/B09MDH6B1P/ref=sr_1_34?dib=eyJ2IjoiMSJ9.kgs3n90sVq_6APEZig8Wo_LAdd-bHEsSZ3_cj0Q0jWABB5w4fkAS0lnXHoo3eadI57u47sQp1Kg7AUth0a6zDi2ObhxAsMJVK9iWnFb5M-0gIsJnvSdi03K18I-bGwQQx1xwK6o8JubdQAbdEUV2zndplPJYrY3-LsjNAd6yBqC5O6L1wCt3UXVQJ9ug4cFwa4P7L7MgI0ibkKkucb7fUivDOt-iCElScpjpkQckcWE.Ge3JORU9zvnjq2FAg3YiY1JbGtohgGf4tGH6xVLx7H8&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745347140&amp;s=merchant-items&amp;sr=1-34&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147&amp;xpid=m2HGw1-372EnG</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>PROCESSADOR INTEL CORE I5-12400 2.50GHZ 18MB DDR4/5 FCLGA1700 BX8071512400-99ATJ6</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>4,8 de 5</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>843</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>['6-Cores, 12 Threads', 'Frequência Turbo Máxima de 4.40GHz', 'Frequência base do núcleo de desempenho 2.50GHz', 'Cache inteligente Intel de 18MB', 'Cachê L2 7.5 MB']</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51DY7a--LrL._AC_SL1280_.jpg</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>4</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>854x918</t>
+        </is>
+      </c>
+      <c r="K35" t="b">
+        <v>0</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>CPUs</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/b/ref=dp_bc_3?ie=UTF8&amp;node=16364803011</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>PROCESSADOR AMD RYZEN 7 5700 3.7GHz (MAX TURBO 4.6GHz) 16MB CACHE AM4 100-100000743BOX</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>R$1.239,00</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Processador-AMD-Ryzen-5700-Threads/dp/B0CQ4HPJYV/ref=sr_1_35?dib=eyJ2IjoiMSJ9.kgs3n90sVq_6APEZig8Wo_LAdd-bHEsSZ3_cj0Q0jWABB5w4fkAS0lnXHoo3eadI57u47sQp1Kg7AUth0a6zDi2ObhxAsMJVK9iWnFb5M-0gIsJnvSdi03K18I-bGwQQx1xwK6o8JubdQAbdEUV2zndplPJYrY3-LsjNAd6yBqC5O6L1wCt3UXVQJ9ug4cFwa4P7L7MgI0ibkKkucb7fUivDOt-iCElScpjpkQckcWE.Ge3JORU9zvnjq2FAg3YiY1JbGtohgGf4tGH6xVLx7H8&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745347140&amp;s=merchant-items&amp;sr=1-35&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147&amp;xpid=m2HGw1-372EnG</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>processador ryzen 7 5700 amd am4 8 cores 16 threads 4.6ghz sem vídeo wraith stealth - 100-100000743box o processador ryzen 7 possui desempenho impressionante e características avançadas, com o encaixe am4, ele oferece uma arquitetura eficiente que permite uma experiência eficaz. Possui uma velocidade de clock impressionante de 3.7ghz, que pode ser impulsionada para até 4.6ghz, o ryzen 7 5700 proporciona uma execução ágil de tarefas, garantindo rapidez e responsividade em diversas aplicações. é equipado com o eficiente sistema de resfriamento wraith stealth, oferece desempenho excepcional e temperaturas controladas. o cache de 20mb contribui para uma operação eficiente de dados, acelerando a resposta do processador às demandas do sistema. Equipado com 8 núcleos de cpu e 16 threads, o ryzen 7 5700 oferece um desempenho de multitarefa excepcional, permitindo a execução simultânea de várias aplicações de forma suave e eficiente. A tecnologia pcie 3.0 proporciona largura de banda para transferência de dados mais rápida entre o processador e outros componentes do sistema, otimizando o desempenho global. características processador amd ryzen 7 5700 4.6ghz am4 8 cores 16 threads wraith stealth - marca: amd - modelo: 100-100000743box</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>4,6 de 5</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>401</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>['Processador AMD Ryzen 7 5700 Box (AM4/8 Cores/16 Threads/4.6GHz/20MB Cache/Wraith Spire/Sem Video)']</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/71jxHGiiiNL._AC_SL1500_.jpg</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
         <v>1</v>
       </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>410x362</t>
-        </is>
-      </c>
-      <c r="K18" t="b">
-        <v>0</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>Porta-Retratos de Mesa e Parede</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>2719</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>https://www.amazon.com.br/b/ref=dp_bc_5?ie=UTF8&amp;node=17100787011</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>WayTechBr</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>17/04/2025</t>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>1500x1189</t>
+        </is>
+      </c>
+      <c r="K36" t="b">
+        <v>0</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>CPUs</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/b/ref=dp_bc_3?ie=UTF8&amp;node=16364803011</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Fonte Cougar Atlas 750W 80 Plus Bronze PFC Ativo</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>R$397,00</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Fonte-Cougar-Atlas-Bronze-Ativo/dp/B0BZT4VXL4/ref=sr_1_36?dib=eyJ2IjoiMSJ9.kgs3n90sVq_6APEZig8Wo_LAdd-bHEsSZ3_cj0Q0jWABB5w4fkAS0lnXHoo3eadI57u47sQp1Kg7AUth0a6zDi2ObhxAsMJVK9iWnFb5M-0gIsJnvSdi03K18I-bGwQQx1xwK6o8JubdQAbdEUV2zndplPJYrY3-LsjNAd6yBqC5O6L1wCt3UXVQJ9ug4cFwa4P7L7MgI0ibkKkucb7fUivDOt-iCElScpjpkQckcWE.Ge3JORU9zvnjq2FAg3YiY1JbGtohgGf4tGH6xVLx7H8&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745347140&amp;s=merchant-items&amp;sr=1-36&amp;ufe=app_do%3Aamzn1.fos.4bb5663b-6f7d-4772-84fa-7c7f565ec65b&amp;xpid=m2HGw1-372EnG</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Marca: Cougar
+Modelo: 31AT075003P01
+Especificações:
+Entrada AC: 100 ~ 240 (50 ~ 60 Hz 10/5A )
+Potência total de saída: 750W
+Certificação: 80 PLUS
+Conector:
+Principal de 24 (20 + 4) pinos: 1
+CPU de 8 (4 + 4) pinos: 2
+Periféricos de 4 pinos: 3
+SATA de 5 pinos: 8
+PCI-E de 8 (6 + 2) pinos: 4
+Funções de segurança
+UVP (proteção contra subtensão)
+Se as tensões caírem abaixo de um certo valor de tolerância nas linhas simples, a PSU
+desliga automaticamente.
+OVP (proteção contra sobretensão)
+Se as tensões aumentarem acima de um determinado valor de tolerância nas linhas simples, a PSU
+desliga automaticamente.
+SCP (Proteção contra curto-circuito)
+No caso de um curto-circuito, esse recurso evita danos aos componentes principais
+da PSU e seus componentes do sistema.
+OPP (proteção contra sobrecarga)
+Se o sistema for superdimensionado e exigir mais energia da PSU do que pode
+executar, esta função de proteção é ativada.
+OCP (proteção contra sobrecorrente)
+Se a corrente em uma única linha for maior que a indicada, a PSU desliga automaticamente
+Conteúdo da Embalagem:
+Fonte Cougar ATLAS CGR BA-750, 750W
+Cabo de energia
+Pacote com parafusos e abraçadeiras
+Guia rápido do usuário
+Garantia 12 Meses Fabricante</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>4,3 de 5</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>19</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>['Bullet points não encontrados']</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/61yE+RiSo1L._AC_SL1200_.jpg</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>7</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>1097x868</t>
+        </is>
+      </c>
+      <c r="K37" t="b">
+        <v>0</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Fontes de Alimentação</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Fontes-Alimentacao/b/ref=dp_bc_3?ie=UTF8&amp;node=16364806011</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Placa Mãe Gigabyte A620M H, DDR5, mATX, AM5, M.2 NVME, Displayport/HDMI</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>R$779,90</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Placa-Gigabyte-A620M-DDR5-Displayport/dp/B0C9R3VLW4/ref=sr_1_37?dib=eyJ2IjoiMSJ9.kgs3n90sVq_6APEZig8Wo_LAdd-bHEsSZ3_cj0Q0jWABB5w4fkAS0lnXHoo3eadI57u47sQp1Kg7AUth0a6zDi2ObhxAsMJVK9iWnFb5M-0gIsJnvSdi03K18I-bGwQQx1xwK6o8JubdQAbdEUV2zndplPJYrY3-LsjNAd6yBqC5O6L1wCt3UXVQJ9ug4cFwa4P7L7MgI0ibkKkucb7fUivDOt-iCElScpjpkQckcWE.Ge3JORU9zvnjq2FAg3YiY1JbGtohgGf4tGH6xVLx7H8&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745347140&amp;s=merchant-items&amp;sr=1-37&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147&amp;xpid=m2HGw1-372EnG</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Descrição vazia</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>3,3 de 5</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>6</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>['Bullet points não encontrados']</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/618898zK+NL._AC_SL1000_.jpg</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>5</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>982x624</t>
+        </is>
+      </c>
+      <c r="K38" t="b">
+        <v>0</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Placas-Mãe</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Placas-maes/b/ref=dp_bc_3?ie=UTF8&amp;node=16364815011</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Placa Mãe MSI PRO Z790-A MAX WIFI7 (LGA 1700/4xDDR5/HDMI/DisplayPort/M.2/USB 3.2)</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>R$2.479,00</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Placa-MSI-Z790-4xDDR5-DisplayPort/dp/B0CJYBQH2G/ref=sr_1_38?dib=eyJ2IjoiMSJ9.kgs3n90sVq_6APEZig8Wo_LAdd-bHEsSZ3_cj0Q0jWABB5w4fkAS0lnXHoo3eadI57u47sQp1Kg7AUth0a6zDi2ObhxAsMJVK9iWnFb5M-0gIsJnvSdi03K18I-bGwQQx1xwK6o8JubdQAbdEUV2zndplPJYrY3-LsjNAd6yBqC5O6L1wCt3UXVQJ9ug4cFwa4P7L7MgI0ibkKkucb7fUivDOt-iCElScpjpkQckcWE.Ge3JORU9zvnjq2FAg3YiY1JbGtohgGf4tGH6xVLx7H8&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745347140&amp;s=merchant-items&amp;sr=1-38&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147&amp;xpid=m2HGw1-372EnG</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>PLACA MAE MSI PRO Z790-A MAX WIFI INTEL LGA 1700 911-7E07-014</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>4,3 de 5</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>90</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>['Placa Mãe MSI PRO Z790-A MAX WIFI7 (LGA 1700/4xDDR5/HDMI/DisplayPort/M.2/USB 3.2) Formato: ATX Socket: LGA 1700 Chipset: Intel Z790 Memória: 4 slots DDR5, até 7800+ MHz (OC) Armazenamento: 4 slots M.2, 6 portas SATA 6Gb/s Áudio: High Definition Audio, ALC4080 Rede: 2.5G LAN, Wi-Fi 7 Portas USB: 4x USB 3.2 Gen 2x2, 4x USB 2.0 Gráficos: 1x HDMI 2.1, 1x DisplayPort 1.4']</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/81PagkRvhwL._AC_SL1500_.jpg</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>7</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>1500x1118</t>
+        </is>
+      </c>
+      <c r="K39" t="b">
+        <v>0</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Placas-Mãe</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Placas-maes/b/ref=dp_bc_3?ie=UTF8&amp;node=16364815011</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Notebook Gamer Gigabyte Aorus 15 XE4-73BR514SH (Core i7/12700H/16GB DDR4/ 1TB SSD/Win 11 Home/Tela 15,6 Full HD)</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>R$14.999,00</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Notebook-Gamer-Gigabyte-XE4-73BR514SH-12700H/dp/B0D6RX963W/ref=sr_1_39?dib=eyJ2IjoiMSJ9.kgs3n90sVq_6APEZig8Wo_LAdd-bHEsSZ3_cj0Q0jWABB5w4fkAS0lnXHoo3eadI57u47sQp1Kg7AUth0a6zDi2ObhxAsMJVK9iWnFb5M-0gIsJnvSdi03K18I-bGwQQx1xwK6o8JubdQAbdEUV2zndplPJYrY3-LsjNAd6yBqC5O6L1wCt3UXVQJ9ug4cFwa4P7L7MgI0ibkKkucb7fUivDOt-iCElScpjpkQckcWE.Ge3JORU9zvnjq2FAg3YiY1JbGtohgGf4tGH6xVLx7H8&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745347140&amp;s=merchant-items&amp;sr=1-39&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147&amp;xpid=m2HGw1-372EnG</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Notebook Gamer Gigabyte Aorus 15 XE4-73BR514SH: Similar ao modelo Aorus 15 Preto, mas com um processador Core i7 12700H e 16GB de memória DDR4. Possui uma tela Full HD de 15.6 polegadas.</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Sem avaliação</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>['Notebook Gamer Gigabyte Aorus 15 XE4-73BR514SH: Similar ao modelo Aorus 15 Preto, mas com um processador Core i7 12700H e 16GB de memória DDR4. Possui uma tela Full HD de 15.6 polegadas.']</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/41MGhXXpt0L._AC_SX679_.jpg</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>5</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="b">
+        <v>0</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Laptops Tradicionais</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>Indisponível</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Laptops-Tradicionais/b/ref=dp_bc_3?ie=UTF8&amp;node=24088200011</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Processador Intel i7-14700KF LGA1700 BX8071514700KF</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>R$2.899,90</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Processador-Intel-14700KF-Threads-5-6GHz/dp/B0C948QQWF/ref=sr_1_40?dib=eyJ2IjoiMSJ9.kgs3n90sVq_6APEZig8Wo_LAdd-bHEsSZ3_cj0Q0jWABB5w4fkAS0lnXHoo3eadI57u47sQp1Kg7AUth0a6zDi2ObhxAsMJVK9iWnFb5M-0gIsJnvSdi03K18I-bGwQQx1xwK6o8JubdQAbdEUV2zndplPJYrY3-LsjNAd6yBqC5O6L1wCt3UXVQJ9ug4cFwa4P7L7MgI0ibkKkucb7fUivDOt-iCElScpjpkQckcWE.Ge3JORU9zvnjq2FAg3YiY1JbGtohgGf4tGH6xVLx7H8&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745347140&amp;s=merchant-items&amp;sr=1-40&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147&amp;xpid=m2HGw1-372EnG</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>PROCESSADOR INTEL CORE I7-14700KF 3.40GHZ 33MB DDR4/5 FCLGA1700 BX8071514700KF-99CFXX</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>4,6 de 5</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>400</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>['Processador']</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/41G2QJOwAYL._AC_SL1280_.jpg</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>736x720</t>
+        </is>
+      </c>
+      <c r="K41" t="b">
+        <v>0</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>CPUs</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/b/ref=dp_bc_3?ie=UTF8&amp;node=16364803011</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>PLACA MAE Z790 AORUS ELITE AX DDR5 CHIPSET INTEL Z790 LGA 1700 13ª E 12ª GERACAO - Z790 AUROS ELITE AX</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>R$2.549,00</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Placa-Gigabyte-Z790-AX-LGA1700/dp/B0BH28M64J/ref=sr_1_41?dib=eyJ2IjoiMSJ9.kgs3n90sVq_6APEZig8Wo_LAdd-bHEsSZ3_cj0Q0jWABB5w4fkAS0lnXHoo3eadI57u47sQp1Kg7AUth0a6zDi2ObhxAsMJVK9iWnFb5M-0gIsJnvSdi03K18I-bGwQQx1xwK6o8JubdQAbdEUV2zndplPJYrY3-LsjNAd6yBqC5O6L1wCt3UXVQJ9ug4cFwa4P7L7MgI0ibkKkucb7fUivDOt-iCElScpjpkQckcWE.Ge3JORU9zvnjq2FAg3YiY1JbGtohgGf4tGH6xVLx7H8&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745347140&amp;s=merchant-items&amp;sr=1-41&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147&amp;xpid=m2HGw1-372EnG</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>PLACA MAE Z790 AORUS ELITE AX DDR5 CHIPSET INTEL Z790 LGA 1700 13ª E 12ª GERACAO - Z790 AUROS ELITE AX</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>4,4 de 5</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>433</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>['Z790 A ELITE AX I']</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/61T1P18owDL._AC_SL1000_.jpg</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>6</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>974x675</t>
+        </is>
+      </c>
+      <c r="K42" t="b">
+        <v>0</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Placas-Mãe</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>598</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Placas-maes/b/ref=dp_bc_3?ie=UTF8&amp;node=16364815011</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Cougar Mouse para jogos Minos XC 4000 DPI com sensor óptico com luz de fundo LED inclui velocidade XC MM mouse pad</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>R$108,00</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Combo-Gamer-Mouse-XC-Mousepad/dp/B07Z2446K9/ref=sr_1_42?dib=eyJ2IjoiMSJ9.kgs3n90sVq_6APEZig8Wo_LAdd-bHEsSZ3_cj0Q0jWABB5w4fkAS0lnXHoo3eadI57u47sQp1Kg7AUth0a6zDi2ObhxAsMJVK9iWnFb5M-0gIsJnvSdi03K18I-bGwQQx1xwK6o8JubdQAbdEUV2zndplPJYrY3-LsjNAd6yBqC5O6L1wCt3UXVQJ9ug4cFwa4P7L7MgI0ibkKkucb7fUivDOt-iCElScpjpkQckcWE.Ge3JORU9zvnjq2FAg3YiY1JbGtohgGf4tGH6xVLx7H8&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745347140&amp;s=merchant-items&amp;sr=1-42&amp;ufe=app_do%3Aamzn1.fos.6d798eae-cadf-45de-946a-f477d47705b9&amp;xpid=m2HGw1-372EnG</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Descrição vazia</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>4,7 de 5</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>26</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>['Sensor óptico de jogos ADNS-3050, resolução de 4000 DPI', 'Resolução: 500/1000/1500/2000/3000/4000 DPI', 'Design ergonômico orientado a FPS', 'Interface USB, comprimento do cabo 1,8 m', 'Incluído na caixa está um mouse pad Speed XC MM. Dimensões 260 (L) x 210 (C) mm (10,24 (L) x 21,27 (L) pol).']</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/61guWdcxWQL._AC_SL1200_.jpg</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>6</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>1129x715</t>
+        </is>
+      </c>
+      <c r="K43" t="b">
+        <v>0</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Mouses</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>1158</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Mouses/b/ref=dp_bc_4?ie=UTF8&amp;node=16364917011</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Processador Intel Core I5-13400, 4.6GHz, LGA 1700, BX8071513400 *</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>R$1.318,00</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Intel-i5-13400-2-5GHz-Processador-Desktop/dp/B0BN68JXR2/ref=sr_1_43?dib=eyJ2IjoiMSJ9.kgs3n90sVq_6APEZig8Wo_LAdd-bHEsSZ3_cj0Q0jWABB5w4fkAS0lnXHoo3eadI57u47sQp1Kg7AUth0a6zDi2ObhxAsMJVK9iWnFb5M-0gIsJnvSdi03K18I-bGwQQx1xwK6o8JubdQAbdEUV2zndplPJYrY3-LsjNAd6yBqC5O6L1wCt3UXVQJ9ug4cFwa4P7L7MgI0ibkKkucb7fUivDOt-iCElScpjpkQckcWE.Ge3JORU9zvnjq2FAg3YiY1JbGtohgGf4tGH6xVLx7H8&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745347140&amp;s=merchant-items&amp;sr=1-43&amp;ufe=app_do%3Aamzn1.fos.a492fd4a-f54d-4e8d-8c31-35e0a04ce61e&amp;xpid=m2HGw1-372EnG</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Processador para desktop Intel Core i5-13400 de 13ª geração. Apresentando suporte PCIe 5.0 e 4.0, suporte DDR5 e DDR4 Os processadores para desktop Intel Core i5 de 13ª geração são otimizados para jogadores e produtividade e ajudam a oferecer entregas de alto desempenho. Compatível com placas-mãe com base em chipset Intel Série 700 e Intel Série 600. Potência de base do processador 65W. INFORMAÇÕES TÉCNICAS Características - Marca: Intel - Modelo: BX8071513400</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>4,6 de 5</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>144</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>['Especificações - Marca: Intel - Modelo: BX8071513400 - Soquete: LGA 1700 - Frequência de Base P-core (GHz): 2,5 - Frequência de Base E-core (GHz): 1,8 - Tamanho do Smart Cache Intel (L3): 20MB - Cache Total L2: 9.5MB - Cores do Processador (P-cores + E-cores): 10 (6P+4E) - Threads do Processador: 16 - Velocidade Máxima de Memória (MT/s): DDR5 4800 | DDR4 3200 - Frequência da Intel Thermal Velocity Boost (GHz): N/A - Frequência da Tecnologia Intel Turbo Boost Max 3.0 (GHz): N/A - Frequência P-core Max Turbo (GHz): Até 4.6 - Frequência E-core Max Turbo (GHz): Até 3.3 - Linhas de CPU PCIe: 20', '- Desbloqueado: Não - Compatibilidade do Chipset: Chipset Intel Série 700 | Chipset Intel Série 600 - Gráficos do Processador: Intel UHD gráficos 730 - Canais de Memória: 2 - Capacidade Máxima de Memória: 128GB - Potência Base do Processador (W): 65 - Potência Turbo Máxima (W): 148 - Confiabilidade Disponibilidade e Serviços: N/A - Intel SIPP3: N/A - Intel Tecnologia vPro 4,5": N/A - ISM4: Sim', 'Placas-mãe compatíveis - Placas-mãe com base em chipset Intel Série 700 - Placas-mãe com base em chipset Intel Série 600']</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/41yJSkT2CDL._AC_SL1080_.jpg</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>7</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>644x733</t>
+        </is>
+      </c>
+      <c r="K44" t="b">
+        <v>0</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>CPUs</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/b/ref=dp_bc_3?ie=UTF8&amp;node=16364803011</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Placa de Vídeo PNY RTX 4060 Verto 2x, 8GB, DDR6 - VCG40608DFXPB1-O Dual Fan DLSS 3 (128 bits, PCIe 4.0, GDDR6, HDMI/DisplayPort, suporta 4K, 2 compartimentos)</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>R$2.499,00</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/PNY-Placa-gr%C3%A1fica-GeForce-RTXTM/dp/B0C8Y619R1/ref=sr_1_44?dib=eyJ2IjoiMSJ9.kgs3n90sVq_6APEZig8Wo_LAdd-bHEsSZ3_cj0Q0jWABB5w4fkAS0lnXHoo3eadI57u47sQp1Kg7AUth0a6zDi2ObhxAsMJVK9iWnFb5M-0gIsJnvSdi03K18I-bGwQQx1xwK6o8JubdQAbdEUV2zndplPJYrY3-LsjNAd6yBqC5O6L1wCt3UXVQJ9ug4cFwa4P7L7MgI0ibkKkucb7fUivDOt-iCElScpjpkQckcWE.Ge3JORU9zvnjq2FAg3YiY1JbGtohgGf4tGH6xVLx7H8&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745347140&amp;s=merchant-items&amp;sr=1-44&amp;ufe=app_do%3Aamzn1.fos.a492fd4a-f54d-4e8d-8c31-35e0a04ce61e&amp;xpid=m2HGw1-372EnG</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Descubra a Placa de Vídeo PNY RTX 4060 Verto, com 8GB de memória DDR6 e design com 2 ventoinhas para refrigeração eficiente. Ideal para gamers e profissionais, ela oferece alta performance, suporte ao ray tracing e renderização avançada, garantindo imagens realistas e desempenho robusto em jogos e aplicações gráficas. Uma solução inovadora e confiável para elevar seu setup a um novo patamar.</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>4,5 de 5</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>283</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>['Alimentado por NVIDIA DLSS 3, arco Ada Lovelace ultraeficiente e traçado de raios completo', 'NVIDIA Ada Lovelace, com relógio central de 1830 MHz e velocidade de clock de aumento de 2460 MHz para ajudar a atender às necessidades de jogos exigentes.', 'Memória integrada de 8 GB GDDR6 (128 bits), mais núcleos de processamento CUDA 3072 e até 272 GB/seg de largura de banda de memória fornecem a memória necessária para criar um realismo visual impressionante.', 'Interface PCI Express 4.0 x 16 com - Oferece compatibilidade com uma variedade de sistemas. Também inclui saídas DisplayPort e HDMI para conectividade expandida.', 'Projetado para máxima eficiência de resfriamento, possui dois ventiladores de 90 mm, dissipador de calor com aletas densas e 2 tubos de calor. A base de cobre faz contato direto com a GPU para transferência de calor superior, enquanto uma placa traseira de alumínio melhora a integridade estrutural e o fluxo de ar.', 'PCI-Express 4.0 x16 (x8 Active)']</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/61r58FqSbtL._AC_SL1016_.jpg</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>4</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>906x794</t>
+        </is>
+      </c>
+      <c r="K45" t="b">
+        <v>0</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Placas de Vídeo</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Placas-Video/b/ref=dp_bc_3?ie=UTF8&amp;node=16364811011</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Mouse Cougar Optical Minos X2 / ADNS3050 / 3000 dpi - PN # 3MMX2WOB.0001</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>R$99,99</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Mouse-Cougar-Optical-Minos-ADNS3050/dp/B073R559TB/ref=sr_1_45?dib=eyJ2IjoiMSJ9.kgs3n90sVq_6APEZig8Wo_LAdd-bHEsSZ3_cj0Q0jWABB5w4fkAS0lnXHoo3eadI57u47sQp1Kg7AUth0a6zDi2ObhxAsMJVK9iWnFb5M-0gIsJnvSdi03K18I-bGwQQx1xwK6o8JubdQAbdEUV2zndplPJYrY3-LsjNAd6yBqC5O6L1wCt3UXVQJ9ug4cFwa4P7L7MgI0ibkKkucb7fUivDOt-iCElScpjpkQckcWE.Ge3JORU9zvnjq2FAg3YiY1JbGtohgGf4tGH6xVLx7H8&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745347140&amp;s=merchant-items&amp;sr=1-45&amp;ufe=app_do%3Aamzn1.fos.6d798eae-cadf-45de-946a-f477d47705b9&amp;xpid=m2HGw1-372EnG</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Mouse Cougar Optical Minos X2 / ADNS3050 / 3000 dpi - PN 3MMX2WOB.0001. Descubra nossa gama de produtos. Cougar é um parceiro confiável, você pode confiar!</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>4,3 de 5</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>26</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>['Mouse Gamer Cougar Minos X2 - 3000 DPI Ajustável - Iluminção LED em 3 Zonas - USB - CGR-WOSB-MX2', 'Os seis níveis predefinidos de DPI 500/1000/1500/2000/3000 podem ser selecionados usando um botão dedicado', 'Alterne as taxas de pesquisa 125 / 1000Hz facilmente com o Minos X2 para se adequar às suas preferências pessoais e requisitos de hardware', 'Fabricado com muito cuidado e atenção aos detalhes']</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/71OcRhxqPwL._AC_SL1500_.jpg</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>7</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>1500x1257</t>
+        </is>
+      </c>
+      <c r="K46" t="b">
+        <v>0</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Mouses</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>813</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Mouses/b/ref=dp_bc_4?ie=UTF8&amp;node=16364917011</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>COUGAR Gabinete Gamer Duoface RGB, Vidro Temperado, E-ATX, 3x Fans ARGB, Branco, 385ZD10.0003</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>R$449,00</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/COUGAR-Gabinete-Duoface-Temperado-385ZD10-0003/dp/B0CBSMTG6N/ref=sr_1_46?dib=eyJ2IjoiMSJ9.kgs3n90sVq_6APEZig8Wo_LAdd-bHEsSZ3_cj0Q0jWABB5w4fkAS0lnXHoo3eadI57u47sQp1Kg7AUth0a6zDi2ObhxAsMJVK9iWnFb5M-0gIsJnvSdi03K18I-bGwQQx1xwK6o8JubdQAbdEUV2zndplPJYrY3-LsjNAd6yBqC5O6L1wCt3UXVQJ9ug4cFwa4P7L7MgI0ibkKkucb7fUivDOt-iCElScpjpkQckcWE.Ge3JORU9zvnjq2FAg3YiY1JbGtohgGf4tGH6xVLx7H8&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745347140&amp;s=merchant-items&amp;sr=1-46&amp;ufe=app_do%3Aamzn1.fos.e05b01e0-91a7-477e-a514-15a32325a6d6&amp;xpid=m2HGw1-372EnG</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Duoface RGB é uma combinação de elegância e desempenho de refrigeração..Com dois painéis frontais distintos, um para deslumbrantes efeitos de iluminação RGB;.o outro para fluxo de ar superior e desempenho de resfriamento otimizado..Além disso, também inclui duas enormes ventoinhas ARGB de 140 mm, uma ventoinha ARGB de 120 mm e um logotipo destacado parãoferecer controle de iluminação avançado. - ESTÉTICA e FUNCIONAL - O inovador filtro de pó de deslizamento rápido é um recurso altamente funcional que se funde esteticamente..O design elegante nas bordas oferece exclusividade que ninguém pode comparar..Você pode deslizar facilmente o filtro de poeira sem remover o painel frontal. ILUMINAÇÃO RGB INCRÍVEL O Duoface RGB possui duas enormes ventoinhas ARGB de 140 mm, uma ventoinha ARGB de 120 mm e um logotipo destacado..Você pode controlar vários efeitos de iluminação incríveis com o botão RGB dedicado..O controlador de LED embutido é compatível com a conexão 5V ARGB das placas-mãe para sincronização de iluminação em todo o sistema. DESEMPENHO DE RESFRIAMENTO IMBATÍVEL O painel de fluxo de ar é forjado em metal premium e perfurado com orifícios de 5,0 mm de diâmetro..Fornecendo ampla entrada de ar fresco que oferece desempenho de resfriamento imbatível. - - Marca: Cougar - - Modelo: 385ZD10.0003 - Cor: Branco - Painel frontal: Vidro temperado e painel de fluxo de ar Painel lateral: Vidro temperado Painel de E/S: 2x USB 3.0 - 1x USB 2.0 - fone de ouvido de 4 polos - 1x Conector de áudio - botão RGB Material do filtro de poeira deslizante frontal: Metal - Fans pré-instaladas: Frontal 2x Fans ARGB 140mm - Traseira 1x Fan ARGB 120mm Suporte placa mãe: Mini ITX / Micro ATX / ATX / CEB / E-ATX Dimensões: 230 x 491 x 386 (mm) Baias: 3,5‘ 2x - 2,5‘ 2x (2 bandeijas SSD incluídas) Slots de expansão: 7+3 Suporte para fans: Frente 2x 120mm / 2x 140mm - Topo 2x 120mm / 2x 140mm - Traseira 1x 120mm / 1x 140mm - Número máximo de fans: 5 - Suporte para water cooler: Frente.280mm / 240mm / 140mm / 120mm - Topo.280mm / 240mm / 140mm / 120mm - Traseira 120mm / 140mm - Máx..Comprimento da placa gráfica: 330 (mm) Máx. Altura do cooler da CPU: 190mm - Máx. comprimento da fonte de alimentação: 160mm.</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>5 de 5</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>11</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>['ESTÉTICA E FUNCIONAL', 'ILUMINAÇÃO RGB INCRÍVEL', 'DESEMPENHO DE RESFRIAMENTO IMBATÍVEL', 'Cougar Scatola Semitorre Duoface Rgb White']</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/61XMlVuwF7L._AC_SL1500_.jpg</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>4</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>692x1164</t>
+        </is>
+      </c>
+      <c r="K47" t="b">
+        <v>0</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Gabinetes de Computador</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Gabinetes-Computador/b/ref=dp_bc_3?ie=UTF8&amp;node=16364807011</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Placa Mãe Gigabyte B760 Aorus Master, Ddr4, Atx, Lga1700</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>R$1.749,90</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Placa-Gigabyte-B760-Master-Lga1700/dp/B0BPMH6ZV5/ref=sr_1_47?dib=eyJ2IjoiMSJ9.kgs3n90sVq_6APEZig8Wo_LAdd-bHEsSZ3_cj0Q0jWABB5w4fkAS0lnXHoo3eadI57u47sQp1Kg7AUth0a6zDi2ObhxAsMJVK9iWnFb5M-0gIsJnvSdi03K18I-bGwQQx1xwK6o8JubdQAbdEUV2zndplPJYrY3-LsjNAd6yBqC5O6L1wCt3UXVQJ9ug4cFwa4P7L7MgI0ibkKkucb7fUivDOt-iCElScpjpkQckcWE.Ge3JORU9zvnjq2FAg3YiY1JbGtohgGf4tGH6xVLx7H8&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745347140&amp;s=merchant-items&amp;sr=1-47&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147&amp;xpid=m2HGw1-372EnG</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>PLACA MAE GIGABYTE B760 AORUS MASTER LGA1700 DDR4 ATX</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>4,1 de 5</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>6</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>['DESEMPENHO INIGUALÁVEL Com as rápidas mudanças tecnológicas, a GIGABYTE sempre segue as últimas tendências e fornece aos clientes recursos avançados e tecnologias mais recentes. As placas-mãe GIGABYTE são equipadas com solução de energia atualizada, os mais recentes padrões de armazenamento e excelente conectividade para permitir desempenho otimizado para jogos.', 'DESIGN TÉRMICO EXCEPCIONAL O desempenho inigualável das placas-mãe GIGABYTE é garantido por um design térmico inovador e otimizado para garantir a melhor estabilidade de CPU, Chipset, SSD e baixas temperaturas sob carga total de aplicativos e desempenho de jogos.', 'CONECTIVIDADE As placas-mãe GIGABYTE permitem a melhor experiência de conexão com velocidades incríveis de transferência de dados através da próxima geração de rede e armazenamento.', 'PERSONALIZAÇÃO As placas-mãe GIGABYTE agrupam vários softwares úteis e intuitivos para ajudar os usuários a controlar todos os aspectos da placa-mãe e fornecer efeitos de iluminação personalizáveis com estética excepcional para se adequar à sua personalidade única.', 'ULTRA DURÁVEL O design GIGABYTE Ultra Durable fornece durabilidade do produto e processo de fabricação de alta qualidade. As placas-mãe GIGABYTE usam os melhores componentes e reforçam todos os slots para torná-los sólidos e duráveis.']</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/61ems1YI2yL._AC_SL1000_.jpg</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>6</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>948x619</t>
+        </is>
+      </c>
+      <c r="K48" t="b">
+        <v>0</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Placas-Mãe</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Placas-maes/b/ref=dp_bc_3?ie=UTF8&amp;node=16364815011</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Placa Mãe Asus PRIME B650M-A II (AM5/4xDDR5/HDMI/DisplayPort/VGA/M.2/USB 3.2)</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>R$1.199,90</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Placa-PRIME-B650M-4xDDR5-DisplayPort/dp/B0BSVDH6MH/ref=sr_1_48?dib=eyJ2IjoiMSJ9.kgs3n90sVq_6APEZig8Wo_LAdd-bHEsSZ3_cj0Q0jWABB5w4fkAS0lnXHoo3eadI57u47sQp1Kg7AUth0a6zDi2ObhxAsMJVK9iWnFb5M-0gIsJnvSdi03K18I-bGwQQx1xwK6o8JubdQAbdEUV2zndplPJYrY3-LsjNAd6yBqC5O6L1wCt3UXVQJ9ug4cFwa4P7L7MgI0ibkKkucb7fUivDOt-iCElScpjpkQckcWE.Ge3JORU9zvnjq2FAg3YiY1JbGtohgGf4tGH6xVLx7H8&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745347140&amp;s=merchant-items&amp;sr=1-48&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147&amp;xpid=m2HGw1-372EnG</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>A Asus PRIME B650M-A II é uma placa-mãe projetada para processadores AMD AM5, oferecendo desempenho confiável e recursos modernos. Com suporte a 4 slots DDR5, permite memória de alta velocidade e eficiência. Possui conectividade avançada com saídas HDMI, DisplayPort e VGA, além de múltiplos slots M.2 para armazenamento ultrarrápido. A interface USB 3.2 garante transferências rápidas de dados, tornando-a uma excelente escolha para usuários que buscam estabilidade e performance.</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>4,1 de 5</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>18</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>['Socket: AM5, compatível com processadores AMD Ryzen série 7000. Memória: 4 slots DDR5. Conectividade de Vídeo: HDMI, DisplayPort e VGA. Armazenamento: Slots M.2 para SSDs NVMe de alta velocidade. Portas: USB 3.2 para transferências rápidas. Formato: Micro-ATX, ideal para builds compactos.']</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/81bQ50S94gL._AC_SL1500_.jpg</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>6</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>1500x937</t>
+        </is>
+      </c>
+      <c r="K49" t="b">
+        <v>0</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Placas-Mãe</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Placas-maes/b/ref=dp_bc_3?ie=UTF8&amp;node=16364815011</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>MSI Placa mãe para jogos MPG B650 Edge WiFi (processadores AMD Ryzen 9000/8000/7000, AM5, ATX, DDR5, PCIe 4.0, M.2, SATA 6Gb/s, USB 3.2 Gen 2, HDMI/DP, Wi-Fi 6E, Bluetooth 5.3, ATX)</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>R$2.499,00</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/MSI-B650-Gaming-processadores-desktop/dp/B0BHCD117G/ref=sr_1_49?dib=eyJ2IjoiMSJ9.b2-OKt0Tq9qSRfyD3vNpHr-IPuSpVDXjMd8Fl804Oq-4sT84dOW3zPzS66FPdOnOsm9wvswI8JCCvFht3PfBjw.qHc7MukF6k-PgXLtrJ6J7VJXoNyv6eg6JOgQ8GuzFOQ&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745347546&amp;s=merchant-items&amp;sr=1-49&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147&amp;xpid=m2HGw1-372EnG</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>O MPG B650 EDGE WIFI emprega esquema de cores branco prateado para mostrar diferentes personalidades e identidades. Além de ser elegante, também é potente. A série MPG traz produtos modernos mostrando estilos extremamente exclusivos e expressando uma atitude presunçosa em relação ao desafio do mundo dos jogos. Com desempenho e estilo extraordinários, a série MPG define o futuro da moda de jogos.</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>4,2 de 5</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>172</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>['Suporta processadores de desktop AMD Ryzen 7000 Series', 'Suporta memória DDR5, até 6600 + (OC) MHz', 'Design de potência aprimorado: DRPS 14+2+1 VRM, Core Boost, Memory Boost', 'Solução térmica premium: dissipador de calor estendido, almofadas térmicas MOSFET classificadas para 7W/mK, almofadas térmicas adicionais de estrangulamento e M.2 Shield Frozr são construídas para sistema de alto desempenho e experiência de jogo sem parar', 'PCB de alta qualidade: PCB de 6 camadas feito de cobre espesso de 59 g e material de nível de servidor']</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/71ktIaXBbjL._AC_SL1200_.jpg</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>6</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>1200x880</t>
+        </is>
+      </c>
+      <c r="K50" t="b">
+        <v>0</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Placas-Mãe</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>Indisponível</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Placas-maes/b/ref=dp_bc_3?ie=UTF8&amp;node=16364815011</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>MSI Placa-mãe para jogos MAG B760 Tomahawk WiFi (suporta processadores Intel de 12ª/13ª geração, LGA 1700, DDR5, PCIe 5.0, M.2, LAN de 2,5 Gbps, USB 3.2 Gen2, Wi-Fi 6E, ATX)</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>R$1.889,00</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/MSI-Placa-m%C3%A3e-Tomahawk-suporta-processadores/dp/B0BRQV1P6M/ref=sr_1_50?dib=eyJ2IjoiMSJ9.b2-OKt0Tq9qSRfyD3vNpHr-IPuSpVDXjMd8Fl804Oq-4sT84dOW3zPzS66FPdOnOsm9wvswI8JCCvFht3PfBjw.qHc7MukF6k-PgXLtrJ6J7VJXoNyv6eg6JOgQ8GuzFOQ&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745347546&amp;s=merchant-items&amp;sr=1-50&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147&amp;xpid=m2HGw1-372EnG</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>A placa-mãe da série MAG luta ao lado dos jogadores em busca da honra. Com elementos de inspiração militar adicionais nesses produtos de jogos, eles renasceram como o símbolo de robustez e durabilidade. Dissipador de calor estendido aumenta a superfície de dissipação de calor, garantindo que até mesmo processadores de alta qualidade funcionem em velocidade total. O M.2 Shield Frozr mantém SSDs M.2 seguros enquanto evita o estrangulamento, fazendo com que eles funcionem mais rápido.</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>4,5 de 5</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>239</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>['Suporta processadores Intel Core de 12ª/13ª geração, Pentium Gold e Celeron para soquete LGA 1700', 'Suporta memória DDR5, até 7000 + (OC) MHz', 'Design de potência aprimorado: sistema de alimentação de trilho de dueto 12+1+1, conectores de alimentação duplos de CPU de 8 pinos, Core Boost, Memory Boost', 'Experiência de jogo rápido relâmpago: slot PCIe 5.0, Lightning Gen 4 x4 M.2, USB 3.2 Gen 2x2', 'Solução térmica premium: design de dissipador de calor estendido e M.2 Shield Frozr são construídos para sistemas de alto desempenho e trabalhos contínuos']</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/91IlCLWTLtL._AC_SL1500_.jpg</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>7</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>1500x1001</t>
+        </is>
+      </c>
+      <c r="K51" t="b">
+        <v>0</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Placas-Mãe</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>1039</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Placas-maes/b/ref=dp_bc_3?ie=UTF8&amp;node=16364815011</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Notebook Gigabyte G5 ME (Core i5 / 12500H / RTX 3050Ti 4GB/ 16G DDR4 / 512GB SSD/Tela 15.6 FHD 144Hz/ Win 11) Preto</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>R$6.339,90</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Notebook-Gigabyte-G5-Intel-GeForce/dp/B0C7LMYMCH/ref=sr_1_51?dib=eyJ2IjoiMSJ9.b2-OKt0Tq9qSRfyD3vNpHr-IPuSpVDXjMd8Fl804Oq-4sT84dOW3zPzS66FPdOnOsm9wvswI8JCCvFht3PfBjw.qHc7MukF6k-PgXLtrJ6J7VJXoNyv6eg6JOgQ8GuzFOQ&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745347546&amp;s=merchant-items&amp;sr=1-51&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147&amp;xpid=m2HGw1-372EnG</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Notebook Gigabyte G5 ME G5 ME-51BR213SH: Equipado com Core i5, 16GB DDR4, SSD de 512GB e VGA RTX 3050Ti 4GB. Tela FHD de 15.6" a 144Hz. Windows 11. Cor preto.</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>4 de 5</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>3</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>['Notebook Gigabyte G5 ME G5 ME-51BR213SH: Equipado com Core i5, 16GB DDR4, SSD de 512GB e VGA RTX 3050Ti 4GB. Tela FHD de 15.6" a 144Hz. Windows 11. Cor preto.']</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/415c1U1W7YL._AC_SL1000_.jpg</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>5</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>840x609</t>
+        </is>
+      </c>
+      <c r="K52" t="b">
+        <v>0</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Laptops Tradicionais</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>1018</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Laptops-Tradicionais/b/ref=dp_bc_3?ie=UTF8&amp;node=24088200011</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Notebook Gamer Gigabyte G5 (Core i5/ 12500H/ 16GB DDR4/ 512GB SSD/VGA RTX 4060/ Win 11 Home/Tela 15.6 FHD) Preto</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>R$9.799,00</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Notebook-Gamer-Gigabyte-12500H-512GB/dp/B0CWPPFWKP/ref=sr_1_52?dib=eyJ2IjoiMSJ9.b2-OKt0Tq9qSRfyD3vNpHr-IPuSpVDXjMd8Fl804Oq-4sT84dOW3zPzS66FPdOnOsm9wvswI8JCCvFht3PfBjw.qHc7MukF6k-PgXLtrJ6J7VJXoNyv6eg6JOgQ8GuzFOQ&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745347546&amp;s=merchant-items&amp;sr=1-52&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147&amp;xpid=m2HGw1-372EnG</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Notebook Gamer Gigabyte G5 KF-E3BR313SH: Equipado com Core i5, 16GB DDR4 e SSD de 512GB. VGA RTX 4060 e tela FHD de 15.6". Windows 11 Home. Cor preto.</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Sem avaliação</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>['Notebook Gamer Gigabyte G5 KF-E3BR313SH: Equipado com Core i5, 16GB DDR4 e SSD de 512GB. VGA RTX 4060 e tela FHD de 15.6". Windows 11 Home. Cor preto.']</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/61K19AoD2JL._AC_SL1500_.jpg</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>7</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>1332x877</t>
+        </is>
+      </c>
+      <c r="K53" t="b">
+        <v>0</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Laptops Tradicionais</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>1499</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Laptops-Tradicionais/b/ref=dp_bc_3?ie=UTF8&amp;node=24088200011</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>GIGABYTE Notebook Gamer G5 Kd, Intel I5-11400h, 15.6, Fhd, 16gb Ddr4, Ssd 512gb M.2, Rtx 3060 6gb, G5 Kd-52br123sd, Preto</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>R$8.998,90</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/GIGABYTE-Notebook-Gamer-I5-11400h-Kd-52br123sd/dp/B09W41TSBK/ref=sr_1_53?dib=eyJ2IjoiMSJ9.b2-OKt0Tq9qSRfyD3vNpHr-IPuSpVDXjMd8Fl804Oq-4sT84dOW3zPzS66FPdOnOsm9wvswI8JCCvFht3PfBjw.qHc7MukF6k-PgXLtrJ6J7VJXoNyv6eg6JOgQ8GuzFOQ&amp;dib_tag=se&amp;m=A2KZSP8E0ZF21S&amp;marketplaceID=A2Q3Y263D00KWC&amp;qid=1745347546&amp;s=merchant-items&amp;sr=1-53&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147&amp;xpid=m2HGw1-372EnG</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Marca: gigabyte modelo: g5 kd 52br123sd sistema operacional: efishell dos cpu: intel core i5 11400h de 11ª geração 2,7 ghz ~ 4,5 ghz tela: lcd antirreflexo de 15,6" com moldura fina fhd 1920x1080 ips taxa de atualização de 144hz memória: 2 x slots ddr4 ddr4 3200, max 64gb chipset: intel hm570 express para dispositivos móveis gráficos: gráficos intel uhd nvidia geforce rtx 3060 gpu para laptop 6 gb gddr6 boost clock 1425 mhz, potência gráfica máxima de 105 w tecnologias nvidia max q: dynamic boost 2.0, barra redimensionável e tecnologia optimus. armazenamento: 1 x slot para hdd/ssd de 2,5" suporta apenas 7mm ou mais fino 2 x slots ssd m.2 tipo 2280, suporta 1x nvme pcie gen3 e sata/1x nvme pcie gen4 suporte 3 sistema de armazenamento a capacidade de armazenamento pode diferir por país e região. entre em contato com seus revendedores ou revendedores locais para obter as informações mais recentes sobre o produto. tipo de teclado: teclado retroiluminado de cor única em todas as zonas com configuração de led de 15 cores portas: 1 x usb2.0 tipo a 1 x usb3.2 gen1 tipo a 1 x usb3.2 gen2 tipo a 1 x displayport 1.4 tipo c sobre usb 3.2 gen 2 1 x hdmi 2.0 com hdcp 1 x mini dp 1.2 1 x conector combo de áudio 1 x entrada de microfone 1 x leitor de cartão sd 1 x tomada de entrada dc 1 x rj 45 áudio: 2 x microfone de matriz dupla com alto falante de 2 watts dts:x ultra comunicações: lan: 1g lan ethernet wlan: intel ax201 wireless 802.11ax, compatível com a/b/g/n/ac/ax bluetooth: bluetooth v5.2 webcam: câmera hd segurança: tpm baseado em firmware, compatível com intel platform trust technology intel ptt bateria: até 48,96 whrs as especificações da bateria podem diferir devido a regulamentos de segurança. consulte o site da gigabyte para obter as informações mais recentes sobre o produto. adaptador: 180 w o adaptador pode diferir por país e região. entre em contato com seus revendedores ou revendedores locais para obter as informações mais recentes sobre o produto. peso: 2,18 kg dimensões: 36,1 x 25,8 x 2,59 ~ 3,18 cm</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>4 de 5</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>8</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>['Além do jogo! “Estabelecendo o novo padrão para entretenimento geral, fornecendo um belo equilíbrio entre jogos, entretenimento e recursos de trabalho', 'O laptop para jogos G5 combina jogos, entretenimento, trabalho e muito mais', 'Seu poderoso processador Intel Core i5 de 11ª geração permite que você lide com várias tarefas ao mesmo tempo sem esforço', 'Além disso, possui uma tela de até 144Hz, capacidade de armazenamento de até 6TB e tecnologia Wi-Fi 6 de última geração;']</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/61-F+xP0HfL._AC_SL1000_.jpg</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>5</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>900x593</t>
+        </is>
+      </c>
+      <c r="K54" t="b">
+        <v>0</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Laptops Tradicionais</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>807</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Laptops-Tradicionais/b/ref=dp_bc_3?ie=UTF8&amp;node=24088200011</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
         </is>
       </c>
     </row>
